--- a/Documentation/EGR314 BOM.xlsx
+++ b/Documentation/EGR314 BOM.xlsx
@@ -451,7 +451,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -472,8 +472,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF0F1111"/>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -486,14 +486,15 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF333333"/>
       <name val="&quot;Open Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -501,8 +502,8 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF444444"/>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -515,11 +516,6 @@
       <sz val="9.0"/>
       <color rgb="FF222222"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -548,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -582,17 +578,20 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -601,16 +600,16 @@
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -827,6 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -963,7 +963,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="5">
@@ -1016,30 +1016,30 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" s="6">
         <v>13.95</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>13.95</v>
+        <v>27.9</v>
       </c>
       <c r="E5" s="6">
         <v>13.95</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="2"/>
-        <v>13.95</v>
+        <v>27.9</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -1051,7 +1051,7 @@
       <c r="K5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="15">
         <v>2327183.0</v>
       </c>
       <c r="M5" s="9">
@@ -1062,14 +1062,14 @@
       </c>
       <c r="P5" s="12">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="5">
@@ -1113,7 +1113,7 @@
       <c r="N6" s="11">
         <v>45716.0</v>
       </c>
-      <c r="O6" s="15"/>
+      <c r="O6" s="16"/>
       <c r="P6" s="12">
         <f t="shared" si="3"/>
         <v>-3</v>
@@ -1123,7 +1123,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="5">
@@ -1167,7 +1167,7 @@
       <c r="N7" s="11">
         <v>45716.0</v>
       </c>
-      <c r="O7" s="15"/>
+      <c r="O7" s="16"/>
       <c r="P7" s="12">
         <f t="shared" si="3"/>
         <v>-3</v>
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="5">
@@ -1200,7 +1200,7 @@
       <c r="G8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="17">
         <v>8.6002027301E11</v>
       </c>
       <c r="I8" s="10" t="s">
@@ -1221,7 +1221,7 @@
       <c r="N8" s="11">
         <v>45716.0</v>
       </c>
-      <c r="O8" s="15"/>
+      <c r="O8" s="16"/>
       <c r="P8" s="12">
         <f t="shared" si="3"/>
         <v>-3</v>
@@ -1231,7 +1231,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="5">
@@ -1266,7 +1266,7 @@
       <c r="K9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="19" t="s">
         <v>59</v>
       </c>
       <c r="M9" s="9">
@@ -1275,7 +1275,7 @@
       <c r="N9" s="11">
         <v>45716.0</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="16"/>
       <c r="P9" s="12">
         <f t="shared" si="3"/>
         <v>-9</v>
@@ -1285,7 +1285,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="5">
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="5">
@@ -1391,7 +1391,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="5">
@@ -1435,7 +1435,7 @@
       <c r="N12" s="11">
         <v>45716.0</v>
       </c>
-      <c r="O12" s="15"/>
+      <c r="O12" s="16"/>
       <c r="P12" s="12">
         <f t="shared" si="3"/>
         <v>-3</v>
@@ -1445,7 +1445,7 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="5">
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B14" s="5">
@@ -1639,7 +1639,7 @@
       <c r="K16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M16" s="9">
@@ -1680,7 +1680,7 @@
       <c r="G17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="17">
         <v>6.94108301002E11</v>
       </c>
       <c r="I17" s="10" t="s">
@@ -1716,14 +1716,14 @@
       <c r="B18" s="5">
         <v>4.0</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="23">
         <v>0.95</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="23">
         <v>0.95</v>
       </c>
       <c r="F18" s="7">
@@ -1733,7 +1733,7 @@
       <c r="G18" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="17">
         <v>7.02460801E8</v>
       </c>
       <c r="I18" s="10" t="s">
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="24" t="s">
         <v>114</v>
       </c>
       <c r="B19" s="5">
@@ -1786,7 +1786,7 @@
       <c r="G19" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="22" t="s">
         <v>116</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B20" s="5">
@@ -1839,7 +1839,7 @@
       <c r="G20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="17">
         <v>5011.0</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -1922,7 +1922,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B22" s="5">
@@ -1980,11 +1980,11 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="N23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="N23" s="26"/>
       <c r="P23" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1996,11 +1996,11 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="N24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="N24" s="26"/>
       <c r="P24" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2012,11 +2012,11 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="N25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="N25" s="26"/>
       <c r="P25" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2028,10 +2028,10 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="N26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="N26" s="26"/>
       <c r="P26" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2043,10 +2043,10 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="N27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="N27" s="26"/>
       <c r="P27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2058,10 +2058,10 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="N28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="N28" s="26"/>
       <c r="P28" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2073,10 +2073,10 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="N29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="N29" s="26"/>
       <c r="P29" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2088,10 +2088,10 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="N30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="N30" s="26"/>
       <c r="P30" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2103,10 +2103,10 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="N31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="N31" s="26"/>
       <c r="P31" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2118,10 +2118,10 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="N32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="N32" s="26"/>
       <c r="P32" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2133,9 +2133,9 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="N33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="N33" s="26"/>
       <c r="P33" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2147,9 +2147,9 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="N34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="N34" s="26"/>
       <c r="P34" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2161,9 +2161,9 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="N35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="N35" s="26"/>
       <c r="P35" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2175,9 +2175,9 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="N36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="N36" s="26"/>
       <c r="P36" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2189,9 +2189,9 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="N37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="N37" s="26"/>
       <c r="P37" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2203,9 +2203,9 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="N38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="N38" s="26"/>
       <c r="P38" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2217,9 +2217,9 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="N39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="N39" s="26"/>
       <c r="P39" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2231,9 +2231,9 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="N40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="N40" s="26"/>
       <c r="P40" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2245,9 +2245,9 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="N41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="N41" s="26"/>
       <c r="P41" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2259,9 +2259,9 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="N42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="N42" s="26"/>
       <c r="P42" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2273,9 +2273,9 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="N43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="N43" s="26"/>
       <c r="P43" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2287,9 +2287,9 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="N44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="N44" s="26"/>
       <c r="P44" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2301,9 +2301,9 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="N45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="N45" s="26"/>
       <c r="P45" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2315,9 +2315,9 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="N46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="N46" s="26"/>
       <c r="P46" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2329,9 +2329,9 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="N47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="N47" s="26"/>
       <c r="P47" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2343,9 +2343,9 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="N48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="N48" s="26"/>
       <c r="P48" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2357,9 +2357,9 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="N49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="N49" s="26"/>
       <c r="P49" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2371,9 +2371,9 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="N50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="N50" s="26"/>
       <c r="P50" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2385,9 +2385,9 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="N51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="N51" s="26"/>
       <c r="P51" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2399,9 +2399,9 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="N52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="N52" s="26"/>
       <c r="P52" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2413,9 +2413,9 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="N53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="N53" s="26"/>
       <c r="P53" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2427,9 +2427,9 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="N54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="N54" s="26"/>
       <c r="P54" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2441,9 +2441,9 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="N55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="N55" s="26"/>
       <c r="P55" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2455,9 +2455,9 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="N56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="N56" s="26"/>
       <c r="P56" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2469,9 +2469,9 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="N57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="N57" s="26"/>
       <c r="P57" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2483,9 +2483,9 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="N58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="N58" s="26"/>
       <c r="P58" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2497,9 +2497,9 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="N59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="N59" s="26"/>
       <c r="P59" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2511,9 +2511,9 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="N60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="N60" s="26"/>
       <c r="P60" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2525,9 +2525,9 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="N61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="N61" s="26"/>
       <c r="P61" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2539,9 +2539,9 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="N62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="N62" s="26"/>
       <c r="P62" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2553,9 +2553,9 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="N63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="N63" s="26"/>
       <c r="P63" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2567,9 +2567,9 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="N64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="N64" s="26"/>
       <c r="P64" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2581,9 +2581,9 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="N65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="N65" s="26"/>
       <c r="P65" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2595,9 +2595,9 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="N66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="N66" s="26"/>
       <c r="P66" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2609,9 +2609,9 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="N67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="N67" s="26"/>
       <c r="P67" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2623,9 +2623,9 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="N68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="N68" s="26"/>
       <c r="P68" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2637,9 +2637,9 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="N69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="N69" s="26"/>
       <c r="P69" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2651,9 +2651,9 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="N70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="N70" s="26"/>
       <c r="P70" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2665,9 +2665,9 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="N71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="N71" s="26"/>
       <c r="P71" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2679,9 +2679,9 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="N72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="N72" s="26"/>
       <c r="P72" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2693,9 +2693,9 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="N73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="N73" s="26"/>
       <c r="P73" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2707,9 +2707,9 @@
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="N74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="N74" s="26"/>
       <c r="P74" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2721,9 +2721,9 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="N75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="N75" s="26"/>
       <c r="P75" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2735,9 +2735,9 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="N76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="N76" s="26"/>
       <c r="P76" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2749,9 +2749,9 @@
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="N77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="N77" s="26"/>
       <c r="P77" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2763,9 +2763,9 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="N78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="N78" s="26"/>
       <c r="P78" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2777,9 +2777,9 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="N79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="N79" s="26"/>
       <c r="P79" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2791,9 +2791,9 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="N80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="N80" s="26"/>
       <c r="P80" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2805,9 +2805,9 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="N81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="N81" s="26"/>
       <c r="P81" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2819,9 +2819,9 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="N82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="N82" s="26"/>
       <c r="P82" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2833,9 +2833,9 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="N83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="N83" s="26"/>
       <c r="P83" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2847,9 +2847,9 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="N84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="N84" s="26"/>
       <c r="P84" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2861,9 +2861,9 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="N85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="N85" s="26"/>
       <c r="P85" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2875,9 +2875,9 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="N86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="N86" s="26"/>
       <c r="P86" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2889,9 +2889,9 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="N87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="N87" s="26"/>
       <c r="P87" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2903,9 +2903,9 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="N88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="N88" s="26"/>
       <c r="P88" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2917,9 +2917,9 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="N89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="N89" s="26"/>
       <c r="P89" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2931,9 +2931,9 @@
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="N90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="N90" s="26"/>
       <c r="P90" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2945,9 +2945,9 @@
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="N91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="N91" s="26"/>
       <c r="P91" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2959,9 +2959,9 @@
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="N92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="N92" s="26"/>
       <c r="P92" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2973,9 +2973,9 @@
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="N93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="N93" s="26"/>
       <c r="P93" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2987,9 +2987,9 @@
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="N94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="N94" s="26"/>
       <c r="P94" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3001,9 +3001,9 @@
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="N95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="N95" s="26"/>
       <c r="P95" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3015,9 +3015,9 @@
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="N96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="N96" s="26"/>
       <c r="P96" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3029,9 +3029,9 @@
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="N97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="N97" s="26"/>
       <c r="P97" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3043,9 +3043,9 @@
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="N98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="N98" s="26"/>
       <c r="P98" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3057,9 +3057,9 @@
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="N99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="N99" s="26"/>
       <c r="P99" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3071,9 +3071,9 @@
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="N100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="N100" s="26"/>
       <c r="P100" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3085,3609 +3085,3609 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="N101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="N101" s="26"/>
       <c r="P101" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="I108" s="24"/>
-      <c r="J108" s="24"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="I112" s="24"/>
-      <c r="J112" s="24"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="I118" s="24"/>
-      <c r="J118" s="24"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="I123" s="24"/>
-      <c r="J123" s="24"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="I125" s="24"/>
-      <c r="J125" s="24"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="I126" s="24"/>
-      <c r="J126" s="24"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="25"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="I127" s="24"/>
-      <c r="J127" s="24"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="25"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="I128" s="24"/>
-      <c r="J128" s="24"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="I130" s="24"/>
-      <c r="J130" s="24"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="I132" s="24"/>
-      <c r="J132" s="24"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="25"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="25"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="I134" s="24"/>
-      <c r="J134" s="24"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="I135" s="24"/>
-      <c r="J135" s="24"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="25"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="I136" s="24"/>
-      <c r="J136" s="24"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="25"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="I138" s="24"/>
-      <c r="J138" s="24"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="25"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="I139" s="24"/>
-      <c r="J139" s="24"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="I140" s="24"/>
-      <c r="J140" s="24"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="I141" s="24"/>
-      <c r="J141" s="24"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="25"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="I142" s="24"/>
-      <c r="J142" s="24"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="25"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="25"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="I144" s="24"/>
-      <c r="J144" s="24"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="25"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="I145" s="24"/>
-      <c r="J145" s="24"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="25"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="I146" s="24"/>
-      <c r="J146" s="24"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="I147" s="24"/>
-      <c r="J147" s="24"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="I148" s="24"/>
-      <c r="J148" s="24"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="25"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="I149" s="24"/>
-      <c r="J149" s="24"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="25"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="25"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="I151" s="24"/>
-      <c r="J151" s="24"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="25"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="I152" s="24"/>
-      <c r="J152" s="24"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="25"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="I153" s="24"/>
-      <c r="J153" s="24"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="25"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="I154" s="24"/>
-      <c r="J154" s="24"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="25"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="I155" s="24"/>
-      <c r="J155" s="24"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="I156" s="24"/>
-      <c r="J156" s="24"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="I157" s="24"/>
-      <c r="J157" s="24"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="I158" s="24"/>
-      <c r="J158" s="24"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="25"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="I159" s="24"/>
-      <c r="J159" s="24"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="I160" s="24"/>
-      <c r="J160" s="24"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="25"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="I161" s="24"/>
-      <c r="J161" s="24"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="25"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="I162" s="24"/>
-      <c r="J162" s="24"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="I163" s="24"/>
-      <c r="J163" s="24"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="25"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="I164" s="24"/>
-      <c r="J164" s="24"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="25"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="I165" s="24"/>
-      <c r="J165" s="24"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="25"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="I166" s="24"/>
-      <c r="J166" s="24"/>
+      <c r="I166" s="25"/>
+      <c r="J166" s="25"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="I167" s="24"/>
-      <c r="J167" s="24"/>
+      <c r="I167" s="25"/>
+      <c r="J167" s="25"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="I168" s="24"/>
-      <c r="J168" s="24"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="25"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="I169" s="24"/>
-      <c r="J169" s="24"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="25"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="I170" s="24"/>
-      <c r="J170" s="24"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="25"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="I171" s="24"/>
-      <c r="J171" s="24"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="25"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="I172" s="24"/>
-      <c r="J172" s="24"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="25"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="I173" s="24"/>
-      <c r="J173" s="24"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="25"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="I174" s="24"/>
-      <c r="J174" s="24"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="25"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="I175" s="24"/>
-      <c r="J175" s="24"/>
+      <c r="I175" s="25"/>
+      <c r="J175" s="25"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="I176" s="24"/>
-      <c r="J176" s="24"/>
+      <c r="I176" s="25"/>
+      <c r="J176" s="25"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="I177" s="24"/>
-      <c r="J177" s="24"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="25"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="I178" s="24"/>
-      <c r="J178" s="24"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="25"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="I179" s="24"/>
-      <c r="J179" s="24"/>
+      <c r="I179" s="25"/>
+      <c r="J179" s="25"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="I180" s="24"/>
-      <c r="J180" s="24"/>
+      <c r="I180" s="25"/>
+      <c r="J180" s="25"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="I181" s="24"/>
-      <c r="J181" s="24"/>
+      <c r="I181" s="25"/>
+      <c r="J181" s="25"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="I182" s="24"/>
-      <c r="J182" s="24"/>
+      <c r="I182" s="25"/>
+      <c r="J182" s="25"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="I183" s="24"/>
-      <c r="J183" s="24"/>
+      <c r="I183" s="25"/>
+      <c r="J183" s="25"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="I184" s="24"/>
-      <c r="J184" s="24"/>
+      <c r="I184" s="25"/>
+      <c r="J184" s="25"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="I185" s="24"/>
-      <c r="J185" s="24"/>
+      <c r="I185" s="25"/>
+      <c r="J185" s="25"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="I186" s="24"/>
-      <c r="J186" s="24"/>
+      <c r="I186" s="25"/>
+      <c r="J186" s="25"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="I187" s="24"/>
-      <c r="J187" s="24"/>
+      <c r="I187" s="25"/>
+      <c r="J187" s="25"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="I188" s="24"/>
-      <c r="J188" s="24"/>
+      <c r="I188" s="25"/>
+      <c r="J188" s="25"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="I189" s="24"/>
-      <c r="J189" s="24"/>
+      <c r="I189" s="25"/>
+      <c r="J189" s="25"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="I190" s="24"/>
-      <c r="J190" s="24"/>
+      <c r="I190" s="25"/>
+      <c r="J190" s="25"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="I191" s="24"/>
-      <c r="J191" s="24"/>
+      <c r="I191" s="25"/>
+      <c r="J191" s="25"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="I192" s="24"/>
-      <c r="J192" s="24"/>
+      <c r="I192" s="25"/>
+      <c r="J192" s="25"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="I193" s="24"/>
-      <c r="J193" s="24"/>
+      <c r="I193" s="25"/>
+      <c r="J193" s="25"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="I194" s="24"/>
-      <c r="J194" s="24"/>
+      <c r="I194" s="25"/>
+      <c r="J194" s="25"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="I195" s="24"/>
-      <c r="J195" s="24"/>
+      <c r="I195" s="25"/>
+      <c r="J195" s="25"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="I196" s="24"/>
-      <c r="J196" s="24"/>
+      <c r="I196" s="25"/>
+      <c r="J196" s="25"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="I197" s="24"/>
-      <c r="J197" s="24"/>
+      <c r="I197" s="25"/>
+      <c r="J197" s="25"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="I198" s="24"/>
-      <c r="J198" s="24"/>
+      <c r="I198" s="25"/>
+      <c r="J198" s="25"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="I199" s="24"/>
-      <c r="J199" s="24"/>
+      <c r="I199" s="25"/>
+      <c r="J199" s="25"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="I200" s="24"/>
-      <c r="J200" s="24"/>
+      <c r="I200" s="25"/>
+      <c r="J200" s="25"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="I201" s="24"/>
-      <c r="J201" s="24"/>
+      <c r="I201" s="25"/>
+      <c r="J201" s="25"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="I202" s="24"/>
-      <c r="J202" s="24"/>
+      <c r="I202" s="25"/>
+      <c r="J202" s="25"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="I203" s="24"/>
-      <c r="J203" s="24"/>
+      <c r="I203" s="25"/>
+      <c r="J203" s="25"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="I204" s="24"/>
-      <c r="J204" s="24"/>
+      <c r="I204" s="25"/>
+      <c r="J204" s="25"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="I205" s="24"/>
-      <c r="J205" s="24"/>
+      <c r="I205" s="25"/>
+      <c r="J205" s="25"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="I206" s="24"/>
-      <c r="J206" s="24"/>
+      <c r="I206" s="25"/>
+      <c r="J206" s="25"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="I207" s="24"/>
-      <c r="J207" s="24"/>
+      <c r="I207" s="25"/>
+      <c r="J207" s="25"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="I208" s="24"/>
-      <c r="J208" s="24"/>
+      <c r="I208" s="25"/>
+      <c r="J208" s="25"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="I209" s="24"/>
-      <c r="J209" s="24"/>
+      <c r="I209" s="25"/>
+      <c r="J209" s="25"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="I210" s="24"/>
-      <c r="J210" s="24"/>
+      <c r="I210" s="25"/>
+      <c r="J210" s="25"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="I211" s="24"/>
-      <c r="J211" s="24"/>
+      <c r="I211" s="25"/>
+      <c r="J211" s="25"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="I212" s="24"/>
-      <c r="J212" s="24"/>
+      <c r="I212" s="25"/>
+      <c r="J212" s="25"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="I213" s="24"/>
-      <c r="J213" s="24"/>
+      <c r="I213" s="25"/>
+      <c r="J213" s="25"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="I214" s="24"/>
-      <c r="J214" s="24"/>
+      <c r="I214" s="25"/>
+      <c r="J214" s="25"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="I215" s="24"/>
-      <c r="J215" s="24"/>
+      <c r="I215" s="25"/>
+      <c r="J215" s="25"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="I216" s="24"/>
-      <c r="J216" s="24"/>
+      <c r="I216" s="25"/>
+      <c r="J216" s="25"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="I217" s="24"/>
-      <c r="J217" s="24"/>
+      <c r="I217" s="25"/>
+      <c r="J217" s="25"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="I218" s="24"/>
-      <c r="J218" s="24"/>
+      <c r="I218" s="25"/>
+      <c r="J218" s="25"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="I219" s="24"/>
-      <c r="J219" s="24"/>
+      <c r="I219" s="25"/>
+      <c r="J219" s="25"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="I220" s="24"/>
-      <c r="J220" s="24"/>
+      <c r="I220" s="25"/>
+      <c r="J220" s="25"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="I221" s="24"/>
-      <c r="J221" s="24"/>
+      <c r="I221" s="25"/>
+      <c r="J221" s="25"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="I222" s="24"/>
-      <c r="J222" s="24"/>
+      <c r="I222" s="25"/>
+      <c r="J222" s="25"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="I223" s="24"/>
-      <c r="J223" s="24"/>
+      <c r="I223" s="25"/>
+      <c r="J223" s="25"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="I224" s="24"/>
-      <c r="J224" s="24"/>
+      <c r="I224" s="25"/>
+      <c r="J224" s="25"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="I225" s="24"/>
-      <c r="J225" s="24"/>
+      <c r="I225" s="25"/>
+      <c r="J225" s="25"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="I226" s="24"/>
-      <c r="J226" s="24"/>
+      <c r="I226" s="25"/>
+      <c r="J226" s="25"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="I227" s="24"/>
-      <c r="J227" s="24"/>
+      <c r="I227" s="25"/>
+      <c r="J227" s="25"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="I228" s="24"/>
-      <c r="J228" s="24"/>
+      <c r="I228" s="25"/>
+      <c r="J228" s="25"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="I229" s="24"/>
-      <c r="J229" s="24"/>
+      <c r="I229" s="25"/>
+      <c r="J229" s="25"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="I230" s="24"/>
-      <c r="J230" s="24"/>
+      <c r="I230" s="25"/>
+      <c r="J230" s="25"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="I231" s="24"/>
-      <c r="J231" s="24"/>
+      <c r="I231" s="25"/>
+      <c r="J231" s="25"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="I232" s="24"/>
-      <c r="J232" s="24"/>
+      <c r="I232" s="25"/>
+      <c r="J232" s="25"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="I233" s="24"/>
-      <c r="J233" s="24"/>
+      <c r="I233" s="25"/>
+      <c r="J233" s="25"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="I234" s="24"/>
-      <c r="J234" s="24"/>
+      <c r="I234" s="25"/>
+      <c r="J234" s="25"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="I235" s="24"/>
-      <c r="J235" s="24"/>
+      <c r="I235" s="25"/>
+      <c r="J235" s="25"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="I236" s="24"/>
-      <c r="J236" s="24"/>
+      <c r="I236" s="25"/>
+      <c r="J236" s="25"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="I237" s="24"/>
-      <c r="J237" s="24"/>
+      <c r="I237" s="25"/>
+      <c r="J237" s="25"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="I238" s="24"/>
-      <c r="J238" s="24"/>
+      <c r="I238" s="25"/>
+      <c r="J238" s="25"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="I239" s="24"/>
-      <c r="J239" s="24"/>
+      <c r="I239" s="25"/>
+      <c r="J239" s="25"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="I240" s="24"/>
-      <c r="J240" s="24"/>
+      <c r="I240" s="25"/>
+      <c r="J240" s="25"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="I241" s="24"/>
-      <c r="J241" s="24"/>
+      <c r="I241" s="25"/>
+      <c r="J241" s="25"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="I242" s="24"/>
-      <c r="J242" s="24"/>
+      <c r="I242" s="25"/>
+      <c r="J242" s="25"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="I243" s="24"/>
-      <c r="J243" s="24"/>
+      <c r="I243" s="25"/>
+      <c r="J243" s="25"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="I244" s="24"/>
-      <c r="J244" s="24"/>
+      <c r="I244" s="25"/>
+      <c r="J244" s="25"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="I245" s="24"/>
-      <c r="J245" s="24"/>
+      <c r="I245" s="25"/>
+      <c r="J245" s="25"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="I246" s="24"/>
-      <c r="J246" s="24"/>
+      <c r="I246" s="25"/>
+      <c r="J246" s="25"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="I247" s="24"/>
-      <c r="J247" s="24"/>
+      <c r="I247" s="25"/>
+      <c r="J247" s="25"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="I248" s="24"/>
-      <c r="J248" s="24"/>
+      <c r="I248" s="25"/>
+      <c r="J248" s="25"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="I249" s="24"/>
-      <c r="J249" s="24"/>
+      <c r="I249" s="25"/>
+      <c r="J249" s="25"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="I250" s="24"/>
-      <c r="J250" s="24"/>
+      <c r="I250" s="25"/>
+      <c r="J250" s="25"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="I251" s="24"/>
-      <c r="J251" s="24"/>
+      <c r="I251" s="25"/>
+      <c r="J251" s="25"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="I252" s="24"/>
-      <c r="J252" s="24"/>
+      <c r="I252" s="25"/>
+      <c r="J252" s="25"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="I253" s="24"/>
-      <c r="J253" s="24"/>
+      <c r="I253" s="25"/>
+      <c r="J253" s="25"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="I254" s="24"/>
-      <c r="J254" s="24"/>
+      <c r="I254" s="25"/>
+      <c r="J254" s="25"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="I255" s="24"/>
-      <c r="J255" s="24"/>
+      <c r="I255" s="25"/>
+      <c r="J255" s="25"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="I256" s="24"/>
-      <c r="J256" s="24"/>
+      <c r="I256" s="25"/>
+      <c r="J256" s="25"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="I257" s="24"/>
-      <c r="J257" s="24"/>
+      <c r="I257" s="25"/>
+      <c r="J257" s="25"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="I258" s="24"/>
-      <c r="J258" s="24"/>
+      <c r="I258" s="25"/>
+      <c r="J258" s="25"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="I259" s="24"/>
-      <c r="J259" s="24"/>
+      <c r="I259" s="25"/>
+      <c r="J259" s="25"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="I260" s="24"/>
-      <c r="J260" s="24"/>
+      <c r="I260" s="25"/>
+      <c r="J260" s="25"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="I261" s="24"/>
-      <c r="J261" s="24"/>
+      <c r="I261" s="25"/>
+      <c r="J261" s="25"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="I262" s="24"/>
-      <c r="J262" s="24"/>
+      <c r="I262" s="25"/>
+      <c r="J262" s="25"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="I263" s="24"/>
-      <c r="J263" s="24"/>
+      <c r="I263" s="25"/>
+      <c r="J263" s="25"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="I264" s="24"/>
-      <c r="J264" s="24"/>
+      <c r="I264" s="25"/>
+      <c r="J264" s="25"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="I265" s="24"/>
-      <c r="J265" s="24"/>
+      <c r="I265" s="25"/>
+      <c r="J265" s="25"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="I266" s="24"/>
-      <c r="J266" s="24"/>
+      <c r="I266" s="25"/>
+      <c r="J266" s="25"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="I267" s="24"/>
-      <c r="J267" s="24"/>
+      <c r="I267" s="25"/>
+      <c r="J267" s="25"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="I268" s="24"/>
-      <c r="J268" s="24"/>
+      <c r="I268" s="25"/>
+      <c r="J268" s="25"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="I269" s="24"/>
-      <c r="J269" s="24"/>
+      <c r="I269" s="25"/>
+      <c r="J269" s="25"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="I270" s="24"/>
-      <c r="J270" s="24"/>
+      <c r="I270" s="25"/>
+      <c r="J270" s="25"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="I271" s="24"/>
-      <c r="J271" s="24"/>
+      <c r="I271" s="25"/>
+      <c r="J271" s="25"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="I272" s="24"/>
-      <c r="J272" s="24"/>
+      <c r="I272" s="25"/>
+      <c r="J272" s="25"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="I273" s="24"/>
-      <c r="J273" s="24"/>
+      <c r="I273" s="25"/>
+      <c r="J273" s="25"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="I274" s="24"/>
-      <c r="J274" s="24"/>
+      <c r="I274" s="25"/>
+      <c r="J274" s="25"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="I275" s="24"/>
-      <c r="J275" s="24"/>
+      <c r="I275" s="25"/>
+      <c r="J275" s="25"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="I276" s="24"/>
-      <c r="J276" s="24"/>
+      <c r="I276" s="25"/>
+      <c r="J276" s="25"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="I277" s="24"/>
-      <c r="J277" s="24"/>
+      <c r="I277" s="25"/>
+      <c r="J277" s="25"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="I278" s="24"/>
-      <c r="J278" s="24"/>
+      <c r="I278" s="25"/>
+      <c r="J278" s="25"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="I279" s="24"/>
-      <c r="J279" s="24"/>
+      <c r="I279" s="25"/>
+      <c r="J279" s="25"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="I280" s="24"/>
-      <c r="J280" s="24"/>
+      <c r="I280" s="25"/>
+      <c r="J280" s="25"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="I281" s="24"/>
-      <c r="J281" s="24"/>
+      <c r="I281" s="25"/>
+      <c r="J281" s="25"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="I282" s="24"/>
-      <c r="J282" s="24"/>
+      <c r="I282" s="25"/>
+      <c r="J282" s="25"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="I283" s="24"/>
-      <c r="J283" s="24"/>
+      <c r="I283" s="25"/>
+      <c r="J283" s="25"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="I284" s="24"/>
-      <c r="J284" s="24"/>
+      <c r="I284" s="25"/>
+      <c r="J284" s="25"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="I285" s="24"/>
-      <c r="J285" s="24"/>
+      <c r="I285" s="25"/>
+      <c r="J285" s="25"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="I286" s="24"/>
-      <c r="J286" s="24"/>
+      <c r="I286" s="25"/>
+      <c r="J286" s="25"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="I287" s="24"/>
-      <c r="J287" s="24"/>
+      <c r="I287" s="25"/>
+      <c r="J287" s="25"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="I288" s="24"/>
-      <c r="J288" s="24"/>
+      <c r="I288" s="25"/>
+      <c r="J288" s="25"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="I289" s="24"/>
-      <c r="J289" s="24"/>
+      <c r="I289" s="25"/>
+      <c r="J289" s="25"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="I290" s="24"/>
-      <c r="J290" s="24"/>
+      <c r="I290" s="25"/>
+      <c r="J290" s="25"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="I291" s="24"/>
-      <c r="J291" s="24"/>
+      <c r="I291" s="25"/>
+      <c r="J291" s="25"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="I292" s="24"/>
-      <c r="J292" s="24"/>
+      <c r="I292" s="25"/>
+      <c r="J292" s="25"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="I293" s="24"/>
-      <c r="J293" s="24"/>
+      <c r="I293" s="25"/>
+      <c r="J293" s="25"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="I294" s="24"/>
-      <c r="J294" s="24"/>
+      <c r="I294" s="25"/>
+      <c r="J294" s="25"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="I295" s="24"/>
-      <c r="J295" s="24"/>
+      <c r="I295" s="25"/>
+      <c r="J295" s="25"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="I296" s="24"/>
-      <c r="J296" s="24"/>
+      <c r="I296" s="25"/>
+      <c r="J296" s="25"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="I297" s="24"/>
-      <c r="J297" s="24"/>
+      <c r="I297" s="25"/>
+      <c r="J297" s="25"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="I298" s="24"/>
-      <c r="J298" s="24"/>
+      <c r="I298" s="25"/>
+      <c r="J298" s="25"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="I299" s="24"/>
-      <c r="J299" s="24"/>
+      <c r="I299" s="25"/>
+      <c r="J299" s="25"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="I300" s="24"/>
-      <c r="J300" s="24"/>
+      <c r="I300" s="25"/>
+      <c r="J300" s="25"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="I301" s="24"/>
-      <c r="J301" s="24"/>
+      <c r="I301" s="25"/>
+      <c r="J301" s="25"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="I302" s="24"/>
-      <c r="J302" s="24"/>
+      <c r="I302" s="25"/>
+      <c r="J302" s="25"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="I303" s="24"/>
-      <c r="J303" s="24"/>
+      <c r="I303" s="25"/>
+      <c r="J303" s="25"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="I304" s="24"/>
-      <c r="J304" s="24"/>
+      <c r="I304" s="25"/>
+      <c r="J304" s="25"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="I305" s="24"/>
-      <c r="J305" s="24"/>
+      <c r="I305" s="25"/>
+      <c r="J305" s="25"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="I306" s="24"/>
-      <c r="J306" s="24"/>
+      <c r="I306" s="25"/>
+      <c r="J306" s="25"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="I307" s="24"/>
-      <c r="J307" s="24"/>
+      <c r="I307" s="25"/>
+      <c r="J307" s="25"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="I308" s="24"/>
-      <c r="J308" s="24"/>
+      <c r="I308" s="25"/>
+      <c r="J308" s="25"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="I309" s="24"/>
-      <c r="J309" s="24"/>
+      <c r="I309" s="25"/>
+      <c r="J309" s="25"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="I310" s="24"/>
-      <c r="J310" s="24"/>
+      <c r="I310" s="25"/>
+      <c r="J310" s="25"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="I311" s="24"/>
-      <c r="J311" s="24"/>
+      <c r="I311" s="25"/>
+      <c r="J311" s="25"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="I312" s="24"/>
-      <c r="J312" s="24"/>
+      <c r="I312" s="25"/>
+      <c r="J312" s="25"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="I313" s="24"/>
-      <c r="J313" s="24"/>
+      <c r="I313" s="25"/>
+      <c r="J313" s="25"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="I314" s="24"/>
-      <c r="J314" s="24"/>
+      <c r="I314" s="25"/>
+      <c r="J314" s="25"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="I315" s="24"/>
-      <c r="J315" s="24"/>
+      <c r="I315" s="25"/>
+      <c r="J315" s="25"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="I316" s="24"/>
-      <c r="J316" s="24"/>
+      <c r="I316" s="25"/>
+      <c r="J316" s="25"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="I317" s="24"/>
-      <c r="J317" s="24"/>
+      <c r="I317" s="25"/>
+      <c r="J317" s="25"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="I318" s="24"/>
-      <c r="J318" s="24"/>
+      <c r="I318" s="25"/>
+      <c r="J318" s="25"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="I319" s="24"/>
-      <c r="J319" s="24"/>
+      <c r="I319" s="25"/>
+      <c r="J319" s="25"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="I320" s="24"/>
-      <c r="J320" s="24"/>
+      <c r="I320" s="25"/>
+      <c r="J320" s="25"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="I321" s="24"/>
-      <c r="J321" s="24"/>
+      <c r="I321" s="25"/>
+      <c r="J321" s="25"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="I322" s="24"/>
-      <c r="J322" s="24"/>
+      <c r="I322" s="25"/>
+      <c r="J322" s="25"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="I323" s="24"/>
-      <c r="J323" s="24"/>
+      <c r="I323" s="25"/>
+      <c r="J323" s="25"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="I324" s="24"/>
-      <c r="J324" s="24"/>
+      <c r="I324" s="25"/>
+      <c r="J324" s="25"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="I325" s="24"/>
-      <c r="J325" s="24"/>
+      <c r="I325" s="25"/>
+      <c r="J325" s="25"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="I326" s="24"/>
-      <c r="J326" s="24"/>
+      <c r="I326" s="25"/>
+      <c r="J326" s="25"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="I327" s="24"/>
-      <c r="J327" s="24"/>
+      <c r="I327" s="25"/>
+      <c r="J327" s="25"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="I328" s="24"/>
-      <c r="J328" s="24"/>
+      <c r="I328" s="25"/>
+      <c r="J328" s="25"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="I329" s="24"/>
-      <c r="J329" s="24"/>
+      <c r="I329" s="25"/>
+      <c r="J329" s="25"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="I330" s="24"/>
-      <c r="J330" s="24"/>
+      <c r="I330" s="25"/>
+      <c r="J330" s="25"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="I331" s="24"/>
-      <c r="J331" s="24"/>
+      <c r="I331" s="25"/>
+      <c r="J331" s="25"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="I332" s="24"/>
-      <c r="J332" s="24"/>
+      <c r="I332" s="25"/>
+      <c r="J332" s="25"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="I333" s="24"/>
-      <c r="J333" s="24"/>
+      <c r="I333" s="25"/>
+      <c r="J333" s="25"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="I334" s="24"/>
-      <c r="J334" s="24"/>
+      <c r="I334" s="25"/>
+      <c r="J334" s="25"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="I335" s="24"/>
-      <c r="J335" s="24"/>
+      <c r="I335" s="25"/>
+      <c r="J335" s="25"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="I336" s="24"/>
-      <c r="J336" s="24"/>
+      <c r="I336" s="25"/>
+      <c r="J336" s="25"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="I337" s="24"/>
-      <c r="J337" s="24"/>
+      <c r="I337" s="25"/>
+      <c r="J337" s="25"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="I338" s="24"/>
-      <c r="J338" s="24"/>
+      <c r="I338" s="25"/>
+      <c r="J338" s="25"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="I339" s="24"/>
-      <c r="J339" s="24"/>
+      <c r="I339" s="25"/>
+      <c r="J339" s="25"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="I340" s="24"/>
-      <c r="J340" s="24"/>
+      <c r="I340" s="25"/>
+      <c r="J340" s="25"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="I341" s="24"/>
-      <c r="J341" s="24"/>
+      <c r="I341" s="25"/>
+      <c r="J341" s="25"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="I342" s="24"/>
-      <c r="J342" s="24"/>
+      <c r="I342" s="25"/>
+      <c r="J342" s="25"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="I343" s="24"/>
-      <c r="J343" s="24"/>
+      <c r="I343" s="25"/>
+      <c r="J343" s="25"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="I344" s="24"/>
-      <c r="J344" s="24"/>
+      <c r="I344" s="25"/>
+      <c r="J344" s="25"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="I345" s="24"/>
-      <c r="J345" s="24"/>
+      <c r="I345" s="25"/>
+      <c r="J345" s="25"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="I346" s="24"/>
-      <c r="J346" s="24"/>
+      <c r="I346" s="25"/>
+      <c r="J346" s="25"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="I347" s="24"/>
-      <c r="J347" s="24"/>
+      <c r="I347" s="25"/>
+      <c r="J347" s="25"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="I348" s="24"/>
-      <c r="J348" s="24"/>
+      <c r="I348" s="25"/>
+      <c r="J348" s="25"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="I349" s="24"/>
-      <c r="J349" s="24"/>
+      <c r="I349" s="25"/>
+      <c r="J349" s="25"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="I350" s="24"/>
-      <c r="J350" s="24"/>
+      <c r="I350" s="25"/>
+      <c r="J350" s="25"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="I351" s="24"/>
-      <c r="J351" s="24"/>
+      <c r="I351" s="25"/>
+      <c r="J351" s="25"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="I352" s="24"/>
-      <c r="J352" s="24"/>
+      <c r="I352" s="25"/>
+      <c r="J352" s="25"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="I353" s="24"/>
-      <c r="J353" s="24"/>
+      <c r="I353" s="25"/>
+      <c r="J353" s="25"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="I354" s="24"/>
-      <c r="J354" s="24"/>
+      <c r="I354" s="25"/>
+      <c r="J354" s="25"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="I355" s="24"/>
-      <c r="J355" s="24"/>
+      <c r="I355" s="25"/>
+      <c r="J355" s="25"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="I356" s="24"/>
-      <c r="J356" s="24"/>
+      <c r="I356" s="25"/>
+      <c r="J356" s="25"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="I357" s="24"/>
-      <c r="J357" s="24"/>
+      <c r="I357" s="25"/>
+      <c r="J357" s="25"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="I358" s="24"/>
-      <c r="J358" s="24"/>
+      <c r="I358" s="25"/>
+      <c r="J358" s="25"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="I359" s="24"/>
-      <c r="J359" s="24"/>
+      <c r="I359" s="25"/>
+      <c r="J359" s="25"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="I360" s="24"/>
-      <c r="J360" s="24"/>
+      <c r="I360" s="25"/>
+      <c r="J360" s="25"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="I361" s="24"/>
-      <c r="J361" s="24"/>
+      <c r="I361" s="25"/>
+      <c r="J361" s="25"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="I362" s="24"/>
-      <c r="J362" s="24"/>
+      <c r="I362" s="25"/>
+      <c r="J362" s="25"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="I363" s="24"/>
-      <c r="J363" s="24"/>
+      <c r="I363" s="25"/>
+      <c r="J363" s="25"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="I364" s="24"/>
-      <c r="J364" s="24"/>
+      <c r="I364" s="25"/>
+      <c r="J364" s="25"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="I365" s="24"/>
-      <c r="J365" s="24"/>
+      <c r="I365" s="25"/>
+      <c r="J365" s="25"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="I366" s="24"/>
-      <c r="J366" s="24"/>
+      <c r="I366" s="25"/>
+      <c r="J366" s="25"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="I367" s="24"/>
-      <c r="J367" s="24"/>
+      <c r="I367" s="25"/>
+      <c r="J367" s="25"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="I368" s="24"/>
-      <c r="J368" s="24"/>
+      <c r="I368" s="25"/>
+      <c r="J368" s="25"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="I369" s="24"/>
-      <c r="J369" s="24"/>
+      <c r="I369" s="25"/>
+      <c r="J369" s="25"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="I370" s="24"/>
-      <c r="J370" s="24"/>
+      <c r="I370" s="25"/>
+      <c r="J370" s="25"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="I371" s="24"/>
-      <c r="J371" s="24"/>
+      <c r="I371" s="25"/>
+      <c r="J371" s="25"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="I372" s="24"/>
-      <c r="J372" s="24"/>
+      <c r="I372" s="25"/>
+      <c r="J372" s="25"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="I373" s="24"/>
-      <c r="J373" s="24"/>
+      <c r="I373" s="25"/>
+      <c r="J373" s="25"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="I374" s="24"/>
-      <c r="J374" s="24"/>
+      <c r="I374" s="25"/>
+      <c r="J374" s="25"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="I375" s="24"/>
-      <c r="J375" s="24"/>
+      <c r="I375" s="25"/>
+      <c r="J375" s="25"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="I376" s="24"/>
-      <c r="J376" s="24"/>
+      <c r="I376" s="25"/>
+      <c r="J376" s="25"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="I377" s="24"/>
-      <c r="J377" s="24"/>
+      <c r="I377" s="25"/>
+      <c r="J377" s="25"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="I378" s="24"/>
-      <c r="J378" s="24"/>
+      <c r="I378" s="25"/>
+      <c r="J378" s="25"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="I379" s="24"/>
-      <c r="J379" s="24"/>
+      <c r="I379" s="25"/>
+      <c r="J379" s="25"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="I380" s="24"/>
-      <c r="J380" s="24"/>
+      <c r="I380" s="25"/>
+      <c r="J380" s="25"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="I381" s="24"/>
-      <c r="J381" s="24"/>
+      <c r="I381" s="25"/>
+      <c r="J381" s="25"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="I382" s="24"/>
-      <c r="J382" s="24"/>
+      <c r="I382" s="25"/>
+      <c r="J382" s="25"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="I383" s="24"/>
-      <c r="J383" s="24"/>
+      <c r="I383" s="25"/>
+      <c r="J383" s="25"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="I384" s="24"/>
-      <c r="J384" s="24"/>
+      <c r="I384" s="25"/>
+      <c r="J384" s="25"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="I385" s="24"/>
-      <c r="J385" s="24"/>
+      <c r="I385" s="25"/>
+      <c r="J385" s="25"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="I386" s="24"/>
-      <c r="J386" s="24"/>
+      <c r="I386" s="25"/>
+      <c r="J386" s="25"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="I387" s="24"/>
-      <c r="J387" s="24"/>
+      <c r="I387" s="25"/>
+      <c r="J387" s="25"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="I388" s="24"/>
-      <c r="J388" s="24"/>
+      <c r="I388" s="25"/>
+      <c r="J388" s="25"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="I389" s="24"/>
-      <c r="J389" s="24"/>
+      <c r="I389" s="25"/>
+      <c r="J389" s="25"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="I390" s="24"/>
-      <c r="J390" s="24"/>
+      <c r="I390" s="25"/>
+      <c r="J390" s="25"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="I391" s="24"/>
-      <c r="J391" s="24"/>
+      <c r="I391" s="25"/>
+      <c r="J391" s="25"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="I392" s="24"/>
-      <c r="J392" s="24"/>
+      <c r="I392" s="25"/>
+      <c r="J392" s="25"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="I393" s="24"/>
-      <c r="J393" s="24"/>
+      <c r="I393" s="25"/>
+      <c r="J393" s="25"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="I394" s="24"/>
-      <c r="J394" s="24"/>
+      <c r="I394" s="25"/>
+      <c r="J394" s="25"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="I395" s="24"/>
-      <c r="J395" s="24"/>
+      <c r="I395" s="25"/>
+      <c r="J395" s="25"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="I396" s="24"/>
-      <c r="J396" s="24"/>
+      <c r="I396" s="25"/>
+      <c r="J396" s="25"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="I397" s="24"/>
-      <c r="J397" s="24"/>
+      <c r="I397" s="25"/>
+      <c r="J397" s="25"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="I398" s="24"/>
-      <c r="J398" s="24"/>
+      <c r="I398" s="25"/>
+      <c r="J398" s="25"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="I399" s="24"/>
-      <c r="J399" s="24"/>
+      <c r="I399" s="25"/>
+      <c r="J399" s="25"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="I400" s="24"/>
-      <c r="J400" s="24"/>
+      <c r="I400" s="25"/>
+      <c r="J400" s="25"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="I401" s="24"/>
-      <c r="J401" s="24"/>
+      <c r="I401" s="25"/>
+      <c r="J401" s="25"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="I402" s="24"/>
-      <c r="J402" s="24"/>
+      <c r="I402" s="25"/>
+      <c r="J402" s="25"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="I403" s="24"/>
-      <c r="J403" s="24"/>
+      <c r="I403" s="25"/>
+      <c r="J403" s="25"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="I404" s="24"/>
-      <c r="J404" s="24"/>
+      <c r="I404" s="25"/>
+      <c r="J404" s="25"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="I405" s="24"/>
-      <c r="J405" s="24"/>
+      <c r="I405" s="25"/>
+      <c r="J405" s="25"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="I406" s="24"/>
-      <c r="J406" s="24"/>
+      <c r="I406" s="25"/>
+      <c r="J406" s="25"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="I407" s="24"/>
-      <c r="J407" s="24"/>
+      <c r="I407" s="25"/>
+      <c r="J407" s="25"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="I408" s="24"/>
-      <c r="J408" s="24"/>
+      <c r="I408" s="25"/>
+      <c r="J408" s="25"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="I409" s="24"/>
-      <c r="J409" s="24"/>
+      <c r="I409" s="25"/>
+      <c r="J409" s="25"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="I410" s="24"/>
-      <c r="J410" s="24"/>
+      <c r="I410" s="25"/>
+      <c r="J410" s="25"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="I411" s="24"/>
-      <c r="J411" s="24"/>
+      <c r="I411" s="25"/>
+      <c r="J411" s="25"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="I412" s="24"/>
-      <c r="J412" s="24"/>
+      <c r="I412" s="25"/>
+      <c r="J412" s="25"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="I413" s="24"/>
-      <c r="J413" s="24"/>
+      <c r="I413" s="25"/>
+      <c r="J413" s="25"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="I414" s="24"/>
-      <c r="J414" s="24"/>
+      <c r="I414" s="25"/>
+      <c r="J414" s="25"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="I415" s="24"/>
-      <c r="J415" s="24"/>
+      <c r="I415" s="25"/>
+      <c r="J415" s="25"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="I416" s="24"/>
-      <c r="J416" s="24"/>
+      <c r="I416" s="25"/>
+      <c r="J416" s="25"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="I417" s="24"/>
-      <c r="J417" s="24"/>
+      <c r="I417" s="25"/>
+      <c r="J417" s="25"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="I418" s="24"/>
-      <c r="J418" s="24"/>
+      <c r="I418" s="25"/>
+      <c r="J418" s="25"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="I419" s="24"/>
-      <c r="J419" s="24"/>
+      <c r="I419" s="25"/>
+      <c r="J419" s="25"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="I420" s="24"/>
-      <c r="J420" s="24"/>
+      <c r="I420" s="25"/>
+      <c r="J420" s="25"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="I421" s="24"/>
-      <c r="J421" s="24"/>
+      <c r="I421" s="25"/>
+      <c r="J421" s="25"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="I422" s="24"/>
-      <c r="J422" s="24"/>
+      <c r="I422" s="25"/>
+      <c r="J422" s="25"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="I423" s="24"/>
-      <c r="J423" s="24"/>
+      <c r="I423" s="25"/>
+      <c r="J423" s="25"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="I424" s="24"/>
-      <c r="J424" s="24"/>
+      <c r="I424" s="25"/>
+      <c r="J424" s="25"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="I425" s="24"/>
-      <c r="J425" s="24"/>
+      <c r="I425" s="25"/>
+      <c r="J425" s="25"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="I426" s="24"/>
-      <c r="J426" s="24"/>
+      <c r="I426" s="25"/>
+      <c r="J426" s="25"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="I427" s="24"/>
-      <c r="J427" s="24"/>
+      <c r="I427" s="25"/>
+      <c r="J427" s="25"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="I428" s="24"/>
-      <c r="J428" s="24"/>
+      <c r="I428" s="25"/>
+      <c r="J428" s="25"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="I429" s="24"/>
-      <c r="J429" s="24"/>
+      <c r="I429" s="25"/>
+      <c r="J429" s="25"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="I430" s="24"/>
-      <c r="J430" s="24"/>
+      <c r="I430" s="25"/>
+      <c r="J430" s="25"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="I431" s="24"/>
-      <c r="J431" s="24"/>
+      <c r="I431" s="25"/>
+      <c r="J431" s="25"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="I432" s="24"/>
-      <c r="J432" s="24"/>
+      <c r="I432" s="25"/>
+      <c r="J432" s="25"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="I433" s="24"/>
-      <c r="J433" s="24"/>
+      <c r="I433" s="25"/>
+      <c r="J433" s="25"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="I434" s="24"/>
-      <c r="J434" s="24"/>
+      <c r="I434" s="25"/>
+      <c r="J434" s="25"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="I435" s="24"/>
-      <c r="J435" s="24"/>
+      <c r="I435" s="25"/>
+      <c r="J435" s="25"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="I436" s="24"/>
-      <c r="J436" s="24"/>
+      <c r="I436" s="25"/>
+      <c r="J436" s="25"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="I437" s="24"/>
-      <c r="J437" s="24"/>
+      <c r="I437" s="25"/>
+      <c r="J437" s="25"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="I438" s="24"/>
-      <c r="J438" s="24"/>
+      <c r="I438" s="25"/>
+      <c r="J438" s="25"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="I439" s="24"/>
-      <c r="J439" s="24"/>
+      <c r="I439" s="25"/>
+      <c r="J439" s="25"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="I440" s="24"/>
-      <c r="J440" s="24"/>
+      <c r="I440" s="25"/>
+      <c r="J440" s="25"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="I441" s="24"/>
-      <c r="J441" s="24"/>
+      <c r="I441" s="25"/>
+      <c r="J441" s="25"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="I442" s="24"/>
-      <c r="J442" s="24"/>
+      <c r="I442" s="25"/>
+      <c r="J442" s="25"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="I443" s="24"/>
-      <c r="J443" s="24"/>
+      <c r="I443" s="25"/>
+      <c r="J443" s="25"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="I444" s="24"/>
-      <c r="J444" s="24"/>
+      <c r="I444" s="25"/>
+      <c r="J444" s="25"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="I445" s="24"/>
-      <c r="J445" s="24"/>
+      <c r="I445" s="25"/>
+      <c r="J445" s="25"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="I446" s="24"/>
-      <c r="J446" s="24"/>
+      <c r="I446" s="25"/>
+      <c r="J446" s="25"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="I447" s="24"/>
-      <c r="J447" s="24"/>
+      <c r="I447" s="25"/>
+      <c r="J447" s="25"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="I448" s="24"/>
-      <c r="J448" s="24"/>
+      <c r="I448" s="25"/>
+      <c r="J448" s="25"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="I449" s="24"/>
-      <c r="J449" s="24"/>
+      <c r="I449" s="25"/>
+      <c r="J449" s="25"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="I450" s="24"/>
-      <c r="J450" s="24"/>
+      <c r="I450" s="25"/>
+      <c r="J450" s="25"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="I451" s="24"/>
-      <c r="J451" s="24"/>
+      <c r="I451" s="25"/>
+      <c r="J451" s="25"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="I452" s="24"/>
-      <c r="J452" s="24"/>
+      <c r="I452" s="25"/>
+      <c r="J452" s="25"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="I453" s="24"/>
-      <c r="J453" s="24"/>
+      <c r="I453" s="25"/>
+      <c r="J453" s="25"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="I454" s="24"/>
-      <c r="J454" s="24"/>
+      <c r="I454" s="25"/>
+      <c r="J454" s="25"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="I455" s="24"/>
-      <c r="J455" s="24"/>
+      <c r="I455" s="25"/>
+      <c r="J455" s="25"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="I456" s="24"/>
-      <c r="J456" s="24"/>
+      <c r="I456" s="25"/>
+      <c r="J456" s="25"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="I457" s="24"/>
-      <c r="J457" s="24"/>
+      <c r="I457" s="25"/>
+      <c r="J457" s="25"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="I458" s="24"/>
-      <c r="J458" s="24"/>
+      <c r="I458" s="25"/>
+      <c r="J458" s="25"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="I459" s="24"/>
-      <c r="J459" s="24"/>
+      <c r="I459" s="25"/>
+      <c r="J459" s="25"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="I460" s="24"/>
-      <c r="J460" s="24"/>
+      <c r="I460" s="25"/>
+      <c r="J460" s="25"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="I461" s="24"/>
-      <c r="J461" s="24"/>
+      <c r="I461" s="25"/>
+      <c r="J461" s="25"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="I462" s="24"/>
-      <c r="J462" s="24"/>
+      <c r="I462" s="25"/>
+      <c r="J462" s="25"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="I463" s="24"/>
-      <c r="J463" s="24"/>
+      <c r="I463" s="25"/>
+      <c r="J463" s="25"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="I464" s="24"/>
-      <c r="J464" s="24"/>
+      <c r="I464" s="25"/>
+      <c r="J464" s="25"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="I465" s="24"/>
-      <c r="J465" s="24"/>
+      <c r="I465" s="25"/>
+      <c r="J465" s="25"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="I466" s="24"/>
-      <c r="J466" s="24"/>
+      <c r="I466" s="25"/>
+      <c r="J466" s="25"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="I467" s="24"/>
-      <c r="J467" s="24"/>
+      <c r="I467" s="25"/>
+      <c r="J467" s="25"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="I468" s="24"/>
-      <c r="J468" s="24"/>
+      <c r="I468" s="25"/>
+      <c r="J468" s="25"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="I469" s="24"/>
-      <c r="J469" s="24"/>
+      <c r="I469" s="25"/>
+      <c r="J469" s="25"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="I470" s="24"/>
-      <c r="J470" s="24"/>
+      <c r="I470" s="25"/>
+      <c r="J470" s="25"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="I471" s="24"/>
-      <c r="J471" s="24"/>
+      <c r="I471" s="25"/>
+      <c r="J471" s="25"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="I472" s="24"/>
-      <c r="J472" s="24"/>
+      <c r="I472" s="25"/>
+      <c r="J472" s="25"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="I473" s="24"/>
-      <c r="J473" s="24"/>
+      <c r="I473" s="25"/>
+      <c r="J473" s="25"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="I474" s="24"/>
-      <c r="J474" s="24"/>
+      <c r="I474" s="25"/>
+      <c r="J474" s="25"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="I475" s="24"/>
-      <c r="J475" s="24"/>
+      <c r="I475" s="25"/>
+      <c r="J475" s="25"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="I476" s="24"/>
-      <c r="J476" s="24"/>
+      <c r="I476" s="25"/>
+      <c r="J476" s="25"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="I477" s="24"/>
-      <c r="J477" s="24"/>
+      <c r="I477" s="25"/>
+      <c r="J477" s="25"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="I478" s="24"/>
-      <c r="J478" s="24"/>
+      <c r="I478" s="25"/>
+      <c r="J478" s="25"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="I479" s="24"/>
-      <c r="J479" s="24"/>
+      <c r="I479" s="25"/>
+      <c r="J479" s="25"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="I480" s="24"/>
-      <c r="J480" s="24"/>
+      <c r="I480" s="25"/>
+      <c r="J480" s="25"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="I481" s="24"/>
-      <c r="J481" s="24"/>
+      <c r="I481" s="25"/>
+      <c r="J481" s="25"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="I482" s="24"/>
-      <c r="J482" s="24"/>
+      <c r="I482" s="25"/>
+      <c r="J482" s="25"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="I483" s="24"/>
-      <c r="J483" s="24"/>
+      <c r="I483" s="25"/>
+      <c r="J483" s="25"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="I484" s="24"/>
-      <c r="J484" s="24"/>
+      <c r="I484" s="25"/>
+      <c r="J484" s="25"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="I485" s="24"/>
-      <c r="J485" s="24"/>
+      <c r="I485" s="25"/>
+      <c r="J485" s="25"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="I486" s="24"/>
-      <c r="J486" s="24"/>
+      <c r="I486" s="25"/>
+      <c r="J486" s="25"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="I487" s="24"/>
-      <c r="J487" s="24"/>
+      <c r="I487" s="25"/>
+      <c r="J487" s="25"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="I488" s="24"/>
-      <c r="J488" s="24"/>
+      <c r="I488" s="25"/>
+      <c r="J488" s="25"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="I489" s="24"/>
-      <c r="J489" s="24"/>
+      <c r="I489" s="25"/>
+      <c r="J489" s="25"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="I490" s="24"/>
-      <c r="J490" s="24"/>
+      <c r="I490" s="25"/>
+      <c r="J490" s="25"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="I491" s="24"/>
-      <c r="J491" s="24"/>
+      <c r="I491" s="25"/>
+      <c r="J491" s="25"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="I492" s="24"/>
-      <c r="J492" s="24"/>
+      <c r="I492" s="25"/>
+      <c r="J492" s="25"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="I493" s="24"/>
-      <c r="J493" s="24"/>
+      <c r="I493" s="25"/>
+      <c r="J493" s="25"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="I494" s="24"/>
-      <c r="J494" s="24"/>
+      <c r="I494" s="25"/>
+      <c r="J494" s="25"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="I495" s="24"/>
-      <c r="J495" s="24"/>
+      <c r="I495" s="25"/>
+      <c r="J495" s="25"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="I496" s="24"/>
-      <c r="J496" s="24"/>
+      <c r="I496" s="25"/>
+      <c r="J496" s="25"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="I497" s="24"/>
-      <c r="J497" s="24"/>
+      <c r="I497" s="25"/>
+      <c r="J497" s="25"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="I498" s="24"/>
-      <c r="J498" s="24"/>
+      <c r="I498" s="25"/>
+      <c r="J498" s="25"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="I499" s="24"/>
-      <c r="J499" s="24"/>
+      <c r="I499" s="25"/>
+      <c r="J499" s="25"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="I500" s="24"/>
-      <c r="J500" s="24"/>
+      <c r="I500" s="25"/>
+      <c r="J500" s="25"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="I501" s="24"/>
-      <c r="J501" s="24"/>
+      <c r="I501" s="25"/>
+      <c r="J501" s="25"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="I502" s="24"/>
-      <c r="J502" s="24"/>
+      <c r="I502" s="25"/>
+      <c r="J502" s="25"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="I503" s="24"/>
-      <c r="J503" s="24"/>
+      <c r="I503" s="25"/>
+      <c r="J503" s="25"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="I504" s="24"/>
-      <c r="J504" s="24"/>
+      <c r="I504" s="25"/>
+      <c r="J504" s="25"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="I505" s="24"/>
-      <c r="J505" s="24"/>
+      <c r="I505" s="25"/>
+      <c r="J505" s="25"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="I506" s="24"/>
-      <c r="J506" s="24"/>
+      <c r="I506" s="25"/>
+      <c r="J506" s="25"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="I507" s="24"/>
-      <c r="J507" s="24"/>
+      <c r="I507" s="25"/>
+      <c r="J507" s="25"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="I508" s="24"/>
-      <c r="J508" s="24"/>
+      <c r="I508" s="25"/>
+      <c r="J508" s="25"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="I509" s="24"/>
-      <c r="J509" s="24"/>
+      <c r="I509" s="25"/>
+      <c r="J509" s="25"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="I510" s="24"/>
-      <c r="J510" s="24"/>
+      <c r="I510" s="25"/>
+      <c r="J510" s="25"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="I511" s="24"/>
-      <c r="J511" s="24"/>
+      <c r="I511" s="25"/>
+      <c r="J511" s="25"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="I512" s="24"/>
-      <c r="J512" s="24"/>
+      <c r="I512" s="25"/>
+      <c r="J512" s="25"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="I513" s="24"/>
-      <c r="J513" s="24"/>
+      <c r="I513" s="25"/>
+      <c r="J513" s="25"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="I514" s="24"/>
-      <c r="J514" s="24"/>
+      <c r="I514" s="25"/>
+      <c r="J514" s="25"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="I515" s="24"/>
-      <c r="J515" s="24"/>
+      <c r="I515" s="25"/>
+      <c r="J515" s="25"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="I516" s="24"/>
-      <c r="J516" s="24"/>
+      <c r="I516" s="25"/>
+      <c r="J516" s="25"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="I517" s="24"/>
-      <c r="J517" s="24"/>
+      <c r="I517" s="25"/>
+      <c r="J517" s="25"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="I518" s="24"/>
-      <c r="J518" s="24"/>
+      <c r="I518" s="25"/>
+      <c r="J518" s="25"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="I519" s="24"/>
-      <c r="J519" s="24"/>
+      <c r="I519" s="25"/>
+      <c r="J519" s="25"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="I520" s="24"/>
-      <c r="J520" s="24"/>
+      <c r="I520" s="25"/>
+      <c r="J520" s="25"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="I521" s="24"/>
-      <c r="J521" s="24"/>
+      <c r="I521" s="25"/>
+      <c r="J521" s="25"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="I522" s="24"/>
-      <c r="J522" s="24"/>
+      <c r="I522" s="25"/>
+      <c r="J522" s="25"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="I523" s="24"/>
-      <c r="J523" s="24"/>
+      <c r="I523" s="25"/>
+      <c r="J523" s="25"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="I524" s="24"/>
-      <c r="J524" s="24"/>
+      <c r="I524" s="25"/>
+      <c r="J524" s="25"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="I525" s="24"/>
-      <c r="J525" s="24"/>
+      <c r="I525" s="25"/>
+      <c r="J525" s="25"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="I526" s="24"/>
-      <c r="J526" s="24"/>
+      <c r="I526" s="25"/>
+      <c r="J526" s="25"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="I527" s="24"/>
-      <c r="J527" s="24"/>
+      <c r="I527" s="25"/>
+      <c r="J527" s="25"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="I528" s="24"/>
-      <c r="J528" s="24"/>
+      <c r="I528" s="25"/>
+      <c r="J528" s="25"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="I529" s="24"/>
-      <c r="J529" s="24"/>
+      <c r="I529" s="25"/>
+      <c r="J529" s="25"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="I530" s="24"/>
-      <c r="J530" s="24"/>
+      <c r="I530" s="25"/>
+      <c r="J530" s="25"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="I531" s="24"/>
-      <c r="J531" s="24"/>
+      <c r="I531" s="25"/>
+      <c r="J531" s="25"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="I532" s="24"/>
-      <c r="J532" s="24"/>
+      <c r="I532" s="25"/>
+      <c r="J532" s="25"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="I533" s="24"/>
-      <c r="J533" s="24"/>
+      <c r="I533" s="25"/>
+      <c r="J533" s="25"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="I534" s="24"/>
-      <c r="J534" s="24"/>
+      <c r="I534" s="25"/>
+      <c r="J534" s="25"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="I535" s="24"/>
-      <c r="J535" s="24"/>
+      <c r="I535" s="25"/>
+      <c r="J535" s="25"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="I536" s="24"/>
-      <c r="J536" s="24"/>
+      <c r="I536" s="25"/>
+      <c r="J536" s="25"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="I537" s="24"/>
-      <c r="J537" s="24"/>
+      <c r="I537" s="25"/>
+      <c r="J537" s="25"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="I538" s="24"/>
-      <c r="J538" s="24"/>
+      <c r="I538" s="25"/>
+      <c r="J538" s="25"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="I539" s="24"/>
-      <c r="J539" s="24"/>
+      <c r="I539" s="25"/>
+      <c r="J539" s="25"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="I540" s="24"/>
-      <c r="J540" s="24"/>
+      <c r="I540" s="25"/>
+      <c r="J540" s="25"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="I541" s="24"/>
-      <c r="J541" s="24"/>
+      <c r="I541" s="25"/>
+      <c r="J541" s="25"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="I542" s="24"/>
-      <c r="J542" s="24"/>
+      <c r="I542" s="25"/>
+      <c r="J542" s="25"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="I543" s="24"/>
-      <c r="J543" s="24"/>
+      <c r="I543" s="25"/>
+      <c r="J543" s="25"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="I544" s="24"/>
-      <c r="J544" s="24"/>
+      <c r="I544" s="25"/>
+      <c r="J544" s="25"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="I545" s="24"/>
-      <c r="J545" s="24"/>
+      <c r="I545" s="25"/>
+      <c r="J545" s="25"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="I546" s="24"/>
-      <c r="J546" s="24"/>
+      <c r="I546" s="25"/>
+      <c r="J546" s="25"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="I547" s="24"/>
-      <c r="J547" s="24"/>
+      <c r="I547" s="25"/>
+      <c r="J547" s="25"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="I548" s="24"/>
-      <c r="J548" s="24"/>
+      <c r="I548" s="25"/>
+      <c r="J548" s="25"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="I549" s="24"/>
-      <c r="J549" s="24"/>
+      <c r="I549" s="25"/>
+      <c r="J549" s="25"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="I550" s="24"/>
-      <c r="J550" s="24"/>
+      <c r="I550" s="25"/>
+      <c r="J550" s="25"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="I551" s="24"/>
-      <c r="J551" s="24"/>
+      <c r="I551" s="25"/>
+      <c r="J551" s="25"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="I552" s="24"/>
-      <c r="J552" s="24"/>
+      <c r="I552" s="25"/>
+      <c r="J552" s="25"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="I553" s="24"/>
-      <c r="J553" s="24"/>
+      <c r="I553" s="25"/>
+      <c r="J553" s="25"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="I554" s="24"/>
-      <c r="J554" s="24"/>
+      <c r="I554" s="25"/>
+      <c r="J554" s="25"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="I555" s="24"/>
-      <c r="J555" s="24"/>
+      <c r="I555" s="25"/>
+      <c r="J555" s="25"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="I556" s="24"/>
-      <c r="J556" s="24"/>
+      <c r="I556" s="25"/>
+      <c r="J556" s="25"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="I557" s="24"/>
-      <c r="J557" s="24"/>
+      <c r="I557" s="25"/>
+      <c r="J557" s="25"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="I558" s="24"/>
-      <c r="J558" s="24"/>
+      <c r="I558" s="25"/>
+      <c r="J558" s="25"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="I559" s="24"/>
-      <c r="J559" s="24"/>
+      <c r="I559" s="25"/>
+      <c r="J559" s="25"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="I560" s="24"/>
-      <c r="J560" s="24"/>
+      <c r="I560" s="25"/>
+      <c r="J560" s="25"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="I561" s="24"/>
-      <c r="J561" s="24"/>
+      <c r="I561" s="25"/>
+      <c r="J561" s="25"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="I562" s="24"/>
-      <c r="J562" s="24"/>
+      <c r="I562" s="25"/>
+      <c r="J562" s="25"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="I563" s="24"/>
-      <c r="J563" s="24"/>
+      <c r="I563" s="25"/>
+      <c r="J563" s="25"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="I564" s="24"/>
-      <c r="J564" s="24"/>
+      <c r="I564" s="25"/>
+      <c r="J564" s="25"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="I565" s="24"/>
-      <c r="J565" s="24"/>
+      <c r="I565" s="25"/>
+      <c r="J565" s="25"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="I566" s="24"/>
-      <c r="J566" s="24"/>
+      <c r="I566" s="25"/>
+      <c r="J566" s="25"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="I567" s="24"/>
-      <c r="J567" s="24"/>
+      <c r="I567" s="25"/>
+      <c r="J567" s="25"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="I568" s="24"/>
-      <c r="J568" s="24"/>
+      <c r="I568" s="25"/>
+      <c r="J568" s="25"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="I569" s="24"/>
-      <c r="J569" s="24"/>
+      <c r="I569" s="25"/>
+      <c r="J569" s="25"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="I570" s="24"/>
-      <c r="J570" s="24"/>
+      <c r="I570" s="25"/>
+      <c r="J570" s="25"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="I571" s="24"/>
-      <c r="J571" s="24"/>
+      <c r="I571" s="25"/>
+      <c r="J571" s="25"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="I572" s="24"/>
-      <c r="J572" s="24"/>
+      <c r="I572" s="25"/>
+      <c r="J572" s="25"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="I573" s="24"/>
-      <c r="J573" s="24"/>
+      <c r="I573" s="25"/>
+      <c r="J573" s="25"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="I574" s="24"/>
-      <c r="J574" s="24"/>
+      <c r="I574" s="25"/>
+      <c r="J574" s="25"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="I575" s="24"/>
-      <c r="J575" s="24"/>
+      <c r="I575" s="25"/>
+      <c r="J575" s="25"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="I576" s="24"/>
-      <c r="J576" s="24"/>
+      <c r="I576" s="25"/>
+      <c r="J576" s="25"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="I577" s="24"/>
-      <c r="J577" s="24"/>
+      <c r="I577" s="25"/>
+      <c r="J577" s="25"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="I578" s="24"/>
-      <c r="J578" s="24"/>
+      <c r="I578" s="25"/>
+      <c r="J578" s="25"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="I579" s="24"/>
-      <c r="J579" s="24"/>
+      <c r="I579" s="25"/>
+      <c r="J579" s="25"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="I580" s="24"/>
-      <c r="J580" s="24"/>
+      <c r="I580" s="25"/>
+      <c r="J580" s="25"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="I581" s="24"/>
-      <c r="J581" s="24"/>
+      <c r="I581" s="25"/>
+      <c r="J581" s="25"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="I582" s="24"/>
-      <c r="J582" s="24"/>
+      <c r="I582" s="25"/>
+      <c r="J582" s="25"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="I583" s="24"/>
-      <c r="J583" s="24"/>
+      <c r="I583" s="25"/>
+      <c r="J583" s="25"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="I584" s="24"/>
-      <c r="J584" s="24"/>
+      <c r="I584" s="25"/>
+      <c r="J584" s="25"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="I585" s="24"/>
-      <c r="J585" s="24"/>
+      <c r="I585" s="25"/>
+      <c r="J585" s="25"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="I586" s="24"/>
-      <c r="J586" s="24"/>
+      <c r="I586" s="25"/>
+      <c r="J586" s="25"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="I587" s="24"/>
-      <c r="J587" s="24"/>
+      <c r="I587" s="25"/>
+      <c r="J587" s="25"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="I588" s="24"/>
-      <c r="J588" s="24"/>
+      <c r="I588" s="25"/>
+      <c r="J588" s="25"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="I589" s="24"/>
-      <c r="J589" s="24"/>
+      <c r="I589" s="25"/>
+      <c r="J589" s="25"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="I590" s="24"/>
-      <c r="J590" s="24"/>
+      <c r="I590" s="25"/>
+      <c r="J590" s="25"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="I591" s="24"/>
-      <c r="J591" s="24"/>
+      <c r="I591" s="25"/>
+      <c r="J591" s="25"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="I592" s="24"/>
-      <c r="J592" s="24"/>
+      <c r="I592" s="25"/>
+      <c r="J592" s="25"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="I593" s="24"/>
-      <c r="J593" s="24"/>
+      <c r="I593" s="25"/>
+      <c r="J593" s="25"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="I594" s="24"/>
-      <c r="J594" s="24"/>
+      <c r="I594" s="25"/>
+      <c r="J594" s="25"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="I595" s="24"/>
-      <c r="J595" s="24"/>
+      <c r="I595" s="25"/>
+      <c r="J595" s="25"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="I596" s="24"/>
-      <c r="J596" s="24"/>
+      <c r="I596" s="25"/>
+      <c r="J596" s="25"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="I597" s="24"/>
-      <c r="J597" s="24"/>
+      <c r="I597" s="25"/>
+      <c r="J597" s="25"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="I598" s="24"/>
-      <c r="J598" s="24"/>
+      <c r="I598" s="25"/>
+      <c r="J598" s="25"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="I599" s="24"/>
-      <c r="J599" s="24"/>
+      <c r="I599" s="25"/>
+      <c r="J599" s="25"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="I600" s="24"/>
-      <c r="J600" s="24"/>
+      <c r="I600" s="25"/>
+      <c r="J600" s="25"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="I601" s="24"/>
-      <c r="J601" s="24"/>
+      <c r="I601" s="25"/>
+      <c r="J601" s="25"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="I602" s="24"/>
-      <c r="J602" s="24"/>
+      <c r="I602" s="25"/>
+      <c r="J602" s="25"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="I603" s="24"/>
-      <c r="J603" s="24"/>
+      <c r="I603" s="25"/>
+      <c r="J603" s="25"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="I604" s="24"/>
-      <c r="J604" s="24"/>
+      <c r="I604" s="25"/>
+      <c r="J604" s="25"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="I605" s="24"/>
-      <c r="J605" s="24"/>
+      <c r="I605" s="25"/>
+      <c r="J605" s="25"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="I606" s="24"/>
-      <c r="J606" s="24"/>
+      <c r="I606" s="25"/>
+      <c r="J606" s="25"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="I607" s="24"/>
-      <c r="J607" s="24"/>
+      <c r="I607" s="25"/>
+      <c r="J607" s="25"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="I608" s="24"/>
-      <c r="J608" s="24"/>
+      <c r="I608" s="25"/>
+      <c r="J608" s="25"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="I609" s="24"/>
-      <c r="J609" s="24"/>
+      <c r="I609" s="25"/>
+      <c r="J609" s="25"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="I610" s="24"/>
-      <c r="J610" s="24"/>
+      <c r="I610" s="25"/>
+      <c r="J610" s="25"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="I611" s="24"/>
-      <c r="J611" s="24"/>
+      <c r="I611" s="25"/>
+      <c r="J611" s="25"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="I612" s="24"/>
-      <c r="J612" s="24"/>
+      <c r="I612" s="25"/>
+      <c r="J612" s="25"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="I613" s="24"/>
-      <c r="J613" s="24"/>
+      <c r="I613" s="25"/>
+      <c r="J613" s="25"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="I614" s="24"/>
-      <c r="J614" s="24"/>
+      <c r="I614" s="25"/>
+      <c r="J614" s="25"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="I615" s="24"/>
-      <c r="J615" s="24"/>
+      <c r="I615" s="25"/>
+      <c r="J615" s="25"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="I616" s="24"/>
-      <c r="J616" s="24"/>
+      <c r="I616" s="25"/>
+      <c r="J616" s="25"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="I617" s="24"/>
-      <c r="J617" s="24"/>
+      <c r="I617" s="25"/>
+      <c r="J617" s="25"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="I618" s="24"/>
-      <c r="J618" s="24"/>
+      <c r="I618" s="25"/>
+      <c r="J618" s="25"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="I619" s="24"/>
-      <c r="J619" s="24"/>
+      <c r="I619" s="25"/>
+      <c r="J619" s="25"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="I620" s="24"/>
-      <c r="J620" s="24"/>
+      <c r="I620" s="25"/>
+      <c r="J620" s="25"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="I621" s="24"/>
-      <c r="J621" s="24"/>
+      <c r="I621" s="25"/>
+      <c r="J621" s="25"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="I622" s="24"/>
-      <c r="J622" s="24"/>
+      <c r="I622" s="25"/>
+      <c r="J622" s="25"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="I623" s="24"/>
-      <c r="J623" s="24"/>
+      <c r="I623" s="25"/>
+      <c r="J623" s="25"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="I624" s="24"/>
-      <c r="J624" s="24"/>
+      <c r="I624" s="25"/>
+      <c r="J624" s="25"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="I625" s="24"/>
-      <c r="J625" s="24"/>
+      <c r="I625" s="25"/>
+      <c r="J625" s="25"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="I626" s="24"/>
-      <c r="J626" s="24"/>
+      <c r="I626" s="25"/>
+      <c r="J626" s="25"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="I627" s="24"/>
-      <c r="J627" s="24"/>
+      <c r="I627" s="25"/>
+      <c r="J627" s="25"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="I628" s="24"/>
-      <c r="J628" s="24"/>
+      <c r="I628" s="25"/>
+      <c r="J628" s="25"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="I629" s="24"/>
-      <c r="J629" s="24"/>
+      <c r="I629" s="25"/>
+      <c r="J629" s="25"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="I630" s="24"/>
-      <c r="J630" s="24"/>
+      <c r="I630" s="25"/>
+      <c r="J630" s="25"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="I631" s="24"/>
-      <c r="J631" s="24"/>
+      <c r="I631" s="25"/>
+      <c r="J631" s="25"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="I632" s="24"/>
-      <c r="J632" s="24"/>
+      <c r="I632" s="25"/>
+      <c r="J632" s="25"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="I633" s="24"/>
-      <c r="J633" s="24"/>
+      <c r="I633" s="25"/>
+      <c r="J633" s="25"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="I634" s="24"/>
-      <c r="J634" s="24"/>
+      <c r="I634" s="25"/>
+      <c r="J634" s="25"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="I635" s="24"/>
-      <c r="J635" s="24"/>
+      <c r="I635" s="25"/>
+      <c r="J635" s="25"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="I636" s="24"/>
-      <c r="J636" s="24"/>
+      <c r="I636" s="25"/>
+      <c r="J636" s="25"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="I637" s="24"/>
-      <c r="J637" s="24"/>
+      <c r="I637" s="25"/>
+      <c r="J637" s="25"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="I638" s="24"/>
-      <c r="J638" s="24"/>
+      <c r="I638" s="25"/>
+      <c r="J638" s="25"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="I639" s="24"/>
-      <c r="J639" s="24"/>
+      <c r="I639" s="25"/>
+      <c r="J639" s="25"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="I640" s="24"/>
-      <c r="J640" s="24"/>
+      <c r="I640" s="25"/>
+      <c r="J640" s="25"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="I641" s="24"/>
-      <c r="J641" s="24"/>
+      <c r="I641" s="25"/>
+      <c r="J641" s="25"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="I642" s="24"/>
-      <c r="J642" s="24"/>
+      <c r="I642" s="25"/>
+      <c r="J642" s="25"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="I643" s="24"/>
-      <c r="J643" s="24"/>
+      <c r="I643" s="25"/>
+      <c r="J643" s="25"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="I644" s="24"/>
-      <c r="J644" s="24"/>
+      <c r="I644" s="25"/>
+      <c r="J644" s="25"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="I645" s="24"/>
-      <c r="J645" s="24"/>
+      <c r="I645" s="25"/>
+      <c r="J645" s="25"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="I646" s="24"/>
-      <c r="J646" s="24"/>
+      <c r="I646" s="25"/>
+      <c r="J646" s="25"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="I647" s="24"/>
-      <c r="J647" s="24"/>
+      <c r="I647" s="25"/>
+      <c r="J647" s="25"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="I648" s="24"/>
-      <c r="J648" s="24"/>
+      <c r="I648" s="25"/>
+      <c r="J648" s="25"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="I649" s="24"/>
-      <c r="J649" s="24"/>
+      <c r="I649" s="25"/>
+      <c r="J649" s="25"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="I650" s="24"/>
-      <c r="J650" s="24"/>
+      <c r="I650" s="25"/>
+      <c r="J650" s="25"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="I651" s="24"/>
-      <c r="J651" s="24"/>
+      <c r="I651" s="25"/>
+      <c r="J651" s="25"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="I652" s="24"/>
-      <c r="J652" s="24"/>
+      <c r="I652" s="25"/>
+      <c r="J652" s="25"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="I653" s="24"/>
-      <c r="J653" s="24"/>
+      <c r="I653" s="25"/>
+      <c r="J653" s="25"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="I654" s="24"/>
-      <c r="J654" s="24"/>
+      <c r="I654" s="25"/>
+      <c r="J654" s="25"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="I655" s="24"/>
-      <c r="J655" s="24"/>
+      <c r="I655" s="25"/>
+      <c r="J655" s="25"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="I656" s="24"/>
-      <c r="J656" s="24"/>
+      <c r="I656" s="25"/>
+      <c r="J656" s="25"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="I657" s="24"/>
-      <c r="J657" s="24"/>
+      <c r="I657" s="25"/>
+      <c r="J657" s="25"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="I658" s="24"/>
-      <c r="J658" s="24"/>
+      <c r="I658" s="25"/>
+      <c r="J658" s="25"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="I659" s="24"/>
-      <c r="J659" s="24"/>
+      <c r="I659" s="25"/>
+      <c r="J659" s="25"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="I660" s="24"/>
-      <c r="J660" s="24"/>
+      <c r="I660" s="25"/>
+      <c r="J660" s="25"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="I661" s="24"/>
-      <c r="J661" s="24"/>
+      <c r="I661" s="25"/>
+      <c r="J661" s="25"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="I662" s="24"/>
-      <c r="J662" s="24"/>
+      <c r="I662" s="25"/>
+      <c r="J662" s="25"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="I663" s="24"/>
-      <c r="J663" s="24"/>
+      <c r="I663" s="25"/>
+      <c r="J663" s="25"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="I664" s="24"/>
-      <c r="J664" s="24"/>
+      <c r="I664" s="25"/>
+      <c r="J664" s="25"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="I665" s="24"/>
-      <c r="J665" s="24"/>
+      <c r="I665" s="25"/>
+      <c r="J665" s="25"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="I666" s="24"/>
-      <c r="J666" s="24"/>
+      <c r="I666" s="25"/>
+      <c r="J666" s="25"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="I667" s="24"/>
-      <c r="J667" s="24"/>
+      <c r="I667" s="25"/>
+      <c r="J667" s="25"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="I668" s="24"/>
-      <c r="J668" s="24"/>
+      <c r="I668" s="25"/>
+      <c r="J668" s="25"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="I669" s="24"/>
-      <c r="J669" s="24"/>
+      <c r="I669" s="25"/>
+      <c r="J669" s="25"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="I670" s="24"/>
-      <c r="J670" s="24"/>
+      <c r="I670" s="25"/>
+      <c r="J670" s="25"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="I671" s="24"/>
-      <c r="J671" s="24"/>
+      <c r="I671" s="25"/>
+      <c r="J671" s="25"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="I672" s="24"/>
-      <c r="J672" s="24"/>
+      <c r="I672" s="25"/>
+      <c r="J672" s="25"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="I673" s="24"/>
-      <c r="J673" s="24"/>
+      <c r="I673" s="25"/>
+      <c r="J673" s="25"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="I674" s="24"/>
-      <c r="J674" s="24"/>
+      <c r="I674" s="25"/>
+      <c r="J674" s="25"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="I675" s="24"/>
-      <c r="J675" s="24"/>
+      <c r="I675" s="25"/>
+      <c r="J675" s="25"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="I676" s="24"/>
-      <c r="J676" s="24"/>
+      <c r="I676" s="25"/>
+      <c r="J676" s="25"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="I677" s="24"/>
-      <c r="J677" s="24"/>
+      <c r="I677" s="25"/>
+      <c r="J677" s="25"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="I678" s="24"/>
-      <c r="J678" s="24"/>
+      <c r="I678" s="25"/>
+      <c r="J678" s="25"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="I679" s="24"/>
-      <c r="J679" s="24"/>
+      <c r="I679" s="25"/>
+      <c r="J679" s="25"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="I680" s="24"/>
-      <c r="J680" s="24"/>
+      <c r="I680" s="25"/>
+      <c r="J680" s="25"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="I681" s="24"/>
-      <c r="J681" s="24"/>
+      <c r="I681" s="25"/>
+      <c r="J681" s="25"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="I682" s="24"/>
-      <c r="J682" s="24"/>
+      <c r="I682" s="25"/>
+      <c r="J682" s="25"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="I683" s="24"/>
-      <c r="J683" s="24"/>
+      <c r="I683" s="25"/>
+      <c r="J683" s="25"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="I684" s="24"/>
-      <c r="J684" s="24"/>
+      <c r="I684" s="25"/>
+      <c r="J684" s="25"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="I685" s="24"/>
-      <c r="J685" s="24"/>
+      <c r="I685" s="25"/>
+      <c r="J685" s="25"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="I686" s="24"/>
-      <c r="J686" s="24"/>
+      <c r="I686" s="25"/>
+      <c r="J686" s="25"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="I687" s="24"/>
-      <c r="J687" s="24"/>
+      <c r="I687" s="25"/>
+      <c r="J687" s="25"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="I688" s="24"/>
-      <c r="J688" s="24"/>
+      <c r="I688" s="25"/>
+      <c r="J688" s="25"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="I689" s="24"/>
-      <c r="J689" s="24"/>
+      <c r="I689" s="25"/>
+      <c r="J689" s="25"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="I690" s="24"/>
-      <c r="J690" s="24"/>
+      <c r="I690" s="25"/>
+      <c r="J690" s="25"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="I691" s="24"/>
-      <c r="J691" s="24"/>
+      <c r="I691" s="25"/>
+      <c r="J691" s="25"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="I692" s="24"/>
-      <c r="J692" s="24"/>
+      <c r="I692" s="25"/>
+      <c r="J692" s="25"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="I693" s="24"/>
-      <c r="J693" s="24"/>
+      <c r="I693" s="25"/>
+      <c r="J693" s="25"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="I694" s="24"/>
-      <c r="J694" s="24"/>
+      <c r="I694" s="25"/>
+      <c r="J694" s="25"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="I695" s="24"/>
-      <c r="J695" s="24"/>
+      <c r="I695" s="25"/>
+      <c r="J695" s="25"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="I696" s="24"/>
-      <c r="J696" s="24"/>
+      <c r="I696" s="25"/>
+      <c r="J696" s="25"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="I697" s="24"/>
-      <c r="J697" s="24"/>
+      <c r="I697" s="25"/>
+      <c r="J697" s="25"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="I698" s="24"/>
-      <c r="J698" s="24"/>
+      <c r="I698" s="25"/>
+      <c r="J698" s="25"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="I699" s="24"/>
-      <c r="J699" s="24"/>
+      <c r="I699" s="25"/>
+      <c r="J699" s="25"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="I700" s="24"/>
-      <c r="J700" s="24"/>
+      <c r="I700" s="25"/>
+      <c r="J700" s="25"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="I701" s="24"/>
-      <c r="J701" s="24"/>
+      <c r="I701" s="25"/>
+      <c r="J701" s="25"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="I702" s="24"/>
-      <c r="J702" s="24"/>
+      <c r="I702" s="25"/>
+      <c r="J702" s="25"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="I703" s="24"/>
-      <c r="J703" s="24"/>
+      <c r="I703" s="25"/>
+      <c r="J703" s="25"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="I704" s="24"/>
-      <c r="J704" s="24"/>
+      <c r="I704" s="25"/>
+      <c r="J704" s="25"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="I705" s="24"/>
-      <c r="J705" s="24"/>
+      <c r="I705" s="25"/>
+      <c r="J705" s="25"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="I706" s="24"/>
-      <c r="J706" s="24"/>
+      <c r="I706" s="25"/>
+      <c r="J706" s="25"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="I707" s="24"/>
-      <c r="J707" s="24"/>
+      <c r="I707" s="25"/>
+      <c r="J707" s="25"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="I708" s="24"/>
-      <c r="J708" s="24"/>
+      <c r="I708" s="25"/>
+      <c r="J708" s="25"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="I709" s="24"/>
-      <c r="J709" s="24"/>
+      <c r="I709" s="25"/>
+      <c r="J709" s="25"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="I710" s="24"/>
-      <c r="J710" s="24"/>
+      <c r="I710" s="25"/>
+      <c r="J710" s="25"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="I711" s="24"/>
-      <c r="J711" s="24"/>
+      <c r="I711" s="25"/>
+      <c r="J711" s="25"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="I712" s="24"/>
-      <c r="J712" s="24"/>
+      <c r="I712" s="25"/>
+      <c r="J712" s="25"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="I713" s="24"/>
-      <c r="J713" s="24"/>
+      <c r="I713" s="25"/>
+      <c r="J713" s="25"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="I714" s="24"/>
-      <c r="J714" s="24"/>
+      <c r="I714" s="25"/>
+      <c r="J714" s="25"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="I715" s="24"/>
-      <c r="J715" s="24"/>
+      <c r="I715" s="25"/>
+      <c r="J715" s="25"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="I716" s="24"/>
-      <c r="J716" s="24"/>
+      <c r="I716" s="25"/>
+      <c r="J716" s="25"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="I717" s="24"/>
-      <c r="J717" s="24"/>
+      <c r="I717" s="25"/>
+      <c r="J717" s="25"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="I718" s="24"/>
-      <c r="J718" s="24"/>
+      <c r="I718" s="25"/>
+      <c r="J718" s="25"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="I719" s="24"/>
-      <c r="J719" s="24"/>
+      <c r="I719" s="25"/>
+      <c r="J719" s="25"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="I720" s="24"/>
-      <c r="J720" s="24"/>
+      <c r="I720" s="25"/>
+      <c r="J720" s="25"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="I721" s="24"/>
-      <c r="J721" s="24"/>
+      <c r="I721" s="25"/>
+      <c r="J721" s="25"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="I722" s="24"/>
-      <c r="J722" s="24"/>
+      <c r="I722" s="25"/>
+      <c r="J722" s="25"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="I723" s="24"/>
-      <c r="J723" s="24"/>
+      <c r="I723" s="25"/>
+      <c r="J723" s="25"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="I724" s="24"/>
-      <c r="J724" s="24"/>
+      <c r="I724" s="25"/>
+      <c r="J724" s="25"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="I725" s="24"/>
-      <c r="J725" s="24"/>
+      <c r="I725" s="25"/>
+      <c r="J725" s="25"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="I726" s="24"/>
-      <c r="J726" s="24"/>
+      <c r="I726" s="25"/>
+      <c r="J726" s="25"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="I727" s="24"/>
-      <c r="J727" s="24"/>
+      <c r="I727" s="25"/>
+      <c r="J727" s="25"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="I728" s="24"/>
-      <c r="J728" s="24"/>
+      <c r="I728" s="25"/>
+      <c r="J728" s="25"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="I729" s="24"/>
-      <c r="J729" s="24"/>
+      <c r="I729" s="25"/>
+      <c r="J729" s="25"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="I730" s="24"/>
-      <c r="J730" s="24"/>
+      <c r="I730" s="25"/>
+      <c r="J730" s="25"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="I731" s="24"/>
-      <c r="J731" s="24"/>
+      <c r="I731" s="25"/>
+      <c r="J731" s="25"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="I732" s="24"/>
-      <c r="J732" s="24"/>
+      <c r="I732" s="25"/>
+      <c r="J732" s="25"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="I733" s="24"/>
-      <c r="J733" s="24"/>
+      <c r="I733" s="25"/>
+      <c r="J733" s="25"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="I734" s="24"/>
-      <c r="J734" s="24"/>
+      <c r="I734" s="25"/>
+      <c r="J734" s="25"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="I735" s="24"/>
-      <c r="J735" s="24"/>
+      <c r="I735" s="25"/>
+      <c r="J735" s="25"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="I736" s="24"/>
-      <c r="J736" s="24"/>
+      <c r="I736" s="25"/>
+      <c r="J736" s="25"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="I737" s="24"/>
-      <c r="J737" s="24"/>
+      <c r="I737" s="25"/>
+      <c r="J737" s="25"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="I738" s="24"/>
-      <c r="J738" s="24"/>
+      <c r="I738" s="25"/>
+      <c r="J738" s="25"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="I739" s="24"/>
-      <c r="J739" s="24"/>
+      <c r="I739" s="25"/>
+      <c r="J739" s="25"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="I740" s="24"/>
-      <c r="J740" s="24"/>
+      <c r="I740" s="25"/>
+      <c r="J740" s="25"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="I741" s="24"/>
-      <c r="J741" s="24"/>
+      <c r="I741" s="25"/>
+      <c r="J741" s="25"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="I742" s="24"/>
-      <c r="J742" s="24"/>
+      <c r="I742" s="25"/>
+      <c r="J742" s="25"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="I743" s="24"/>
-      <c r="J743" s="24"/>
+      <c r="I743" s="25"/>
+      <c r="J743" s="25"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="I744" s="24"/>
-      <c r="J744" s="24"/>
+      <c r="I744" s="25"/>
+      <c r="J744" s="25"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="I745" s="24"/>
-      <c r="J745" s="24"/>
+      <c r="I745" s="25"/>
+      <c r="J745" s="25"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="I746" s="24"/>
-      <c r="J746" s="24"/>
+      <c r="I746" s="25"/>
+      <c r="J746" s="25"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="I747" s="24"/>
-      <c r="J747" s="24"/>
+      <c r="I747" s="25"/>
+      <c r="J747" s="25"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="I748" s="24"/>
-      <c r="J748" s="24"/>
+      <c r="I748" s="25"/>
+      <c r="J748" s="25"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="I749" s="24"/>
-      <c r="J749" s="24"/>
+      <c r="I749" s="25"/>
+      <c r="J749" s="25"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="I750" s="24"/>
-      <c r="J750" s="24"/>
+      <c r="I750" s="25"/>
+      <c r="J750" s="25"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="I751" s="24"/>
-      <c r="J751" s="24"/>
+      <c r="I751" s="25"/>
+      <c r="J751" s="25"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="I752" s="24"/>
-      <c r="J752" s="24"/>
+      <c r="I752" s="25"/>
+      <c r="J752" s="25"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="I753" s="24"/>
-      <c r="J753" s="24"/>
+      <c r="I753" s="25"/>
+      <c r="J753" s="25"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="I754" s="24"/>
-      <c r="J754" s="24"/>
+      <c r="I754" s="25"/>
+      <c r="J754" s="25"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="I755" s="24"/>
-      <c r="J755" s="24"/>
+      <c r="I755" s="25"/>
+      <c r="J755" s="25"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="I756" s="24"/>
-      <c r="J756" s="24"/>
+      <c r="I756" s="25"/>
+      <c r="J756" s="25"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="I757" s="24"/>
-      <c r="J757" s="24"/>
+      <c r="I757" s="25"/>
+      <c r="J757" s="25"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="I758" s="24"/>
-      <c r="J758" s="24"/>
+      <c r="I758" s="25"/>
+      <c r="J758" s="25"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="I759" s="24"/>
-      <c r="J759" s="24"/>
+      <c r="I759" s="25"/>
+      <c r="J759" s="25"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="I760" s="24"/>
-      <c r="J760" s="24"/>
+      <c r="I760" s="25"/>
+      <c r="J760" s="25"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="I761" s="24"/>
-      <c r="J761" s="24"/>
+      <c r="I761" s="25"/>
+      <c r="J761" s="25"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="I762" s="24"/>
-      <c r="J762" s="24"/>
+      <c r="I762" s="25"/>
+      <c r="J762" s="25"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="I763" s="24"/>
-      <c r="J763" s="24"/>
+      <c r="I763" s="25"/>
+      <c r="J763" s="25"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="I764" s="24"/>
-      <c r="J764" s="24"/>
+      <c r="I764" s="25"/>
+      <c r="J764" s="25"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="I765" s="24"/>
-      <c r="J765" s="24"/>
+      <c r="I765" s="25"/>
+      <c r="J765" s="25"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="I766" s="24"/>
-      <c r="J766" s="24"/>
+      <c r="I766" s="25"/>
+      <c r="J766" s="25"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="I767" s="24"/>
-      <c r="J767" s="24"/>
+      <c r="I767" s="25"/>
+      <c r="J767" s="25"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="I768" s="24"/>
-      <c r="J768" s="24"/>
+      <c r="I768" s="25"/>
+      <c r="J768" s="25"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="I769" s="24"/>
-      <c r="J769" s="24"/>
+      <c r="I769" s="25"/>
+      <c r="J769" s="25"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="I770" s="24"/>
-      <c r="J770" s="24"/>
+      <c r="I770" s="25"/>
+      <c r="J770" s="25"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="I771" s="24"/>
-      <c r="J771" s="24"/>
+      <c r="I771" s="25"/>
+      <c r="J771" s="25"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="I772" s="24"/>
-      <c r="J772" s="24"/>
+      <c r="I772" s="25"/>
+      <c r="J772" s="25"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="I773" s="24"/>
-      <c r="J773" s="24"/>
+      <c r="I773" s="25"/>
+      <c r="J773" s="25"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="I774" s="24"/>
-      <c r="J774" s="24"/>
+      <c r="I774" s="25"/>
+      <c r="J774" s="25"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="I775" s="24"/>
-      <c r="J775" s="24"/>
+      <c r="I775" s="25"/>
+      <c r="J775" s="25"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="I776" s="24"/>
-      <c r="J776" s="24"/>
+      <c r="I776" s="25"/>
+      <c r="J776" s="25"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="I777" s="24"/>
-      <c r="J777" s="24"/>
+      <c r="I777" s="25"/>
+      <c r="J777" s="25"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="I778" s="24"/>
-      <c r="J778" s="24"/>
+      <c r="I778" s="25"/>
+      <c r="J778" s="25"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="I779" s="24"/>
-      <c r="J779" s="24"/>
+      <c r="I779" s="25"/>
+      <c r="J779" s="25"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="I780" s="24"/>
-      <c r="J780" s="24"/>
+      <c r="I780" s="25"/>
+      <c r="J780" s="25"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="I781" s="24"/>
-      <c r="J781" s="24"/>
+      <c r="I781" s="25"/>
+      <c r="J781" s="25"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="I782" s="24"/>
-      <c r="J782" s="24"/>
+      <c r="I782" s="25"/>
+      <c r="J782" s="25"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="I783" s="24"/>
-      <c r="J783" s="24"/>
+      <c r="I783" s="25"/>
+      <c r="J783" s="25"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="I784" s="24"/>
-      <c r="J784" s="24"/>
+      <c r="I784" s="25"/>
+      <c r="J784" s="25"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="I785" s="24"/>
-      <c r="J785" s="24"/>
+      <c r="I785" s="25"/>
+      <c r="J785" s="25"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="I786" s="24"/>
-      <c r="J786" s="24"/>
+      <c r="I786" s="25"/>
+      <c r="J786" s="25"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="I787" s="24"/>
-      <c r="J787" s="24"/>
+      <c r="I787" s="25"/>
+      <c r="J787" s="25"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="I788" s="24"/>
-      <c r="J788" s="24"/>
+      <c r="I788" s="25"/>
+      <c r="J788" s="25"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="I789" s="24"/>
-      <c r="J789" s="24"/>
+      <c r="I789" s="25"/>
+      <c r="J789" s="25"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="I790" s="24"/>
-      <c r="J790" s="24"/>
+      <c r="I790" s="25"/>
+      <c r="J790" s="25"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="I791" s="24"/>
-      <c r="J791" s="24"/>
+      <c r="I791" s="25"/>
+      <c r="J791" s="25"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="I792" s="24"/>
-      <c r="J792" s="24"/>
+      <c r="I792" s="25"/>
+      <c r="J792" s="25"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="I793" s="24"/>
-      <c r="J793" s="24"/>
+      <c r="I793" s="25"/>
+      <c r="J793" s="25"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="I794" s="24"/>
-      <c r="J794" s="24"/>
+      <c r="I794" s="25"/>
+      <c r="J794" s="25"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="I795" s="24"/>
-      <c r="J795" s="24"/>
+      <c r="I795" s="25"/>
+      <c r="J795" s="25"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="I796" s="24"/>
-      <c r="J796" s="24"/>
+      <c r="I796" s="25"/>
+      <c r="J796" s="25"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="I797" s="24"/>
-      <c r="J797" s="24"/>
+      <c r="I797" s="25"/>
+      <c r="J797" s="25"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="I798" s="24"/>
-      <c r="J798" s="24"/>
+      <c r="I798" s="25"/>
+      <c r="J798" s="25"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="I799" s="24"/>
-      <c r="J799" s="24"/>
+      <c r="I799" s="25"/>
+      <c r="J799" s="25"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="I800" s="24"/>
-      <c r="J800" s="24"/>
+      <c r="I800" s="25"/>
+      <c r="J800" s="25"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="I801" s="24"/>
-      <c r="J801" s="24"/>
+      <c r="I801" s="25"/>
+      <c r="J801" s="25"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="I802" s="24"/>
-      <c r="J802" s="24"/>
+      <c r="I802" s="25"/>
+      <c r="J802" s="25"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="I803" s="24"/>
-      <c r="J803" s="24"/>
+      <c r="I803" s="25"/>
+      <c r="J803" s="25"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="I804" s="24"/>
-      <c r="J804" s="24"/>
+      <c r="I804" s="25"/>
+      <c r="J804" s="25"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="I805" s="24"/>
-      <c r="J805" s="24"/>
+      <c r="I805" s="25"/>
+      <c r="J805" s="25"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="I806" s="24"/>
-      <c r="J806" s="24"/>
+      <c r="I806" s="25"/>
+      <c r="J806" s="25"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="I807" s="24"/>
-      <c r="J807" s="24"/>
+      <c r="I807" s="25"/>
+      <c r="J807" s="25"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="I808" s="24"/>
-      <c r="J808" s="24"/>
+      <c r="I808" s="25"/>
+      <c r="J808" s="25"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="I809" s="24"/>
-      <c r="J809" s="24"/>
+      <c r="I809" s="25"/>
+      <c r="J809" s="25"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="I810" s="24"/>
-      <c r="J810" s="24"/>
+      <c r="I810" s="25"/>
+      <c r="J810" s="25"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="I811" s="24"/>
-      <c r="J811" s="24"/>
+      <c r="I811" s="25"/>
+      <c r="J811" s="25"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="I812" s="24"/>
-      <c r="J812" s="24"/>
+      <c r="I812" s="25"/>
+      <c r="J812" s="25"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="I813" s="24"/>
-      <c r="J813" s="24"/>
+      <c r="I813" s="25"/>
+      <c r="J813" s="25"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="I814" s="24"/>
-      <c r="J814" s="24"/>
+      <c r="I814" s="25"/>
+      <c r="J814" s="25"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="I815" s="24"/>
-      <c r="J815" s="24"/>
+      <c r="I815" s="25"/>
+      <c r="J815" s="25"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="I816" s="24"/>
-      <c r="J816" s="24"/>
+      <c r="I816" s="25"/>
+      <c r="J816" s="25"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="I817" s="24"/>
-      <c r="J817" s="24"/>
+      <c r="I817" s="25"/>
+      <c r="J817" s="25"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="I818" s="24"/>
-      <c r="J818" s="24"/>
+      <c r="I818" s="25"/>
+      <c r="J818" s="25"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="I819" s="24"/>
-      <c r="J819" s="24"/>
+      <c r="I819" s="25"/>
+      <c r="J819" s="25"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="I820" s="24"/>
-      <c r="J820" s="24"/>
+      <c r="I820" s="25"/>
+      <c r="J820" s="25"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="I821" s="24"/>
-      <c r="J821" s="24"/>
+      <c r="I821" s="25"/>
+      <c r="J821" s="25"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="I822" s="24"/>
-      <c r="J822" s="24"/>
+      <c r="I822" s="25"/>
+      <c r="J822" s="25"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="I823" s="24"/>
-      <c r="J823" s="24"/>
+      <c r="I823" s="25"/>
+      <c r="J823" s="25"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="I824" s="24"/>
-      <c r="J824" s="24"/>
+      <c r="I824" s="25"/>
+      <c r="J824" s="25"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="I825" s="24"/>
-      <c r="J825" s="24"/>
+      <c r="I825" s="25"/>
+      <c r="J825" s="25"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="I826" s="24"/>
-      <c r="J826" s="24"/>
+      <c r="I826" s="25"/>
+      <c r="J826" s="25"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="I827" s="24"/>
-      <c r="J827" s="24"/>
+      <c r="I827" s="25"/>
+      <c r="J827" s="25"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="I828" s="24"/>
-      <c r="J828" s="24"/>
+      <c r="I828" s="25"/>
+      <c r="J828" s="25"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="I829" s="24"/>
-      <c r="J829" s="24"/>
+      <c r="I829" s="25"/>
+      <c r="J829" s="25"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="I830" s="24"/>
-      <c r="J830" s="24"/>
+      <c r="I830" s="25"/>
+      <c r="J830" s="25"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="I831" s="24"/>
-      <c r="J831" s="24"/>
+      <c r="I831" s="25"/>
+      <c r="J831" s="25"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="I832" s="24"/>
-      <c r="J832" s="24"/>
+      <c r="I832" s="25"/>
+      <c r="J832" s="25"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="I833" s="24"/>
-      <c r="J833" s="24"/>
+      <c r="I833" s="25"/>
+      <c r="J833" s="25"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="I834" s="24"/>
-      <c r="J834" s="24"/>
+      <c r="I834" s="25"/>
+      <c r="J834" s="25"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="I835" s="24"/>
-      <c r="J835" s="24"/>
+      <c r="I835" s="25"/>
+      <c r="J835" s="25"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="I836" s="24"/>
-      <c r="J836" s="24"/>
+      <c r="I836" s="25"/>
+      <c r="J836" s="25"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="I837" s="24"/>
-      <c r="J837" s="24"/>
+      <c r="I837" s="25"/>
+      <c r="J837" s="25"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="I838" s="24"/>
-      <c r="J838" s="24"/>
+      <c r="I838" s="25"/>
+      <c r="J838" s="25"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="I839" s="24"/>
-      <c r="J839" s="24"/>
+      <c r="I839" s="25"/>
+      <c r="J839" s="25"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="I840" s="24"/>
-      <c r="J840" s="24"/>
+      <c r="I840" s="25"/>
+      <c r="J840" s="25"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="I841" s="24"/>
-      <c r="J841" s="24"/>
+      <c r="I841" s="25"/>
+      <c r="J841" s="25"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="I842" s="24"/>
-      <c r="J842" s="24"/>
+      <c r="I842" s="25"/>
+      <c r="J842" s="25"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="I843" s="24"/>
-      <c r="J843" s="24"/>
+      <c r="I843" s="25"/>
+      <c r="J843" s="25"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="I844" s="24"/>
-      <c r="J844" s="24"/>
+      <c r="I844" s="25"/>
+      <c r="J844" s="25"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="I845" s="24"/>
-      <c r="J845" s="24"/>
+      <c r="I845" s="25"/>
+      <c r="J845" s="25"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="I846" s="24"/>
-      <c r="J846" s="24"/>
+      <c r="I846" s="25"/>
+      <c r="J846" s="25"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="I847" s="24"/>
-      <c r="J847" s="24"/>
+      <c r="I847" s="25"/>
+      <c r="J847" s="25"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="I848" s="24"/>
-      <c r="J848" s="24"/>
+      <c r="I848" s="25"/>
+      <c r="J848" s="25"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="I849" s="24"/>
-      <c r="J849" s="24"/>
+      <c r="I849" s="25"/>
+      <c r="J849" s="25"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="I850" s="24"/>
-      <c r="J850" s="24"/>
+      <c r="I850" s="25"/>
+      <c r="J850" s="25"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="I851" s="24"/>
-      <c r="J851" s="24"/>
+      <c r="I851" s="25"/>
+      <c r="J851" s="25"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="I852" s="24"/>
-      <c r="J852" s="24"/>
+      <c r="I852" s="25"/>
+      <c r="J852" s="25"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="I853" s="24"/>
-      <c r="J853" s="24"/>
+      <c r="I853" s="25"/>
+      <c r="J853" s="25"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="I854" s="24"/>
-      <c r="J854" s="24"/>
+      <c r="I854" s="25"/>
+      <c r="J854" s="25"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="I855" s="24"/>
-      <c r="J855" s="24"/>
+      <c r="I855" s="25"/>
+      <c r="J855" s="25"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="I856" s="24"/>
-      <c r="J856" s="24"/>
+      <c r="I856" s="25"/>
+      <c r="J856" s="25"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="I857" s="24"/>
-      <c r="J857" s="24"/>
+      <c r="I857" s="25"/>
+      <c r="J857" s="25"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="I858" s="24"/>
-      <c r="J858" s="24"/>
+      <c r="I858" s="25"/>
+      <c r="J858" s="25"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="I859" s="24"/>
-      <c r="J859" s="24"/>
+      <c r="I859" s="25"/>
+      <c r="J859" s="25"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="I860" s="24"/>
-      <c r="J860" s="24"/>
+      <c r="I860" s="25"/>
+      <c r="J860" s="25"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="I861" s="24"/>
-      <c r="J861" s="24"/>
+      <c r="I861" s="25"/>
+      <c r="J861" s="25"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="I862" s="24"/>
-      <c r="J862" s="24"/>
+      <c r="I862" s="25"/>
+      <c r="J862" s="25"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="I863" s="24"/>
-      <c r="J863" s="24"/>
+      <c r="I863" s="25"/>
+      <c r="J863" s="25"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="I864" s="24"/>
-      <c r="J864" s="24"/>
+      <c r="I864" s="25"/>
+      <c r="J864" s="25"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="I865" s="24"/>
-      <c r="J865" s="24"/>
+      <c r="I865" s="25"/>
+      <c r="J865" s="25"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="I866" s="24"/>
-      <c r="J866" s="24"/>
+      <c r="I866" s="25"/>
+      <c r="J866" s="25"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="I867" s="24"/>
-      <c r="J867" s="24"/>
+      <c r="I867" s="25"/>
+      <c r="J867" s="25"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="I868" s="24"/>
-      <c r="J868" s="24"/>
+      <c r="I868" s="25"/>
+      <c r="J868" s="25"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="I869" s="24"/>
-      <c r="J869" s="24"/>
+      <c r="I869" s="25"/>
+      <c r="J869" s="25"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="I870" s="24"/>
-      <c r="J870" s="24"/>
+      <c r="I870" s="25"/>
+      <c r="J870" s="25"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="I871" s="24"/>
-      <c r="J871" s="24"/>
+      <c r="I871" s="25"/>
+      <c r="J871" s="25"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="I872" s="24"/>
-      <c r="J872" s="24"/>
+      <c r="I872" s="25"/>
+      <c r="J872" s="25"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="I873" s="24"/>
-      <c r="J873" s="24"/>
+      <c r="I873" s="25"/>
+      <c r="J873" s="25"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="I874" s="24"/>
-      <c r="J874" s="24"/>
+      <c r="I874" s="25"/>
+      <c r="J874" s="25"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="I875" s="24"/>
-      <c r="J875" s="24"/>
+      <c r="I875" s="25"/>
+      <c r="J875" s="25"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="I876" s="24"/>
-      <c r="J876" s="24"/>
+      <c r="I876" s="25"/>
+      <c r="J876" s="25"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="I877" s="24"/>
-      <c r="J877" s="24"/>
+      <c r="I877" s="25"/>
+      <c r="J877" s="25"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="I878" s="24"/>
-      <c r="J878" s="24"/>
+      <c r="I878" s="25"/>
+      <c r="J878" s="25"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="I879" s="24"/>
-      <c r="J879" s="24"/>
+      <c r="I879" s="25"/>
+      <c r="J879" s="25"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="I880" s="24"/>
-      <c r="J880" s="24"/>
+      <c r="I880" s="25"/>
+      <c r="J880" s="25"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="I881" s="24"/>
-      <c r="J881" s="24"/>
+      <c r="I881" s="25"/>
+      <c r="J881" s="25"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="I882" s="24"/>
-      <c r="J882" s="24"/>
+      <c r="I882" s="25"/>
+      <c r="J882" s="25"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="I883" s="24"/>
-      <c r="J883" s="24"/>
+      <c r="I883" s="25"/>
+      <c r="J883" s="25"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="I884" s="24"/>
-      <c r="J884" s="24"/>
+      <c r="I884" s="25"/>
+      <c r="J884" s="25"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="I885" s="24"/>
-      <c r="J885" s="24"/>
+      <c r="I885" s="25"/>
+      <c r="J885" s="25"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="I886" s="24"/>
-      <c r="J886" s="24"/>
+      <c r="I886" s="25"/>
+      <c r="J886" s="25"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="I887" s="24"/>
-      <c r="J887" s="24"/>
+      <c r="I887" s="25"/>
+      <c r="J887" s="25"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="I888" s="24"/>
-      <c r="J888" s="24"/>
+      <c r="I888" s="25"/>
+      <c r="J888" s="25"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="I889" s="24"/>
-      <c r="J889" s="24"/>
+      <c r="I889" s="25"/>
+      <c r="J889" s="25"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="I890" s="24"/>
-      <c r="J890" s="24"/>
+      <c r="I890" s="25"/>
+      <c r="J890" s="25"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="I891" s="24"/>
-      <c r="J891" s="24"/>
+      <c r="I891" s="25"/>
+      <c r="J891" s="25"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="I892" s="24"/>
-      <c r="J892" s="24"/>
+      <c r="I892" s="25"/>
+      <c r="J892" s="25"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="I893" s="24"/>
-      <c r="J893" s="24"/>
+      <c r="I893" s="25"/>
+      <c r="J893" s="25"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="I894" s="24"/>
-      <c r="J894" s="24"/>
+      <c r="I894" s="25"/>
+      <c r="J894" s="25"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="I895" s="24"/>
-      <c r="J895" s="24"/>
+      <c r="I895" s="25"/>
+      <c r="J895" s="25"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="I896" s="24"/>
-      <c r="J896" s="24"/>
+      <c r="I896" s="25"/>
+      <c r="J896" s="25"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="I897" s="24"/>
-      <c r="J897" s="24"/>
+      <c r="I897" s="25"/>
+      <c r="J897" s="25"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="I898" s="24"/>
-      <c r="J898" s="24"/>
+      <c r="I898" s="25"/>
+      <c r="J898" s="25"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="I899" s="24"/>
-      <c r="J899" s="24"/>
+      <c r="I899" s="25"/>
+      <c r="J899" s="25"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="I900" s="24"/>
-      <c r="J900" s="24"/>
+      <c r="I900" s="25"/>
+      <c r="J900" s="25"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="I901" s="24"/>
-      <c r="J901" s="24"/>
+      <c r="I901" s="25"/>
+      <c r="J901" s="25"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="I902" s="24"/>
-      <c r="J902" s="24"/>
+      <c r="I902" s="25"/>
+      <c r="J902" s="25"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="I903" s="24"/>
-      <c r="J903" s="24"/>
+      <c r="I903" s="25"/>
+      <c r="J903" s="25"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="I904" s="24"/>
-      <c r="J904" s="24"/>
+      <c r="I904" s="25"/>
+      <c r="J904" s="25"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="I905" s="24"/>
-      <c r="J905" s="24"/>
+      <c r="I905" s="25"/>
+      <c r="J905" s="25"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="I906" s="24"/>
-      <c r="J906" s="24"/>
+      <c r="I906" s="25"/>
+      <c r="J906" s="25"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="I907" s="24"/>
-      <c r="J907" s="24"/>
+      <c r="I907" s="25"/>
+      <c r="J907" s="25"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="I908" s="24"/>
-      <c r="J908" s="24"/>
+      <c r="I908" s="25"/>
+      <c r="J908" s="25"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="I909" s="24"/>
-      <c r="J909" s="24"/>
+      <c r="I909" s="25"/>
+      <c r="J909" s="25"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="I910" s="24"/>
-      <c r="J910" s="24"/>
+      <c r="I910" s="25"/>
+      <c r="J910" s="25"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="I911" s="24"/>
-      <c r="J911" s="24"/>
+      <c r="I911" s="25"/>
+      <c r="J911" s="25"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="I912" s="24"/>
-      <c r="J912" s="24"/>
+      <c r="I912" s="25"/>
+      <c r="J912" s="25"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="I913" s="24"/>
-      <c r="J913" s="24"/>
+      <c r="I913" s="25"/>
+      <c r="J913" s="25"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="I914" s="24"/>
-      <c r="J914" s="24"/>
+      <c r="I914" s="25"/>
+      <c r="J914" s="25"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="I915" s="24"/>
-      <c r="J915" s="24"/>
+      <c r="I915" s="25"/>
+      <c r="J915" s="25"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="I916" s="24"/>
-      <c r="J916" s="24"/>
+      <c r="I916" s="25"/>
+      <c r="J916" s="25"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="I917" s="24"/>
-      <c r="J917" s="24"/>
+      <c r="I917" s="25"/>
+      <c r="J917" s="25"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="I918" s="24"/>
-      <c r="J918" s="24"/>
+      <c r="I918" s="25"/>
+      <c r="J918" s="25"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="I919" s="24"/>
-      <c r="J919" s="24"/>
+      <c r="I919" s="25"/>
+      <c r="J919" s="25"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="I920" s="24"/>
-      <c r="J920" s="24"/>
+      <c r="I920" s="25"/>
+      <c r="J920" s="25"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="I921" s="24"/>
-      <c r="J921" s="24"/>
+      <c r="I921" s="25"/>
+      <c r="J921" s="25"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="I922" s="24"/>
-      <c r="J922" s="24"/>
+      <c r="I922" s="25"/>
+      <c r="J922" s="25"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="I923" s="24"/>
-      <c r="J923" s="24"/>
+      <c r="I923" s="25"/>
+      <c r="J923" s="25"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="I924" s="24"/>
-      <c r="J924" s="24"/>
+      <c r="I924" s="25"/>
+      <c r="J924" s="25"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="I925" s="24"/>
-      <c r="J925" s="24"/>
+      <c r="I925" s="25"/>
+      <c r="J925" s="25"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="I926" s="24"/>
-      <c r="J926" s="24"/>
+      <c r="I926" s="25"/>
+      <c r="J926" s="25"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="I927" s="24"/>
-      <c r="J927" s="24"/>
+      <c r="I927" s="25"/>
+      <c r="J927" s="25"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="I928" s="24"/>
-      <c r="J928" s="24"/>
+      <c r="I928" s="25"/>
+      <c r="J928" s="25"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="I929" s="24"/>
-      <c r="J929" s="24"/>
+      <c r="I929" s="25"/>
+      <c r="J929" s="25"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="I930" s="24"/>
-      <c r="J930" s="24"/>
+      <c r="I930" s="25"/>
+      <c r="J930" s="25"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="I931" s="24"/>
-      <c r="J931" s="24"/>
+      <c r="I931" s="25"/>
+      <c r="J931" s="25"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="I932" s="24"/>
-      <c r="J932" s="24"/>
+      <c r="I932" s="25"/>
+      <c r="J932" s="25"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="I933" s="24"/>
-      <c r="J933" s="24"/>
+      <c r="I933" s="25"/>
+      <c r="J933" s="25"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="I934" s="24"/>
-      <c r="J934" s="24"/>
+      <c r="I934" s="25"/>
+      <c r="J934" s="25"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="I935" s="24"/>
-      <c r="J935" s="24"/>
+      <c r="I935" s="25"/>
+      <c r="J935" s="25"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="I936" s="24"/>
-      <c r="J936" s="24"/>
+      <c r="I936" s="25"/>
+      <c r="J936" s="25"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="I937" s="24"/>
-      <c r="J937" s="24"/>
+      <c r="I937" s="25"/>
+      <c r="J937" s="25"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="I938" s="24"/>
-      <c r="J938" s="24"/>
+      <c r="I938" s="25"/>
+      <c r="J938" s="25"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="I939" s="24"/>
-      <c r="J939" s="24"/>
+      <c r="I939" s="25"/>
+      <c r="J939" s="25"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="I940" s="24"/>
-      <c r="J940" s="24"/>
+      <c r="I940" s="25"/>
+      <c r="J940" s="25"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="I941" s="24"/>
-      <c r="J941" s="24"/>
+      <c r="I941" s="25"/>
+      <c r="J941" s="25"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="I942" s="24"/>
-      <c r="J942" s="24"/>
+      <c r="I942" s="25"/>
+      <c r="J942" s="25"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="I943" s="24"/>
-      <c r="J943" s="24"/>
+      <c r="I943" s="25"/>
+      <c r="J943" s="25"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="I944" s="24"/>
-      <c r="J944" s="24"/>
+      <c r="I944" s="25"/>
+      <c r="J944" s="25"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="I945" s="24"/>
-      <c r="J945" s="24"/>
+      <c r="I945" s="25"/>
+      <c r="J945" s="25"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="I946" s="24"/>
-      <c r="J946" s="24"/>
+      <c r="I946" s="25"/>
+      <c r="J946" s="25"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="I947" s="24"/>
-      <c r="J947" s="24"/>
+      <c r="I947" s="25"/>
+      <c r="J947" s="25"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="I948" s="24"/>
-      <c r="J948" s="24"/>
+      <c r="I948" s="25"/>
+      <c r="J948" s="25"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="I949" s="24"/>
-      <c r="J949" s="24"/>
+      <c r="I949" s="25"/>
+      <c r="J949" s="25"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="I950" s="24"/>
-      <c r="J950" s="24"/>
+      <c r="I950" s="25"/>
+      <c r="J950" s="25"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="I951" s="24"/>
-      <c r="J951" s="24"/>
+      <c r="I951" s="25"/>
+      <c r="J951" s="25"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="I952" s="24"/>
-      <c r="J952" s="24"/>
+      <c r="I952" s="25"/>
+      <c r="J952" s="25"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="I953" s="24"/>
-      <c r="J953" s="24"/>
+      <c r="I953" s="25"/>
+      <c r="J953" s="25"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="I954" s="24"/>
-      <c r="J954" s="24"/>
+      <c r="I954" s="25"/>
+      <c r="J954" s="25"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="I955" s="24"/>
-      <c r="J955" s="24"/>
+      <c r="I955" s="25"/>
+      <c r="J955" s="25"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="I956" s="24"/>
-      <c r="J956" s="24"/>
+      <c r="I956" s="25"/>
+      <c r="J956" s="25"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="I957" s="24"/>
-      <c r="J957" s="24"/>
+      <c r="I957" s="25"/>
+      <c r="J957" s="25"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="I958" s="24"/>
-      <c r="J958" s="24"/>
+      <c r="I958" s="25"/>
+      <c r="J958" s="25"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="I959" s="24"/>
-      <c r="J959" s="24"/>
+      <c r="I959" s="25"/>
+      <c r="J959" s="25"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="I960" s="24"/>
-      <c r="J960" s="24"/>
+      <c r="I960" s="25"/>
+      <c r="J960" s="25"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="I961" s="24"/>
-      <c r="J961" s="24"/>
+      <c r="I961" s="25"/>
+      <c r="J961" s="25"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="I962" s="24"/>
-      <c r="J962" s="24"/>
+      <c r="I962" s="25"/>
+      <c r="J962" s="25"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="I963" s="24"/>
-      <c r="J963" s="24"/>
+      <c r="I963" s="25"/>
+      <c r="J963" s="25"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="I964" s="24"/>
-      <c r="J964" s="24"/>
+      <c r="I964" s="25"/>
+      <c r="J964" s="25"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="I965" s="24"/>
-      <c r="J965" s="24"/>
+      <c r="I965" s="25"/>
+      <c r="J965" s="25"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="I966" s="24"/>
-      <c r="J966" s="24"/>
+      <c r="I966" s="25"/>
+      <c r="J966" s="25"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="I967" s="24"/>
-      <c r="J967" s="24"/>
+      <c r="I967" s="25"/>
+      <c r="J967" s="25"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="I968" s="24"/>
-      <c r="J968" s="24"/>
+      <c r="I968" s="25"/>
+      <c r="J968" s="25"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="I969" s="24"/>
-      <c r="J969" s="24"/>
+      <c r="I969" s="25"/>
+      <c r="J969" s="25"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="I970" s="24"/>
-      <c r="J970" s="24"/>
+      <c r="I970" s="25"/>
+      <c r="J970" s="25"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="I971" s="24"/>
-      <c r="J971" s="24"/>
+      <c r="I971" s="25"/>
+      <c r="J971" s="25"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="I972" s="24"/>
-      <c r="J972" s="24"/>
+      <c r="I972" s="25"/>
+      <c r="J972" s="25"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="I973" s="24"/>
-      <c r="J973" s="24"/>
+      <c r="I973" s="25"/>
+      <c r="J973" s="25"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="I974" s="24"/>
-      <c r="J974" s="24"/>
+      <c r="I974" s="25"/>
+      <c r="J974" s="25"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="I975" s="24"/>
-      <c r="J975" s="24"/>
+      <c r="I975" s="25"/>
+      <c r="J975" s="25"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="I976" s="24"/>
-      <c r="J976" s="24"/>
+      <c r="I976" s="25"/>
+      <c r="J976" s="25"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="I977" s="24"/>
-      <c r="J977" s="24"/>
+      <c r="I977" s="25"/>
+      <c r="J977" s="25"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="I978" s="24"/>
-      <c r="J978" s="24"/>
+      <c r="I978" s="25"/>
+      <c r="J978" s="25"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="I979" s="24"/>
-      <c r="J979" s="24"/>
+      <c r="I979" s="25"/>
+      <c r="J979" s="25"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="I980" s="24"/>
-      <c r="J980" s="24"/>
+      <c r="I980" s="25"/>
+      <c r="J980" s="25"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="I981" s="24"/>
-      <c r="J981" s="24"/>
+      <c r="I981" s="25"/>
+      <c r="J981" s="25"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="I982" s="24"/>
-      <c r="J982" s="24"/>
+      <c r="I982" s="25"/>
+      <c r="J982" s="25"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="I983" s="24"/>
-      <c r="J983" s="24"/>
+      <c r="I983" s="25"/>
+      <c r="J983" s="25"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="I984" s="24"/>
-      <c r="J984" s="24"/>
+      <c r="I984" s="25"/>
+      <c r="J984" s="25"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="I985" s="24"/>
-      <c r="J985" s="24"/>
+      <c r="I985" s="25"/>
+      <c r="J985" s="25"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="I986" s="24"/>
-      <c r="J986" s="24"/>
+      <c r="I986" s="25"/>
+      <c r="J986" s="25"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="I987" s="24"/>
-      <c r="J987" s="24"/>
+      <c r="I987" s="25"/>
+      <c r="J987" s="25"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="I988" s="24"/>
-      <c r="J988" s="24"/>
+      <c r="I988" s="25"/>
+      <c r="J988" s="25"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="I989" s="24"/>
-      <c r="J989" s="24"/>
+      <c r="I989" s="25"/>
+      <c r="J989" s="25"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="I990" s="24"/>
-      <c r="J990" s="24"/>
+      <c r="I990" s="25"/>
+      <c r="J990" s="25"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="I991" s="24"/>
-      <c r="J991" s="24"/>
+      <c r="I991" s="25"/>
+      <c r="J991" s="25"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="I992" s="24"/>
-      <c r="J992" s="24"/>
+      <c r="I992" s="25"/>
+      <c r="J992" s="25"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="I993" s="24"/>
-      <c r="J993" s="24"/>
+      <c r="I993" s="25"/>
+      <c r="J993" s="25"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="I994" s="24"/>
-      <c r="J994" s="24"/>
+      <c r="I994" s="25"/>
+      <c r="J994" s="25"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="I995" s="24"/>
-      <c r="J995" s="24"/>
+      <c r="I995" s="25"/>
+      <c r="J995" s="25"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="I996" s="24"/>
-      <c r="J996" s="24"/>
+      <c r="I996" s="25"/>
+      <c r="J996" s="25"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="I997" s="24"/>
-      <c r="J997" s="24"/>
+      <c r="I997" s="25"/>
+      <c r="J997" s="25"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="I998" s="24"/>
-      <c r="J998" s="24"/>
+      <c r="I998" s="25"/>
+      <c r="J998" s="25"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="I999" s="24"/>
-      <c r="J999" s="24"/>
+      <c r="I999" s="25"/>
+      <c r="J999" s="25"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="I1000" s="24"/>
-      <c r="J1000" s="24"/>
+      <c r="I1000" s="25"/>
+      <c r="J1000" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6732,6 +6732,9 @@
     <hyperlink r:id="rId36" ref="I22"/>
     <hyperlink r:id="rId37" ref="J22"/>
   </hyperlinks>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="8" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId38"/>
 </worksheet>
 </file>
--- a/Documentation/EGR314 BOM.xlsx
+++ b/Documentation/EGR314 BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
   <si>
     <t xml:space="preserve">Bill of Materials </t>
   </si>
@@ -441,6 +441,24 @@
   </si>
   <si>
     <t>U1</t>
+  </si>
+  <si>
+    <t>PIC PIC® XLP™ 18Q Microcontroller IC 8-Bit 64MHz 128KB (128K x 8) FLASH 28-SOIC</t>
+  </si>
+  <si>
+    <t>PIC18F27Q10-I/SO</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/PIC18F27Q10-I-SO/10064343</t>
+  </si>
+  <si>
+    <t>https://ww1.microchip.com/downloads/en/DeviceDoc/PIC18F27-47Q10-Data-Sheet-40002043E.pdf</t>
+  </si>
+  <si>
+    <t>PIC18F27Q10-I/SO-ND</t>
+  </si>
+  <si>
+    <t>IC1</t>
   </si>
 </sst>
 </file>
@@ -920,14 +938,14 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D22" si="1">B3*C3</f>
+        <f t="shared" ref="D3:D23" si="1">B3*C3</f>
         <v>0</v>
       </c>
       <c r="E3" s="6">
         <v>0.0</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F22" si="2">B3*E3</f>
+        <f t="shared" ref="F3:F23" si="2">B3*E3</f>
         <v>0</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -1975,19 +1993,56 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="12"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="N23" s="26"/>
+      <c r="A23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>3.93</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="2"/>
+        <v>3.93</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>45716.0</v>
+      </c>
       <c r="P23" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -6731,10 +6786,12 @@
     <hyperlink r:id="rId35" ref="J21"/>
     <hyperlink r:id="rId36" ref="I22"/>
     <hyperlink r:id="rId37" ref="J22"/>
+    <hyperlink r:id="rId38" ref="I23"/>
+    <hyperlink r:id="rId39" ref="J23"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="8" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId38"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>
--- a/Documentation/EGR314 BOM.xlsx
+++ b/Documentation/EGR314 BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="148">
   <si>
     <t xml:space="preserve">Bill of Materials </t>
   </si>
@@ -96,19 +96,44 @@
     <t>R1-R7</t>
   </si>
   <si>
-    <t>12 VDC Two-Phase Bipolar Hybrid Stepper Motor</t>
+    <t>Bipolar Stepper Motor 12VDC 259 mA 7.5°/48 Steps</t>
+  </si>
+  <si>
+    <t>Fulling Motor USA</t>
+  </si>
+  <si>
+    <t>35BYHJ30-36A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000FF"/>
+        <u/>
+      </rPr>
+      <t>https://www.jameco.com/z/35BYHJ30-36A-Fulling-Motor-USA-Bipolar-Stepper-Motor-12VDC-259-mA-7-5-deg-48-Steps_2234476.html?CID=GOOG&amp;gad_source=1&amp;gclid=CjwKCAiAlPu9BhAjEiwA5NDSA3S3xKQSO3o9rV3IAYmnlmhb64g-l5FYRvc8DqAq_hisXs7W4HKWGxoCDoUQAvD_BwE</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF0000FF"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000FF"/>
+        <u/>
+      </rPr>
+      <t>https://www.jameco.com/Jameco/Products/ProdDS/2234476.pdf</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>Jameco</t>
-  </si>
-  <si>
-    <t>42HS40-1704B</t>
-  </si>
-  <si>
-    <t>https://www.jameco.com/z/42HS40-1704B-Jameco-ReliaPro-12-VDC-Two-Phase-Bipolar-Hybrid-Stepper-Motor-1-8-deg-Step-200-Steps_2327183.html</t>
-  </si>
-  <si>
-    <t>https://www.jameco.com/Jameco/Products/ProdDS/2327183.pdf</t>
   </si>
   <si>
     <t>External</t>
@@ -469,7 +494,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -510,9 +535,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Open Sans&quot;"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF333333"/>
       <name val="&quot;Open Sans&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -562,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -599,11 +633,14 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -612,19 +649,19 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1038,21 +1075,21 @@
         <v>26</v>
       </c>
       <c r="B5" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" s="6">
-        <v>13.95</v>
+        <v>2.65</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>27.9</v>
+        <v>7.95</v>
       </c>
       <c r="E5" s="6">
         <v>13.95</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="2"/>
-        <v>27.9</v>
+        <v>41.85</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>27</v>
@@ -1060,17 +1097,17 @@
       <c r="H5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L5" s="15">
-        <v>2327183.0</v>
+        <v>2234476.0</v>
       </c>
       <c r="M5" s="9">
         <v>1.0</v>
@@ -1080,15 +1117,15 @@
       </c>
       <c r="P5" s="12">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5">
         <v>3.0</v>
@@ -1108,22 +1145,22 @@
         <v>1.02</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" s="9">
         <v>3.0</v>
@@ -1131,18 +1168,18 @@
       <c r="N6" s="11">
         <v>45716.0</v>
       </c>
-      <c r="O6" s="16"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="12">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5">
         <v>3.0</v>
@@ -1162,22 +1199,22 @@
         <v>1.26</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M7" s="9">
         <v>3.0</v>
@@ -1185,18 +1222,18 @@
       <c r="N7" s="11">
         <v>45716.0</v>
       </c>
-      <c r="O7" s="16"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="12">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5">
         <v>3.0</v>
@@ -1216,22 +1253,22 @@
         <v>0.42</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="17">
+        <v>50</v>
+      </c>
+      <c r="H8" s="18">
         <v>8.6002027301E11</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="9">
         <v>3.0</v>
@@ -1239,18 +1276,18 @@
       <c r="N8" s="11">
         <v>45716.0</v>
       </c>
-      <c r="O8" s="16"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="12">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>54</v>
+      <c r="A9" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="5">
         <v>9.0</v>
@@ -1270,22 +1307,22 @@
         <v>1.98</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="M9" s="9">
         <v>9.0</v>
@@ -1293,18 +1330,18 @@
       <c r="N9" s="11">
         <v>45716.0</v>
       </c>
-      <c r="O9" s="16"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="12">
         <f t="shared" si="3"/>
         <v>-9</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="20" t="s">
-        <v>61</v>
+      <c r="A10" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="B10" s="5">
         <v>6.0</v>
@@ -1324,22 +1361,22 @@
         <v>1.14</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="9">
         <v>6.0</v>
@@ -1352,12 +1389,12 @@
         <v>-6</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5">
         <v>3.0</v>
@@ -1377,22 +1414,22 @@
         <v>2.52</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="9">
         <v>3.0</v>
@@ -1405,12 +1442,12 @@
         <v>-3</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5">
         <v>3.0</v>
@@ -1430,22 +1467,22 @@
         <v>1.65</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="9">
         <v>3.0</v>
@@ -1453,18 +1490,18 @@
       <c r="N12" s="11">
         <v>45716.0</v>
       </c>
-      <c r="O12" s="16"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="12">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5">
         <v>3.0</v>
@@ -1484,22 +1521,22 @@
         <v>0.75</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="9">
         <v>3.0</v>
@@ -1512,12 +1549,12 @@
         <v>-3</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5">
         <v>6.0</v>
@@ -1537,22 +1574,22 @@
         <v>1.56</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="9">
         <v>3.0</v>
@@ -1565,12 +1602,12 @@
         <v>-6</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="20" t="s">
-        <v>91</v>
+      <c r="A15" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="B15" s="5">
         <v>6.0</v>
@@ -1590,22 +1627,22 @@
         <v>2.64</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M15" s="9">
         <v>6.0</v>
@@ -1618,12 +1655,12 @@
         <v>-6</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>98</v>
+      <c r="A16" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="B16" s="5">
         <v>2.0</v>
@@ -1643,22 +1680,22 @@
         <v>2.98</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="21" t="s">
         <v>101</v>
       </c>
+      <c r="J16" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="K16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>102</v>
+        <v>46</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="M16" s="9">
         <v>2.0</v>
@@ -1671,12 +1708,12 @@
         <v>-2</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>103</v>
+      <c r="A17" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="B17" s="5">
         <v>2.0</v>
@@ -1696,22 +1733,22 @@
         <v>1.84</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="17">
+        <v>50</v>
+      </c>
+      <c r="H17" s="18">
         <v>6.94108301002E11</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M17" s="9">
         <v>2.0</v>
@@ -1724,24 +1761,24 @@
         <v>-2</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>108</v>
+      <c r="A18" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="B18" s="5">
         <v>4.0</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="24">
         <v>0.95</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="24">
         <v>0.95</v>
       </c>
       <c r="F18" s="7">
@@ -1749,22 +1786,22 @@
         <v>3.8</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="17">
+        <v>110</v>
+      </c>
+      <c r="H18" s="18">
         <v>7.02460801E8</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M18" s="9">
         <v>4.0</v>
@@ -1777,12 +1814,12 @@
         <v>-4</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>114</v>
+      <c r="A19" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="B19" s="5">
         <v>3.0</v>
@@ -1802,22 +1839,22 @@
         <v>1.74</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="22" t="s">
         <v>116</v>
       </c>
+      <c r="H19" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="I19" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M19" s="9">
         <v>3.0</v>
@@ -1830,12 +1867,12 @@
         <v>-3</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5">
         <v>20.0</v>
@@ -1855,22 +1892,22 @@
         <v>5.8</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="17">
+        <v>123</v>
+      </c>
+      <c r="H20" s="18">
         <v>5011.0</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M20" s="9">
         <v>10.0</v>
@@ -1883,12 +1920,12 @@
         <v>-20</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="20" t="s">
-        <v>127</v>
+      <c r="A21" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="B21" s="5">
         <v>3.0</v>
@@ -1908,22 +1945,22 @@
         <v>5.25</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M21" s="9">
         <v>3.0</v>
@@ -1936,12 +1973,12 @@
         <v>-3</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5">
         <v>2.0</v>
@@ -1961,22 +1998,22 @@
         <v>8.34</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M22" s="9">
         <v>2.0</v>
@@ -1989,12 +2026,12 @@
         <v>-2</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B23" s="5">
         <v>3.0</v>
@@ -2014,22 +2051,22 @@
         <v>3.93</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M23" s="9">
         <v>3.0</v>
@@ -2042,7 +2079,7 @@
         <v>-3</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2051,11 +2088,11 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="N24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="N24" s="27"/>
       <c r="P24" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2067,11 +2104,11 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="N25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="N25" s="27"/>
       <c r="P25" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2083,10 +2120,10 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="N26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="N26" s="27"/>
       <c r="P26" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2098,10 +2135,10 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="N27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="N27" s="27"/>
       <c r="P27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2113,10 +2150,10 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="N28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="N28" s="27"/>
       <c r="P28" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2128,10 +2165,10 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="N29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="N29" s="27"/>
       <c r="P29" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2143,10 +2180,10 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="N30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="N30" s="27"/>
       <c r="P30" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2158,10 +2195,10 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="N31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="N31" s="27"/>
       <c r="P31" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2173,10 +2210,10 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="N32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="N32" s="27"/>
       <c r="P32" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2188,9 +2225,9 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="N33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="N33" s="27"/>
       <c r="P33" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2202,9 +2239,9 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="N34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="N34" s="27"/>
       <c r="P34" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2216,9 +2253,9 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="N35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="N35" s="27"/>
       <c r="P35" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2230,9 +2267,9 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="N36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="N36" s="27"/>
       <c r="P36" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2244,9 +2281,9 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="N37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="N37" s="27"/>
       <c r="P37" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2258,9 +2295,9 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="N38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="N38" s="27"/>
       <c r="P38" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2272,9 +2309,9 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="N39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="N39" s="27"/>
       <c r="P39" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2286,9 +2323,9 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="N40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="N40" s="27"/>
       <c r="P40" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2300,9 +2337,9 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="N41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="N41" s="27"/>
       <c r="P41" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2314,9 +2351,9 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="N42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="N42" s="27"/>
       <c r="P42" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2328,9 +2365,9 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="N43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="N43" s="27"/>
       <c r="P43" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2342,9 +2379,9 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="N44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="N44" s="27"/>
       <c r="P44" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2356,9 +2393,9 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="N45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="N45" s="27"/>
       <c r="P45" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2370,9 +2407,9 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="N46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="N46" s="27"/>
       <c r="P46" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2384,9 +2421,9 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="N47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="N47" s="27"/>
       <c r="P47" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2398,9 +2435,9 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="N48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="N48" s="27"/>
       <c r="P48" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2412,9 +2449,9 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="N49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="N49" s="27"/>
       <c r="P49" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2426,9 +2463,9 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="N50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="N50" s="27"/>
       <c r="P50" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2440,9 +2477,9 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="N51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="N51" s="27"/>
       <c r="P51" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2454,9 +2491,9 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="N52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="N52" s="27"/>
       <c r="P52" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2468,9 +2505,9 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="N53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="N53" s="27"/>
       <c r="P53" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2482,9 +2519,9 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="N54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="N54" s="27"/>
       <c r="P54" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2496,9 +2533,9 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="N55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="N55" s="27"/>
       <c r="P55" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2510,9 +2547,9 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="N56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="N56" s="27"/>
       <c r="P56" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2524,9 +2561,9 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="N57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="N57" s="27"/>
       <c r="P57" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2538,9 +2575,9 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="N58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="N58" s="27"/>
       <c r="P58" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2552,9 +2589,9 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="N59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="N59" s="27"/>
       <c r="P59" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2566,9 +2603,9 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="N60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="N60" s="27"/>
       <c r="P60" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2580,9 +2617,9 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="N61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="N61" s="27"/>
       <c r="P61" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2594,9 +2631,9 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="N62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="N62" s="27"/>
       <c r="P62" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2608,9 +2645,9 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="N63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="N63" s="27"/>
       <c r="P63" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2622,9 +2659,9 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="N64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="N64" s="27"/>
       <c r="P64" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2636,9 +2673,9 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="N65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="N65" s="27"/>
       <c r="P65" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2650,9 +2687,9 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="N66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="N66" s="27"/>
       <c r="P66" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2664,9 +2701,9 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="N67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="N67" s="27"/>
       <c r="P67" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2678,9 +2715,9 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="N68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="N68" s="27"/>
       <c r="P68" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2692,9 +2729,9 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="N69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="N69" s="27"/>
       <c r="P69" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2706,9 +2743,9 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="N70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="N70" s="27"/>
       <c r="P70" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2720,9 +2757,9 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="N71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="N71" s="27"/>
       <c r="P71" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2734,9 +2771,9 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="N72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="N72" s="27"/>
       <c r="P72" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2748,9 +2785,9 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="N73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="N73" s="27"/>
       <c r="P73" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2762,9 +2799,9 @@
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="N74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="N74" s="27"/>
       <c r="P74" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2776,9 +2813,9 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="N75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="N75" s="27"/>
       <c r="P75" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2790,9 +2827,9 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="N76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="N76" s="27"/>
       <c r="P76" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2804,9 +2841,9 @@
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="N77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="N77" s="27"/>
       <c r="P77" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2818,9 +2855,9 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="N78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="N78" s="27"/>
       <c r="P78" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2832,9 +2869,9 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="N79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="N79" s="27"/>
       <c r="P79" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2846,9 +2883,9 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="N80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="N80" s="27"/>
       <c r="P80" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2860,9 +2897,9 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="N81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="N81" s="27"/>
       <c r="P81" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2874,9 +2911,9 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="N82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="N82" s="27"/>
       <c r="P82" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2888,9 +2925,9 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="N83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="N83" s="27"/>
       <c r="P83" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2902,9 +2939,9 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="N84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="N84" s="27"/>
       <c r="P84" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2916,9 +2953,9 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="N85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="N85" s="27"/>
       <c r="P85" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2930,9 +2967,9 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="N86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="N86" s="27"/>
       <c r="P86" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2944,9 +2981,9 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="N87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="N87" s="27"/>
       <c r="P87" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2958,9 +2995,9 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="N88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="N88" s="27"/>
       <c r="P88" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2972,9 +3009,9 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="N89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="N89" s="27"/>
       <c r="P89" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2986,9 +3023,9 @@
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="N90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="N90" s="27"/>
       <c r="P90" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3000,9 +3037,9 @@
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="N91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="N91" s="27"/>
       <c r="P91" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3014,9 +3051,9 @@
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="N92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="N92" s="27"/>
       <c r="P92" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3028,9 +3065,9 @@
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="N93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="N93" s="27"/>
       <c r="P93" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3042,9 +3079,9 @@
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="N94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="N94" s="27"/>
       <c r="P94" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3056,9 +3093,9 @@
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="25"/>
-      <c r="N95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="N95" s="27"/>
       <c r="P95" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3070,9 +3107,9 @@
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="25"/>
-      <c r="N96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="N96" s="27"/>
       <c r="P96" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3084,9 +3121,9 @@
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
-      <c r="N97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="N97" s="27"/>
       <c r="P97" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3098,9 +3135,9 @@
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
-      <c r="N98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="N98" s="27"/>
       <c r="P98" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3112,9 +3149,9 @@
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="N99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="N99" s="27"/>
       <c r="P99" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3126,9 +3163,9 @@
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="N100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="N100" s="27"/>
       <c r="P100" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3140,3609 +3177,3609 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
-      <c r="N101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="N101" s="27"/>
       <c r="P101" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="I107" s="25"/>
-      <c r="J107" s="25"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="I108" s="25"/>
-      <c r="J108" s="25"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="I110" s="25"/>
-      <c r="J110" s="25"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="I111" s="25"/>
-      <c r="J111" s="25"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="I112" s="25"/>
-      <c r="J112" s="25"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="26"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="I116" s="25"/>
-      <c r="J116" s="25"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="26"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="I117" s="25"/>
-      <c r="J117" s="25"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="26"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="I120" s="25"/>
-      <c r="J120" s="25"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="I122" s="25"/>
-      <c r="J122" s="25"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="26"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="I123" s="25"/>
-      <c r="J123" s="25"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="I125" s="25"/>
-      <c r="J125" s="25"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="26"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="I126" s="25"/>
-      <c r="J126" s="25"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="I127" s="25"/>
-      <c r="J127" s="25"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="I128" s="25"/>
-      <c r="J128" s="25"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="I129" s="25"/>
-      <c r="J129" s="25"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="26"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="I131" s="25"/>
-      <c r="J131" s="25"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="I132" s="25"/>
-      <c r="J132" s="25"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="I134" s="25"/>
-      <c r="J134" s="25"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="I135" s="25"/>
-      <c r="J135" s="25"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="I136" s="25"/>
-      <c r="J136" s="25"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="I137" s="25"/>
-      <c r="J137" s="25"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="26"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="I138" s="25"/>
-      <c r="J138" s="25"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="I139" s="25"/>
-      <c r="J139" s="25"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="26"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="I140" s="25"/>
-      <c r="J140" s="25"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="26"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="I141" s="25"/>
-      <c r="J141" s="25"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="26"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="I142" s="25"/>
-      <c r="J142" s="25"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="26"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="I143" s="25"/>
-      <c r="J143" s="25"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="26"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="I144" s="25"/>
-      <c r="J144" s="25"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="26"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="I145" s="25"/>
-      <c r="J145" s="25"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="I146" s="25"/>
-      <c r="J146" s="25"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="26"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="I147" s="25"/>
-      <c r="J147" s="25"/>
+      <c r="I147" s="26"/>
+      <c r="J147" s="26"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="I148" s="25"/>
-      <c r="J148" s="25"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="26"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="I149" s="25"/>
-      <c r="J149" s="25"/>
+      <c r="I149" s="26"/>
+      <c r="J149" s="26"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="I150" s="25"/>
-      <c r="J150" s="25"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="26"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="I151" s="25"/>
-      <c r="J151" s="25"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="26"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="I152" s="25"/>
-      <c r="J152" s="25"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="26"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="I153" s="25"/>
-      <c r="J153" s="25"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="26"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="I154" s="25"/>
-      <c r="J154" s="25"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="I155" s="25"/>
-      <c r="J155" s="25"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="26"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="I156" s="25"/>
-      <c r="J156" s="25"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="26"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="I157" s="25"/>
-      <c r="J157" s="25"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="26"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="I158" s="25"/>
-      <c r="J158" s="25"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="I159" s="25"/>
-      <c r="J159" s="25"/>
+      <c r="I159" s="26"/>
+      <c r="J159" s="26"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="I160" s="25"/>
-      <c r="J160" s="25"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="26"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="I161" s="25"/>
-      <c r="J161" s="25"/>
+      <c r="I161" s="26"/>
+      <c r="J161" s="26"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="I162" s="25"/>
-      <c r="J162" s="25"/>
+      <c r="I162" s="26"/>
+      <c r="J162" s="26"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="I163" s="25"/>
-      <c r="J163" s="25"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="26"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="I164" s="25"/>
-      <c r="J164" s="25"/>
+      <c r="I164" s="26"/>
+      <c r="J164" s="26"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="I165" s="25"/>
-      <c r="J165" s="25"/>
+      <c r="I165" s="26"/>
+      <c r="J165" s="26"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="I166" s="25"/>
-      <c r="J166" s="25"/>
+      <c r="I166" s="26"/>
+      <c r="J166" s="26"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="I167" s="25"/>
-      <c r="J167" s="25"/>
+      <c r="I167" s="26"/>
+      <c r="J167" s="26"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="I168" s="25"/>
-      <c r="J168" s="25"/>
+      <c r="I168" s="26"/>
+      <c r="J168" s="26"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="I169" s="25"/>
-      <c r="J169" s="25"/>
+      <c r="I169" s="26"/>
+      <c r="J169" s="26"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="I170" s="25"/>
-      <c r="J170" s="25"/>
+      <c r="I170" s="26"/>
+      <c r="J170" s="26"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="I171" s="25"/>
-      <c r="J171" s="25"/>
+      <c r="I171" s="26"/>
+      <c r="J171" s="26"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="I172" s="25"/>
-      <c r="J172" s="25"/>
+      <c r="I172" s="26"/>
+      <c r="J172" s="26"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="I173" s="25"/>
-      <c r="J173" s="25"/>
+      <c r="I173" s="26"/>
+      <c r="J173" s="26"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="I174" s="25"/>
-      <c r="J174" s="25"/>
+      <c r="I174" s="26"/>
+      <c r="J174" s="26"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="I175" s="25"/>
-      <c r="J175" s="25"/>
+      <c r="I175" s="26"/>
+      <c r="J175" s="26"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="I176" s="25"/>
-      <c r="J176" s="25"/>
+      <c r="I176" s="26"/>
+      <c r="J176" s="26"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="I177" s="25"/>
-      <c r="J177" s="25"/>
+      <c r="I177" s="26"/>
+      <c r="J177" s="26"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="I178" s="25"/>
-      <c r="J178" s="25"/>
+      <c r="I178" s="26"/>
+      <c r="J178" s="26"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="I179" s="25"/>
-      <c r="J179" s="25"/>
+      <c r="I179" s="26"/>
+      <c r="J179" s="26"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="I180" s="25"/>
-      <c r="J180" s="25"/>
+      <c r="I180" s="26"/>
+      <c r="J180" s="26"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="I181" s="25"/>
-      <c r="J181" s="25"/>
+      <c r="I181" s="26"/>
+      <c r="J181" s="26"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="I182" s="25"/>
-      <c r="J182" s="25"/>
+      <c r="I182" s="26"/>
+      <c r="J182" s="26"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="I183" s="25"/>
-      <c r="J183" s="25"/>
+      <c r="I183" s="26"/>
+      <c r="J183" s="26"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="I184" s="25"/>
-      <c r="J184" s="25"/>
+      <c r="I184" s="26"/>
+      <c r="J184" s="26"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="I185" s="25"/>
-      <c r="J185" s="25"/>
+      <c r="I185" s="26"/>
+      <c r="J185" s="26"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="I186" s="25"/>
-      <c r="J186" s="25"/>
+      <c r="I186" s="26"/>
+      <c r="J186" s="26"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="I187" s="25"/>
-      <c r="J187" s="25"/>
+      <c r="I187" s="26"/>
+      <c r="J187" s="26"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="I188" s="25"/>
-      <c r="J188" s="25"/>
+      <c r="I188" s="26"/>
+      <c r="J188" s="26"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="I189" s="25"/>
-      <c r="J189" s="25"/>
+      <c r="I189" s="26"/>
+      <c r="J189" s="26"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="I190" s="25"/>
-      <c r="J190" s="25"/>
+      <c r="I190" s="26"/>
+      <c r="J190" s="26"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="I191" s="25"/>
-      <c r="J191" s="25"/>
+      <c r="I191" s="26"/>
+      <c r="J191" s="26"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="I192" s="25"/>
-      <c r="J192" s="25"/>
+      <c r="I192" s="26"/>
+      <c r="J192" s="26"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="I193" s="25"/>
-      <c r="J193" s="25"/>
+      <c r="I193" s="26"/>
+      <c r="J193" s="26"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="I194" s="25"/>
-      <c r="J194" s="25"/>
+      <c r="I194" s="26"/>
+      <c r="J194" s="26"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="I195" s="25"/>
-      <c r="J195" s="25"/>
+      <c r="I195" s="26"/>
+      <c r="J195" s="26"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="I196" s="25"/>
-      <c r="J196" s="25"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="26"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="I197" s="25"/>
-      <c r="J197" s="25"/>
+      <c r="I197" s="26"/>
+      <c r="J197" s="26"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="I198" s="25"/>
-      <c r="J198" s="25"/>
+      <c r="I198" s="26"/>
+      <c r="J198" s="26"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="I199" s="25"/>
-      <c r="J199" s="25"/>
+      <c r="I199" s="26"/>
+      <c r="J199" s="26"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="I200" s="25"/>
-      <c r="J200" s="25"/>
+      <c r="I200" s="26"/>
+      <c r="J200" s="26"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="I201" s="25"/>
-      <c r="J201" s="25"/>
+      <c r="I201" s="26"/>
+      <c r="J201" s="26"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="I202" s="25"/>
-      <c r="J202" s="25"/>
+      <c r="I202" s="26"/>
+      <c r="J202" s="26"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="I203" s="25"/>
-      <c r="J203" s="25"/>
+      <c r="I203" s="26"/>
+      <c r="J203" s="26"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="I204" s="25"/>
-      <c r="J204" s="25"/>
+      <c r="I204" s="26"/>
+      <c r="J204" s="26"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="I205" s="25"/>
-      <c r="J205" s="25"/>
+      <c r="I205" s="26"/>
+      <c r="J205" s="26"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="I206" s="25"/>
-      <c r="J206" s="25"/>
+      <c r="I206" s="26"/>
+      <c r="J206" s="26"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="I207" s="25"/>
-      <c r="J207" s="25"/>
+      <c r="I207" s="26"/>
+      <c r="J207" s="26"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="I208" s="25"/>
-      <c r="J208" s="25"/>
+      <c r="I208" s="26"/>
+      <c r="J208" s="26"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="I209" s="25"/>
-      <c r="J209" s="25"/>
+      <c r="I209" s="26"/>
+      <c r="J209" s="26"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="I210" s="25"/>
-      <c r="J210" s="25"/>
+      <c r="I210" s="26"/>
+      <c r="J210" s="26"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="I211" s="25"/>
-      <c r="J211" s="25"/>
+      <c r="I211" s="26"/>
+      <c r="J211" s="26"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="I212" s="25"/>
-      <c r="J212" s="25"/>
+      <c r="I212" s="26"/>
+      <c r="J212" s="26"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="I213" s="25"/>
-      <c r="J213" s="25"/>
+      <c r="I213" s="26"/>
+      <c r="J213" s="26"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="I214" s="25"/>
-      <c r="J214" s="25"/>
+      <c r="I214" s="26"/>
+      <c r="J214" s="26"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="I215" s="25"/>
-      <c r="J215" s="25"/>
+      <c r="I215" s="26"/>
+      <c r="J215" s="26"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="I216" s="25"/>
-      <c r="J216" s="25"/>
+      <c r="I216" s="26"/>
+      <c r="J216" s="26"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="I217" s="25"/>
-      <c r="J217" s="25"/>
+      <c r="I217" s="26"/>
+      <c r="J217" s="26"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="I218" s="25"/>
-      <c r="J218" s="25"/>
+      <c r="I218" s="26"/>
+      <c r="J218" s="26"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="I219" s="25"/>
-      <c r="J219" s="25"/>
+      <c r="I219" s="26"/>
+      <c r="J219" s="26"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="I220" s="25"/>
-      <c r="J220" s="25"/>
+      <c r="I220" s="26"/>
+      <c r="J220" s="26"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="I221" s="25"/>
-      <c r="J221" s="25"/>
+      <c r="I221" s="26"/>
+      <c r="J221" s="26"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="I222" s="25"/>
-      <c r="J222" s="25"/>
+      <c r="I222" s="26"/>
+      <c r="J222" s="26"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="I223" s="25"/>
-      <c r="J223" s="25"/>
+      <c r="I223" s="26"/>
+      <c r="J223" s="26"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="I224" s="25"/>
-      <c r="J224" s="25"/>
+      <c r="I224" s="26"/>
+      <c r="J224" s="26"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="I225" s="25"/>
-      <c r="J225" s="25"/>
+      <c r="I225" s="26"/>
+      <c r="J225" s="26"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="I226" s="25"/>
-      <c r="J226" s="25"/>
+      <c r="I226" s="26"/>
+      <c r="J226" s="26"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="I227" s="25"/>
-      <c r="J227" s="25"/>
+      <c r="I227" s="26"/>
+      <c r="J227" s="26"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="I228" s="25"/>
-      <c r="J228" s="25"/>
+      <c r="I228" s="26"/>
+      <c r="J228" s="26"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="I229" s="25"/>
-      <c r="J229" s="25"/>
+      <c r="I229" s="26"/>
+      <c r="J229" s="26"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="I230" s="25"/>
-      <c r="J230" s="25"/>
+      <c r="I230" s="26"/>
+      <c r="J230" s="26"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="I231" s="25"/>
-      <c r="J231" s="25"/>
+      <c r="I231" s="26"/>
+      <c r="J231" s="26"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="I232" s="25"/>
-      <c r="J232" s="25"/>
+      <c r="I232" s="26"/>
+      <c r="J232" s="26"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="I233" s="25"/>
-      <c r="J233" s="25"/>
+      <c r="I233" s="26"/>
+      <c r="J233" s="26"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="I234" s="25"/>
-      <c r="J234" s="25"/>
+      <c r="I234" s="26"/>
+      <c r="J234" s="26"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="I235" s="25"/>
-      <c r="J235" s="25"/>
+      <c r="I235" s="26"/>
+      <c r="J235" s="26"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="I236" s="25"/>
-      <c r="J236" s="25"/>
+      <c r="I236" s="26"/>
+      <c r="J236" s="26"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="I237" s="25"/>
-      <c r="J237" s="25"/>
+      <c r="I237" s="26"/>
+      <c r="J237" s="26"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="I238" s="25"/>
-      <c r="J238" s="25"/>
+      <c r="I238" s="26"/>
+      <c r="J238" s="26"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="I239" s="25"/>
-      <c r="J239" s="25"/>
+      <c r="I239" s="26"/>
+      <c r="J239" s="26"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="I240" s="25"/>
-      <c r="J240" s="25"/>
+      <c r="I240" s="26"/>
+      <c r="J240" s="26"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="I241" s="25"/>
-      <c r="J241" s="25"/>
+      <c r="I241" s="26"/>
+      <c r="J241" s="26"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="I242" s="25"/>
-      <c r="J242" s="25"/>
+      <c r="I242" s="26"/>
+      <c r="J242" s="26"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="I243" s="25"/>
-      <c r="J243" s="25"/>
+      <c r="I243" s="26"/>
+      <c r="J243" s="26"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="I244" s="25"/>
-      <c r="J244" s="25"/>
+      <c r="I244" s="26"/>
+      <c r="J244" s="26"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="I245" s="25"/>
-      <c r="J245" s="25"/>
+      <c r="I245" s="26"/>
+      <c r="J245" s="26"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="I246" s="25"/>
-      <c r="J246" s="25"/>
+      <c r="I246" s="26"/>
+      <c r="J246" s="26"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="I247" s="25"/>
-      <c r="J247" s="25"/>
+      <c r="I247" s="26"/>
+      <c r="J247" s="26"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="I248" s="25"/>
-      <c r="J248" s="25"/>
+      <c r="I248" s="26"/>
+      <c r="J248" s="26"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="I249" s="25"/>
-      <c r="J249" s="25"/>
+      <c r="I249" s="26"/>
+      <c r="J249" s="26"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="I250" s="25"/>
-      <c r="J250" s="25"/>
+      <c r="I250" s="26"/>
+      <c r="J250" s="26"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="I251" s="25"/>
-      <c r="J251" s="25"/>
+      <c r="I251" s="26"/>
+      <c r="J251" s="26"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="I252" s="25"/>
-      <c r="J252" s="25"/>
+      <c r="I252" s="26"/>
+      <c r="J252" s="26"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="I253" s="25"/>
-      <c r="J253" s="25"/>
+      <c r="I253" s="26"/>
+      <c r="J253" s="26"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="I254" s="25"/>
-      <c r="J254" s="25"/>
+      <c r="I254" s="26"/>
+      <c r="J254" s="26"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="I255" s="25"/>
-      <c r="J255" s="25"/>
+      <c r="I255" s="26"/>
+      <c r="J255" s="26"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="I256" s="25"/>
-      <c r="J256" s="25"/>
+      <c r="I256" s="26"/>
+      <c r="J256" s="26"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="I257" s="25"/>
-      <c r="J257" s="25"/>
+      <c r="I257" s="26"/>
+      <c r="J257" s="26"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="I258" s="25"/>
-      <c r="J258" s="25"/>
+      <c r="I258" s="26"/>
+      <c r="J258" s="26"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="I259" s="25"/>
-      <c r="J259" s="25"/>
+      <c r="I259" s="26"/>
+      <c r="J259" s="26"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="I260" s="25"/>
-      <c r="J260" s="25"/>
+      <c r="I260" s="26"/>
+      <c r="J260" s="26"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="I261" s="25"/>
-      <c r="J261" s="25"/>
+      <c r="I261" s="26"/>
+      <c r="J261" s="26"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="I262" s="25"/>
-      <c r="J262" s="25"/>
+      <c r="I262" s="26"/>
+      <c r="J262" s="26"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="I263" s="25"/>
-      <c r="J263" s="25"/>
+      <c r="I263" s="26"/>
+      <c r="J263" s="26"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="I264" s="25"/>
-      <c r="J264" s="25"/>
+      <c r="I264" s="26"/>
+      <c r="J264" s="26"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="I265" s="25"/>
-      <c r="J265" s="25"/>
+      <c r="I265" s="26"/>
+      <c r="J265" s="26"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="I266" s="25"/>
-      <c r="J266" s="25"/>
+      <c r="I266" s="26"/>
+      <c r="J266" s="26"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="I267" s="25"/>
-      <c r="J267" s="25"/>
+      <c r="I267" s="26"/>
+      <c r="J267" s="26"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="I268" s="25"/>
-      <c r="J268" s="25"/>
+      <c r="I268" s="26"/>
+      <c r="J268" s="26"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="I269" s="25"/>
-      <c r="J269" s="25"/>
+      <c r="I269" s="26"/>
+      <c r="J269" s="26"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="I270" s="25"/>
-      <c r="J270" s="25"/>
+      <c r="I270" s="26"/>
+      <c r="J270" s="26"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="I271" s="25"/>
-      <c r="J271" s="25"/>
+      <c r="I271" s="26"/>
+      <c r="J271" s="26"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="I272" s="25"/>
-      <c r="J272" s="25"/>
+      <c r="I272" s="26"/>
+      <c r="J272" s="26"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="I273" s="25"/>
-      <c r="J273" s="25"/>
+      <c r="I273" s="26"/>
+      <c r="J273" s="26"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="I274" s="25"/>
-      <c r="J274" s="25"/>
+      <c r="I274" s="26"/>
+      <c r="J274" s="26"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="I275" s="25"/>
-      <c r="J275" s="25"/>
+      <c r="I275" s="26"/>
+      <c r="J275" s="26"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="I276" s="25"/>
-      <c r="J276" s="25"/>
+      <c r="I276" s="26"/>
+      <c r="J276" s="26"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="I277" s="25"/>
-      <c r="J277" s="25"/>
+      <c r="I277" s="26"/>
+      <c r="J277" s="26"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="I278" s="25"/>
-      <c r="J278" s="25"/>
+      <c r="I278" s="26"/>
+      <c r="J278" s="26"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="I279" s="25"/>
-      <c r="J279" s="25"/>
+      <c r="I279" s="26"/>
+      <c r="J279" s="26"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="I280" s="25"/>
-      <c r="J280" s="25"/>
+      <c r="I280" s="26"/>
+      <c r="J280" s="26"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="I281" s="25"/>
-      <c r="J281" s="25"/>
+      <c r="I281" s="26"/>
+      <c r="J281" s="26"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="I282" s="25"/>
-      <c r="J282" s="25"/>
+      <c r="I282" s="26"/>
+      <c r="J282" s="26"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="I283" s="25"/>
-      <c r="J283" s="25"/>
+      <c r="I283" s="26"/>
+      <c r="J283" s="26"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="I284" s="25"/>
-      <c r="J284" s="25"/>
+      <c r="I284" s="26"/>
+      <c r="J284" s="26"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="I285" s="25"/>
-      <c r="J285" s="25"/>
+      <c r="I285" s="26"/>
+      <c r="J285" s="26"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="I286" s="25"/>
-      <c r="J286" s="25"/>
+      <c r="I286" s="26"/>
+      <c r="J286" s="26"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="I287" s="25"/>
-      <c r="J287" s="25"/>
+      <c r="I287" s="26"/>
+      <c r="J287" s="26"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="I288" s="25"/>
-      <c r="J288" s="25"/>
+      <c r="I288" s="26"/>
+      <c r="J288" s="26"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="I289" s="25"/>
-      <c r="J289" s="25"/>
+      <c r="I289" s="26"/>
+      <c r="J289" s="26"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="I290" s="25"/>
-      <c r="J290" s="25"/>
+      <c r="I290" s="26"/>
+      <c r="J290" s="26"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="I291" s="25"/>
-      <c r="J291" s="25"/>
+      <c r="I291" s="26"/>
+      <c r="J291" s="26"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="I292" s="25"/>
-      <c r="J292" s="25"/>
+      <c r="I292" s="26"/>
+      <c r="J292" s="26"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="I293" s="25"/>
-      <c r="J293" s="25"/>
+      <c r="I293" s="26"/>
+      <c r="J293" s="26"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="I294" s="25"/>
-      <c r="J294" s="25"/>
+      <c r="I294" s="26"/>
+      <c r="J294" s="26"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="I295" s="25"/>
-      <c r="J295" s="25"/>
+      <c r="I295" s="26"/>
+      <c r="J295" s="26"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="I296" s="25"/>
-      <c r="J296" s="25"/>
+      <c r="I296" s="26"/>
+      <c r="J296" s="26"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="I297" s="25"/>
-      <c r="J297" s="25"/>
+      <c r="I297" s="26"/>
+      <c r="J297" s="26"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="I298" s="25"/>
-      <c r="J298" s="25"/>
+      <c r="I298" s="26"/>
+      <c r="J298" s="26"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="I299" s="25"/>
-      <c r="J299" s="25"/>
+      <c r="I299" s="26"/>
+      <c r="J299" s="26"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="I300" s="25"/>
-      <c r="J300" s="25"/>
+      <c r="I300" s="26"/>
+      <c r="J300" s="26"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="I301" s="25"/>
-      <c r="J301" s="25"/>
+      <c r="I301" s="26"/>
+      <c r="J301" s="26"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="I302" s="25"/>
-      <c r="J302" s="25"/>
+      <c r="I302" s="26"/>
+      <c r="J302" s="26"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="I303" s="25"/>
-      <c r="J303" s="25"/>
+      <c r="I303" s="26"/>
+      <c r="J303" s="26"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="I304" s="25"/>
-      <c r="J304" s="25"/>
+      <c r="I304" s="26"/>
+      <c r="J304" s="26"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="I305" s="25"/>
-      <c r="J305" s="25"/>
+      <c r="I305" s="26"/>
+      <c r="J305" s="26"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="I306" s="25"/>
-      <c r="J306" s="25"/>
+      <c r="I306" s="26"/>
+      <c r="J306" s="26"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="I307" s="25"/>
-      <c r="J307" s="25"/>
+      <c r="I307" s="26"/>
+      <c r="J307" s="26"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="I308" s="25"/>
-      <c r="J308" s="25"/>
+      <c r="I308" s="26"/>
+      <c r="J308" s="26"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="I309" s="25"/>
-      <c r="J309" s="25"/>
+      <c r="I309" s="26"/>
+      <c r="J309" s="26"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="I310" s="25"/>
-      <c r="J310" s="25"/>
+      <c r="I310" s="26"/>
+      <c r="J310" s="26"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="I311" s="25"/>
-      <c r="J311" s="25"/>
+      <c r="I311" s="26"/>
+      <c r="J311" s="26"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="I312" s="25"/>
-      <c r="J312" s="25"/>
+      <c r="I312" s="26"/>
+      <c r="J312" s="26"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="I313" s="25"/>
-      <c r="J313" s="25"/>
+      <c r="I313" s="26"/>
+      <c r="J313" s="26"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="I314" s="25"/>
-      <c r="J314" s="25"/>
+      <c r="I314" s="26"/>
+      <c r="J314" s="26"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="I315" s="25"/>
-      <c r="J315" s="25"/>
+      <c r="I315" s="26"/>
+      <c r="J315" s="26"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="I316" s="25"/>
-      <c r="J316" s="25"/>
+      <c r="I316" s="26"/>
+      <c r="J316" s="26"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="I317" s="25"/>
-      <c r="J317" s="25"/>
+      <c r="I317" s="26"/>
+      <c r="J317" s="26"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="I318" s="25"/>
-      <c r="J318" s="25"/>
+      <c r="I318" s="26"/>
+      <c r="J318" s="26"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="I319" s="25"/>
-      <c r="J319" s="25"/>
+      <c r="I319" s="26"/>
+      <c r="J319" s="26"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="I320" s="25"/>
-      <c r="J320" s="25"/>
+      <c r="I320" s="26"/>
+      <c r="J320" s="26"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="I321" s="25"/>
-      <c r="J321" s="25"/>
+      <c r="I321" s="26"/>
+      <c r="J321" s="26"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="I322" s="25"/>
-      <c r="J322" s="25"/>
+      <c r="I322" s="26"/>
+      <c r="J322" s="26"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="I323" s="25"/>
-      <c r="J323" s="25"/>
+      <c r="I323" s="26"/>
+      <c r="J323" s="26"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="I324" s="25"/>
-      <c r="J324" s="25"/>
+      <c r="I324" s="26"/>
+      <c r="J324" s="26"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="I325" s="25"/>
-      <c r="J325" s="25"/>
+      <c r="I325" s="26"/>
+      <c r="J325" s="26"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="I326" s="25"/>
-      <c r="J326" s="25"/>
+      <c r="I326" s="26"/>
+      <c r="J326" s="26"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="I327" s="25"/>
-      <c r="J327" s="25"/>
+      <c r="I327" s="26"/>
+      <c r="J327" s="26"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="I328" s="25"/>
-      <c r="J328" s="25"/>
+      <c r="I328" s="26"/>
+      <c r="J328" s="26"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="I329" s="25"/>
-      <c r="J329" s="25"/>
+      <c r="I329" s="26"/>
+      <c r="J329" s="26"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="I330" s="25"/>
-      <c r="J330" s="25"/>
+      <c r="I330" s="26"/>
+      <c r="J330" s="26"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="I331" s="25"/>
-      <c r="J331" s="25"/>
+      <c r="I331" s="26"/>
+      <c r="J331" s="26"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="I332" s="25"/>
-      <c r="J332" s="25"/>
+      <c r="I332" s="26"/>
+      <c r="J332" s="26"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="I333" s="25"/>
-      <c r="J333" s="25"/>
+      <c r="I333" s="26"/>
+      <c r="J333" s="26"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="I334" s="25"/>
-      <c r="J334" s="25"/>
+      <c r="I334" s="26"/>
+      <c r="J334" s="26"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="I335" s="25"/>
-      <c r="J335" s="25"/>
+      <c r="I335" s="26"/>
+      <c r="J335" s="26"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="I336" s="25"/>
-      <c r="J336" s="25"/>
+      <c r="I336" s="26"/>
+      <c r="J336" s="26"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="I337" s="25"/>
-      <c r="J337" s="25"/>
+      <c r="I337" s="26"/>
+      <c r="J337" s="26"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="I338" s="25"/>
-      <c r="J338" s="25"/>
+      <c r="I338" s="26"/>
+      <c r="J338" s="26"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="I339" s="25"/>
-      <c r="J339" s="25"/>
+      <c r="I339" s="26"/>
+      <c r="J339" s="26"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="I340" s="25"/>
-      <c r="J340" s="25"/>
+      <c r="I340" s="26"/>
+      <c r="J340" s="26"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="I341" s="25"/>
-      <c r="J341" s="25"/>
+      <c r="I341" s="26"/>
+      <c r="J341" s="26"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="I342" s="25"/>
-      <c r="J342" s="25"/>
+      <c r="I342" s="26"/>
+      <c r="J342" s="26"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="I343" s="25"/>
-      <c r="J343" s="25"/>
+      <c r="I343" s="26"/>
+      <c r="J343" s="26"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="I344" s="25"/>
-      <c r="J344" s="25"/>
+      <c r="I344" s="26"/>
+      <c r="J344" s="26"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="I345" s="25"/>
-      <c r="J345" s="25"/>
+      <c r="I345" s="26"/>
+      <c r="J345" s="26"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="I346" s="25"/>
-      <c r="J346" s="25"/>
+      <c r="I346" s="26"/>
+      <c r="J346" s="26"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="I347" s="25"/>
-      <c r="J347" s="25"/>
+      <c r="I347" s="26"/>
+      <c r="J347" s="26"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="I348" s="25"/>
-      <c r="J348" s="25"/>
+      <c r="I348" s="26"/>
+      <c r="J348" s="26"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="I349" s="25"/>
-      <c r="J349" s="25"/>
+      <c r="I349" s="26"/>
+      <c r="J349" s="26"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="I350" s="25"/>
-      <c r="J350" s="25"/>
+      <c r="I350" s="26"/>
+      <c r="J350" s="26"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="I351" s="25"/>
-      <c r="J351" s="25"/>
+      <c r="I351" s="26"/>
+      <c r="J351" s="26"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="I352" s="25"/>
-      <c r="J352" s="25"/>
+      <c r="I352" s="26"/>
+      <c r="J352" s="26"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="I353" s="25"/>
-      <c r="J353" s="25"/>
+      <c r="I353" s="26"/>
+      <c r="J353" s="26"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="I354" s="25"/>
-      <c r="J354" s="25"/>
+      <c r="I354" s="26"/>
+      <c r="J354" s="26"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="I355" s="25"/>
-      <c r="J355" s="25"/>
+      <c r="I355" s="26"/>
+      <c r="J355" s="26"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="I356" s="25"/>
-      <c r="J356" s="25"/>
+      <c r="I356" s="26"/>
+      <c r="J356" s="26"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="I357" s="25"/>
-      <c r="J357" s="25"/>
+      <c r="I357" s="26"/>
+      <c r="J357" s="26"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="I358" s="25"/>
-      <c r="J358" s="25"/>
+      <c r="I358" s="26"/>
+      <c r="J358" s="26"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="I359" s="25"/>
-      <c r="J359" s="25"/>
+      <c r="I359" s="26"/>
+      <c r="J359" s="26"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="I360" s="25"/>
-      <c r="J360" s="25"/>
+      <c r="I360" s="26"/>
+      <c r="J360" s="26"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="I361" s="25"/>
-      <c r="J361" s="25"/>
+      <c r="I361" s="26"/>
+      <c r="J361" s="26"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="I362" s="25"/>
-      <c r="J362" s="25"/>
+      <c r="I362" s="26"/>
+      <c r="J362" s="26"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="I363" s="25"/>
-      <c r="J363" s="25"/>
+      <c r="I363" s="26"/>
+      <c r="J363" s="26"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="I364" s="25"/>
-      <c r="J364" s="25"/>
+      <c r="I364" s="26"/>
+      <c r="J364" s="26"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="I365" s="25"/>
-      <c r="J365" s="25"/>
+      <c r="I365" s="26"/>
+      <c r="J365" s="26"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="I366" s="25"/>
-      <c r="J366" s="25"/>
+      <c r="I366" s="26"/>
+      <c r="J366" s="26"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="I367" s="25"/>
-      <c r="J367" s="25"/>
+      <c r="I367" s="26"/>
+      <c r="J367" s="26"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="I368" s="25"/>
-      <c r="J368" s="25"/>
+      <c r="I368" s="26"/>
+      <c r="J368" s="26"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="I369" s="25"/>
-      <c r="J369" s="25"/>
+      <c r="I369" s="26"/>
+      <c r="J369" s="26"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="I370" s="25"/>
-      <c r="J370" s="25"/>
+      <c r="I370" s="26"/>
+      <c r="J370" s="26"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="I371" s="25"/>
-      <c r="J371" s="25"/>
+      <c r="I371" s="26"/>
+      <c r="J371" s="26"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="I372" s="25"/>
-      <c r="J372" s="25"/>
+      <c r="I372" s="26"/>
+      <c r="J372" s="26"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="I373" s="25"/>
-      <c r="J373" s="25"/>
+      <c r="I373" s="26"/>
+      <c r="J373" s="26"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="I374" s="25"/>
-      <c r="J374" s="25"/>
+      <c r="I374" s="26"/>
+      <c r="J374" s="26"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="I375" s="25"/>
-      <c r="J375" s="25"/>
+      <c r="I375" s="26"/>
+      <c r="J375" s="26"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="I376" s="25"/>
-      <c r="J376" s="25"/>
+      <c r="I376" s="26"/>
+      <c r="J376" s="26"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="I377" s="25"/>
-      <c r="J377" s="25"/>
+      <c r="I377" s="26"/>
+      <c r="J377" s="26"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="I378" s="25"/>
-      <c r="J378" s="25"/>
+      <c r="I378" s="26"/>
+      <c r="J378" s="26"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="I379" s="25"/>
-      <c r="J379" s="25"/>
+      <c r="I379" s="26"/>
+      <c r="J379" s="26"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="I380" s="25"/>
-      <c r="J380" s="25"/>
+      <c r="I380" s="26"/>
+      <c r="J380" s="26"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="I381" s="25"/>
-      <c r="J381" s="25"/>
+      <c r="I381" s="26"/>
+      <c r="J381" s="26"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="I382" s="25"/>
-      <c r="J382" s="25"/>
+      <c r="I382" s="26"/>
+      <c r="J382" s="26"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="I383" s="25"/>
-      <c r="J383" s="25"/>
+      <c r="I383" s="26"/>
+      <c r="J383" s="26"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="I384" s="25"/>
-      <c r="J384" s="25"/>
+      <c r="I384" s="26"/>
+      <c r="J384" s="26"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="I385" s="25"/>
-      <c r="J385" s="25"/>
+      <c r="I385" s="26"/>
+      <c r="J385" s="26"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="I386" s="25"/>
-      <c r="J386" s="25"/>
+      <c r="I386" s="26"/>
+      <c r="J386" s="26"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="I387" s="25"/>
-      <c r="J387" s="25"/>
+      <c r="I387" s="26"/>
+      <c r="J387" s="26"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="I388" s="25"/>
-      <c r="J388" s="25"/>
+      <c r="I388" s="26"/>
+      <c r="J388" s="26"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="I389" s="25"/>
-      <c r="J389" s="25"/>
+      <c r="I389" s="26"/>
+      <c r="J389" s="26"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="I390" s="25"/>
-      <c r="J390" s="25"/>
+      <c r="I390" s="26"/>
+      <c r="J390" s="26"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="I391" s="25"/>
-      <c r="J391" s="25"/>
+      <c r="I391" s="26"/>
+      <c r="J391" s="26"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="I392" s="25"/>
-      <c r="J392" s="25"/>
+      <c r="I392" s="26"/>
+      <c r="J392" s="26"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="I393" s="25"/>
-      <c r="J393" s="25"/>
+      <c r="I393" s="26"/>
+      <c r="J393" s="26"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="I394" s="25"/>
-      <c r="J394" s="25"/>
+      <c r="I394" s="26"/>
+      <c r="J394" s="26"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="I395" s="25"/>
-      <c r="J395" s="25"/>
+      <c r="I395" s="26"/>
+      <c r="J395" s="26"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="I396" s="25"/>
-      <c r="J396" s="25"/>
+      <c r="I396" s="26"/>
+      <c r="J396" s="26"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="I397" s="25"/>
-      <c r="J397" s="25"/>
+      <c r="I397" s="26"/>
+      <c r="J397" s="26"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="I398" s="25"/>
-      <c r="J398" s="25"/>
+      <c r="I398" s="26"/>
+      <c r="J398" s="26"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="I399" s="25"/>
-      <c r="J399" s="25"/>
+      <c r="I399" s="26"/>
+      <c r="J399" s="26"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="I400" s="25"/>
-      <c r="J400" s="25"/>
+      <c r="I400" s="26"/>
+      <c r="J400" s="26"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="I401" s="25"/>
-      <c r="J401" s="25"/>
+      <c r="I401" s="26"/>
+      <c r="J401" s="26"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="I402" s="25"/>
-      <c r="J402" s="25"/>
+      <c r="I402" s="26"/>
+      <c r="J402" s="26"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="I403" s="25"/>
-      <c r="J403" s="25"/>
+      <c r="I403" s="26"/>
+      <c r="J403" s="26"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="I404" s="25"/>
-      <c r="J404" s="25"/>
+      <c r="I404" s="26"/>
+      <c r="J404" s="26"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="I405" s="25"/>
-      <c r="J405" s="25"/>
+      <c r="I405" s="26"/>
+      <c r="J405" s="26"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="I406" s="25"/>
-      <c r="J406" s="25"/>
+      <c r="I406" s="26"/>
+      <c r="J406" s="26"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="I407" s="25"/>
-      <c r="J407" s="25"/>
+      <c r="I407" s="26"/>
+      <c r="J407" s="26"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="I408" s="25"/>
-      <c r="J408" s="25"/>
+      <c r="I408" s="26"/>
+      <c r="J408" s="26"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="I409" s="25"/>
-      <c r="J409" s="25"/>
+      <c r="I409" s="26"/>
+      <c r="J409" s="26"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="I410" s="25"/>
-      <c r="J410" s="25"/>
+      <c r="I410" s="26"/>
+      <c r="J410" s="26"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="I411" s="25"/>
-      <c r="J411" s="25"/>
+      <c r="I411" s="26"/>
+      <c r="J411" s="26"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="I412" s="25"/>
-      <c r="J412" s="25"/>
+      <c r="I412" s="26"/>
+      <c r="J412" s="26"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="I413" s="25"/>
-      <c r="J413" s="25"/>
+      <c r="I413" s="26"/>
+      <c r="J413" s="26"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="I414" s="25"/>
-      <c r="J414" s="25"/>
+      <c r="I414" s="26"/>
+      <c r="J414" s="26"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="I415" s="25"/>
-      <c r="J415" s="25"/>
+      <c r="I415" s="26"/>
+      <c r="J415" s="26"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="I416" s="25"/>
-      <c r="J416" s="25"/>
+      <c r="I416" s="26"/>
+      <c r="J416" s="26"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="I417" s="25"/>
-      <c r="J417" s="25"/>
+      <c r="I417" s="26"/>
+      <c r="J417" s="26"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="I418" s="25"/>
-      <c r="J418" s="25"/>
+      <c r="I418" s="26"/>
+      <c r="J418" s="26"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="I419" s="25"/>
-      <c r="J419" s="25"/>
+      <c r="I419" s="26"/>
+      <c r="J419" s="26"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="I420" s="25"/>
-      <c r="J420" s="25"/>
+      <c r="I420" s="26"/>
+      <c r="J420" s="26"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="I421" s="25"/>
-      <c r="J421" s="25"/>
+      <c r="I421" s="26"/>
+      <c r="J421" s="26"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="I422" s="25"/>
-      <c r="J422" s="25"/>
+      <c r="I422" s="26"/>
+      <c r="J422" s="26"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="I423" s="25"/>
-      <c r="J423" s="25"/>
+      <c r="I423" s="26"/>
+      <c r="J423" s="26"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="I424" s="25"/>
-      <c r="J424" s="25"/>
+      <c r="I424" s="26"/>
+      <c r="J424" s="26"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="I425" s="25"/>
-      <c r="J425" s="25"/>
+      <c r="I425" s="26"/>
+      <c r="J425" s="26"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="I426" s="25"/>
-      <c r="J426" s="25"/>
+      <c r="I426" s="26"/>
+      <c r="J426" s="26"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="I427" s="25"/>
-      <c r="J427" s="25"/>
+      <c r="I427" s="26"/>
+      <c r="J427" s="26"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="I428" s="25"/>
-      <c r="J428" s="25"/>
+      <c r="I428" s="26"/>
+      <c r="J428" s="26"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="I429" s="25"/>
-      <c r="J429" s="25"/>
+      <c r="I429" s="26"/>
+      <c r="J429" s="26"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="I430" s="25"/>
-      <c r="J430" s="25"/>
+      <c r="I430" s="26"/>
+      <c r="J430" s="26"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="I431" s="25"/>
-      <c r="J431" s="25"/>
+      <c r="I431" s="26"/>
+      <c r="J431" s="26"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="I432" s="25"/>
-      <c r="J432" s="25"/>
+      <c r="I432" s="26"/>
+      <c r="J432" s="26"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="I433" s="25"/>
-      <c r="J433" s="25"/>
+      <c r="I433" s="26"/>
+      <c r="J433" s="26"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="I434" s="25"/>
-      <c r="J434" s="25"/>
+      <c r="I434" s="26"/>
+      <c r="J434" s="26"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="I435" s="25"/>
-      <c r="J435" s="25"/>
+      <c r="I435" s="26"/>
+      <c r="J435" s="26"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="I436" s="25"/>
-      <c r="J436" s="25"/>
+      <c r="I436" s="26"/>
+      <c r="J436" s="26"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="I437" s="25"/>
-      <c r="J437" s="25"/>
+      <c r="I437" s="26"/>
+      <c r="J437" s="26"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="I438" s="25"/>
-      <c r="J438" s="25"/>
+      <c r="I438" s="26"/>
+      <c r="J438" s="26"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="I439" s="25"/>
-      <c r="J439" s="25"/>
+      <c r="I439" s="26"/>
+      <c r="J439" s="26"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="I440" s="25"/>
-      <c r="J440" s="25"/>
+      <c r="I440" s="26"/>
+      <c r="J440" s="26"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="I441" s="25"/>
-      <c r="J441" s="25"/>
+      <c r="I441" s="26"/>
+      <c r="J441" s="26"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="I442" s="25"/>
-      <c r="J442" s="25"/>
+      <c r="I442" s="26"/>
+      <c r="J442" s="26"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="I443" s="25"/>
-      <c r="J443" s="25"/>
+      <c r="I443" s="26"/>
+      <c r="J443" s="26"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="I444" s="25"/>
-      <c r="J444" s="25"/>
+      <c r="I444" s="26"/>
+      <c r="J444" s="26"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="I445" s="25"/>
-      <c r="J445" s="25"/>
+      <c r="I445" s="26"/>
+      <c r="J445" s="26"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="I446" s="25"/>
-      <c r="J446" s="25"/>
+      <c r="I446" s="26"/>
+      <c r="J446" s="26"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="I447" s="25"/>
-      <c r="J447" s="25"/>
+      <c r="I447" s="26"/>
+      <c r="J447" s="26"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="I448" s="25"/>
-      <c r="J448" s="25"/>
+      <c r="I448" s="26"/>
+      <c r="J448" s="26"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="I449" s="25"/>
-      <c r="J449" s="25"/>
+      <c r="I449" s="26"/>
+      <c r="J449" s="26"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="I450" s="25"/>
-      <c r="J450" s="25"/>
+      <c r="I450" s="26"/>
+      <c r="J450" s="26"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="I451" s="25"/>
-      <c r="J451" s="25"/>
+      <c r="I451" s="26"/>
+      <c r="J451" s="26"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="I452" s="25"/>
-      <c r="J452" s="25"/>
+      <c r="I452" s="26"/>
+      <c r="J452" s="26"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="I453" s="25"/>
-      <c r="J453" s="25"/>
+      <c r="I453" s="26"/>
+      <c r="J453" s="26"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="I454" s="25"/>
-      <c r="J454" s="25"/>
+      <c r="I454" s="26"/>
+      <c r="J454" s="26"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="I455" s="25"/>
-      <c r="J455" s="25"/>
+      <c r="I455" s="26"/>
+      <c r="J455" s="26"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="I456" s="25"/>
-      <c r="J456" s="25"/>
+      <c r="I456" s="26"/>
+      <c r="J456" s="26"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="I457" s="25"/>
-      <c r="J457" s="25"/>
+      <c r="I457" s="26"/>
+      <c r="J457" s="26"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="I458" s="25"/>
-      <c r="J458" s="25"/>
+      <c r="I458" s="26"/>
+      <c r="J458" s="26"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="I459" s="25"/>
-      <c r="J459" s="25"/>
+      <c r="I459" s="26"/>
+      <c r="J459" s="26"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="I460" s="25"/>
-      <c r="J460" s="25"/>
+      <c r="I460" s="26"/>
+      <c r="J460" s="26"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="I461" s="25"/>
-      <c r="J461" s="25"/>
+      <c r="I461" s="26"/>
+      <c r="J461" s="26"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="I462" s="25"/>
-      <c r="J462" s="25"/>
+      <c r="I462" s="26"/>
+      <c r="J462" s="26"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="I463" s="25"/>
-      <c r="J463" s="25"/>
+      <c r="I463" s="26"/>
+      <c r="J463" s="26"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="I464" s="25"/>
-      <c r="J464" s="25"/>
+      <c r="I464" s="26"/>
+      <c r="J464" s="26"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="I465" s="25"/>
-      <c r="J465" s="25"/>
+      <c r="I465" s="26"/>
+      <c r="J465" s="26"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="I466" s="25"/>
-      <c r="J466" s="25"/>
+      <c r="I466" s="26"/>
+      <c r="J466" s="26"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="I467" s="25"/>
-      <c r="J467" s="25"/>
+      <c r="I467" s="26"/>
+      <c r="J467" s="26"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="I468" s="25"/>
-      <c r="J468" s="25"/>
+      <c r="I468" s="26"/>
+      <c r="J468" s="26"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="I469" s="25"/>
-      <c r="J469" s="25"/>
+      <c r="I469" s="26"/>
+      <c r="J469" s="26"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="I470" s="25"/>
-      <c r="J470" s="25"/>
+      <c r="I470" s="26"/>
+      <c r="J470" s="26"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="I471" s="25"/>
-      <c r="J471" s="25"/>
+      <c r="I471" s="26"/>
+      <c r="J471" s="26"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="I472" s="25"/>
-      <c r="J472" s="25"/>
+      <c r="I472" s="26"/>
+      <c r="J472" s="26"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="I473" s="25"/>
-      <c r="J473" s="25"/>
+      <c r="I473" s="26"/>
+      <c r="J473" s="26"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="I474" s="25"/>
-      <c r="J474" s="25"/>
+      <c r="I474" s="26"/>
+      <c r="J474" s="26"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="I475" s="25"/>
-      <c r="J475" s="25"/>
+      <c r="I475" s="26"/>
+      <c r="J475" s="26"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="I476" s="25"/>
-      <c r="J476" s="25"/>
+      <c r="I476" s="26"/>
+      <c r="J476" s="26"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="I477" s="25"/>
-      <c r="J477" s="25"/>
+      <c r="I477" s="26"/>
+      <c r="J477" s="26"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="I478" s="25"/>
-      <c r="J478" s="25"/>
+      <c r="I478" s="26"/>
+      <c r="J478" s="26"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="I479" s="25"/>
-      <c r="J479" s="25"/>
+      <c r="I479" s="26"/>
+      <c r="J479" s="26"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="I480" s="25"/>
-      <c r="J480" s="25"/>
+      <c r="I480" s="26"/>
+      <c r="J480" s="26"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="I481" s="25"/>
-      <c r="J481" s="25"/>
+      <c r="I481" s="26"/>
+      <c r="J481" s="26"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="I482" s="25"/>
-      <c r="J482" s="25"/>
+      <c r="I482" s="26"/>
+      <c r="J482" s="26"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="I483" s="25"/>
-      <c r="J483" s="25"/>
+      <c r="I483" s="26"/>
+      <c r="J483" s="26"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="I484" s="25"/>
-      <c r="J484" s="25"/>
+      <c r="I484" s="26"/>
+      <c r="J484" s="26"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="I485" s="25"/>
-      <c r="J485" s="25"/>
+      <c r="I485" s="26"/>
+      <c r="J485" s="26"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="I486" s="25"/>
-      <c r="J486" s="25"/>
+      <c r="I486" s="26"/>
+      <c r="J486" s="26"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="I487" s="25"/>
-      <c r="J487" s="25"/>
+      <c r="I487" s="26"/>
+      <c r="J487" s="26"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="I488" s="25"/>
-      <c r="J488" s="25"/>
+      <c r="I488" s="26"/>
+      <c r="J488" s="26"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="I489" s="25"/>
-      <c r="J489" s="25"/>
+      <c r="I489" s="26"/>
+      <c r="J489" s="26"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="I490" s="25"/>
-      <c r="J490" s="25"/>
+      <c r="I490" s="26"/>
+      <c r="J490" s="26"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="I491" s="25"/>
-      <c r="J491" s="25"/>
+      <c r="I491" s="26"/>
+      <c r="J491" s="26"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="I492" s="25"/>
-      <c r="J492" s="25"/>
+      <c r="I492" s="26"/>
+      <c r="J492" s="26"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="I493" s="25"/>
-      <c r="J493" s="25"/>
+      <c r="I493" s="26"/>
+      <c r="J493" s="26"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="I494" s="25"/>
-      <c r="J494" s="25"/>
+      <c r="I494" s="26"/>
+      <c r="J494" s="26"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="I495" s="25"/>
-      <c r="J495" s="25"/>
+      <c r="I495" s="26"/>
+      <c r="J495" s="26"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="I496" s="25"/>
-      <c r="J496" s="25"/>
+      <c r="I496" s="26"/>
+      <c r="J496" s="26"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="I497" s="25"/>
-      <c r="J497" s="25"/>
+      <c r="I497" s="26"/>
+      <c r="J497" s="26"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="I498" s="25"/>
-      <c r="J498" s="25"/>
+      <c r="I498" s="26"/>
+      <c r="J498" s="26"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="I499" s="25"/>
-      <c r="J499" s="25"/>
+      <c r="I499" s="26"/>
+      <c r="J499" s="26"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="I500" s="25"/>
-      <c r="J500" s="25"/>
+      <c r="I500" s="26"/>
+      <c r="J500" s="26"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="I501" s="25"/>
-      <c r="J501" s="25"/>
+      <c r="I501" s="26"/>
+      <c r="J501" s="26"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="I502" s="25"/>
-      <c r="J502" s="25"/>
+      <c r="I502" s="26"/>
+      <c r="J502" s="26"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="I503" s="25"/>
-      <c r="J503" s="25"/>
+      <c r="I503" s="26"/>
+      <c r="J503" s="26"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="I504" s="25"/>
-      <c r="J504" s="25"/>
+      <c r="I504" s="26"/>
+      <c r="J504" s="26"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="I505" s="25"/>
-      <c r="J505" s="25"/>
+      <c r="I505" s="26"/>
+      <c r="J505" s="26"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="I506" s="25"/>
-      <c r="J506" s="25"/>
+      <c r="I506" s="26"/>
+      <c r="J506" s="26"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="I507" s="25"/>
-      <c r="J507" s="25"/>
+      <c r="I507" s="26"/>
+      <c r="J507" s="26"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="I508" s="25"/>
-      <c r="J508" s="25"/>
+      <c r="I508" s="26"/>
+      <c r="J508" s="26"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="I509" s="25"/>
-      <c r="J509" s="25"/>
+      <c r="I509" s="26"/>
+      <c r="J509" s="26"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="I510" s="25"/>
-      <c r="J510" s="25"/>
+      <c r="I510" s="26"/>
+      <c r="J510" s="26"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="I511" s="25"/>
-      <c r="J511" s="25"/>
+      <c r="I511" s="26"/>
+      <c r="J511" s="26"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="I512" s="25"/>
-      <c r="J512" s="25"/>
+      <c r="I512" s="26"/>
+      <c r="J512" s="26"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="I513" s="25"/>
-      <c r="J513" s="25"/>
+      <c r="I513" s="26"/>
+      <c r="J513" s="26"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="I514" s="25"/>
-      <c r="J514" s="25"/>
+      <c r="I514" s="26"/>
+      <c r="J514" s="26"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="I515" s="25"/>
-      <c r="J515" s="25"/>
+      <c r="I515" s="26"/>
+      <c r="J515" s="26"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="I516" s="25"/>
-      <c r="J516" s="25"/>
+      <c r="I516" s="26"/>
+      <c r="J516" s="26"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="I517" s="25"/>
-      <c r="J517" s="25"/>
+      <c r="I517" s="26"/>
+      <c r="J517" s="26"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="I518" s="25"/>
-      <c r="J518" s="25"/>
+      <c r="I518" s="26"/>
+      <c r="J518" s="26"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="I519" s="25"/>
-      <c r="J519" s="25"/>
+      <c r="I519" s="26"/>
+      <c r="J519" s="26"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="I520" s="25"/>
-      <c r="J520" s="25"/>
+      <c r="I520" s="26"/>
+      <c r="J520" s="26"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="I521" s="25"/>
-      <c r="J521" s="25"/>
+      <c r="I521" s="26"/>
+      <c r="J521" s="26"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="I522" s="25"/>
-      <c r="J522" s="25"/>
+      <c r="I522" s="26"/>
+      <c r="J522" s="26"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="I523" s="25"/>
-      <c r="J523" s="25"/>
+      <c r="I523" s="26"/>
+      <c r="J523" s="26"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="I524" s="25"/>
-      <c r="J524" s="25"/>
+      <c r="I524" s="26"/>
+      <c r="J524" s="26"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="I525" s="25"/>
-      <c r="J525" s="25"/>
+      <c r="I525" s="26"/>
+      <c r="J525" s="26"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="I526" s="25"/>
-      <c r="J526" s="25"/>
+      <c r="I526" s="26"/>
+      <c r="J526" s="26"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="I527" s="25"/>
-      <c r="J527" s="25"/>
+      <c r="I527" s="26"/>
+      <c r="J527" s="26"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="I528" s="25"/>
-      <c r="J528" s="25"/>
+      <c r="I528" s="26"/>
+      <c r="J528" s="26"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="I529" s="25"/>
-      <c r="J529" s="25"/>
+      <c r="I529" s="26"/>
+      <c r="J529" s="26"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="I530" s="25"/>
-      <c r="J530" s="25"/>
+      <c r="I530" s="26"/>
+      <c r="J530" s="26"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="I531" s="25"/>
-      <c r="J531" s="25"/>
+      <c r="I531" s="26"/>
+      <c r="J531" s="26"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="I532" s="25"/>
-      <c r="J532" s="25"/>
+      <c r="I532" s="26"/>
+      <c r="J532" s="26"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="I533" s="25"/>
-      <c r="J533" s="25"/>
+      <c r="I533" s="26"/>
+      <c r="J533" s="26"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="I534" s="25"/>
-      <c r="J534" s="25"/>
+      <c r="I534" s="26"/>
+      <c r="J534" s="26"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="I535" s="25"/>
-      <c r="J535" s="25"/>
+      <c r="I535" s="26"/>
+      <c r="J535" s="26"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="I536" s="25"/>
-      <c r="J536" s="25"/>
+      <c r="I536" s="26"/>
+      <c r="J536" s="26"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="I537" s="25"/>
-      <c r="J537" s="25"/>
+      <c r="I537" s="26"/>
+      <c r="J537" s="26"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="I538" s="25"/>
-      <c r="J538" s="25"/>
+      <c r="I538" s="26"/>
+      <c r="J538" s="26"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="I539" s="25"/>
-      <c r="J539" s="25"/>
+      <c r="I539" s="26"/>
+      <c r="J539" s="26"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="I540" s="25"/>
-      <c r="J540" s="25"/>
+      <c r="I540" s="26"/>
+      <c r="J540" s="26"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="I541" s="25"/>
-      <c r="J541" s="25"/>
+      <c r="I541" s="26"/>
+      <c r="J541" s="26"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="I542" s="25"/>
-      <c r="J542" s="25"/>
+      <c r="I542" s="26"/>
+      <c r="J542" s="26"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="I543" s="25"/>
-      <c r="J543" s="25"/>
+      <c r="I543" s="26"/>
+      <c r="J543" s="26"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="I544" s="25"/>
-      <c r="J544" s="25"/>
+      <c r="I544" s="26"/>
+      <c r="J544" s="26"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="I545" s="25"/>
-      <c r="J545" s="25"/>
+      <c r="I545" s="26"/>
+      <c r="J545" s="26"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="I546" s="25"/>
-      <c r="J546" s="25"/>
+      <c r="I546" s="26"/>
+      <c r="J546" s="26"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="I547" s="25"/>
-      <c r="J547" s="25"/>
+      <c r="I547" s="26"/>
+      <c r="J547" s="26"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="I548" s="25"/>
-      <c r="J548" s="25"/>
+      <c r="I548" s="26"/>
+      <c r="J548" s="26"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="I549" s="25"/>
-      <c r="J549" s="25"/>
+      <c r="I549" s="26"/>
+      <c r="J549" s="26"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="I550" s="25"/>
-      <c r="J550" s="25"/>
+      <c r="I550" s="26"/>
+      <c r="J550" s="26"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="I551" s="25"/>
-      <c r="J551" s="25"/>
+      <c r="I551" s="26"/>
+      <c r="J551" s="26"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="I552" s="25"/>
-      <c r="J552" s="25"/>
+      <c r="I552" s="26"/>
+      <c r="J552" s="26"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="I553" s="25"/>
-      <c r="J553" s="25"/>
+      <c r="I553" s="26"/>
+      <c r="J553" s="26"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="I554" s="25"/>
-      <c r="J554" s="25"/>
+      <c r="I554" s="26"/>
+      <c r="J554" s="26"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="I555" s="25"/>
-      <c r="J555" s="25"/>
+      <c r="I555" s="26"/>
+      <c r="J555" s="26"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="I556" s="25"/>
-      <c r="J556" s="25"/>
+      <c r="I556" s="26"/>
+      <c r="J556" s="26"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="I557" s="25"/>
-      <c r="J557" s="25"/>
+      <c r="I557" s="26"/>
+      <c r="J557" s="26"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="I558" s="25"/>
-      <c r="J558" s="25"/>
+      <c r="I558" s="26"/>
+      <c r="J558" s="26"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="I559" s="25"/>
-      <c r="J559" s="25"/>
+      <c r="I559" s="26"/>
+      <c r="J559" s="26"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="I560" s="25"/>
-      <c r="J560" s="25"/>
+      <c r="I560" s="26"/>
+      <c r="J560" s="26"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="I561" s="25"/>
-      <c r="J561" s="25"/>
+      <c r="I561" s="26"/>
+      <c r="J561" s="26"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="I562" s="25"/>
-      <c r="J562" s="25"/>
+      <c r="I562" s="26"/>
+      <c r="J562" s="26"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="I563" s="25"/>
-      <c r="J563" s="25"/>
+      <c r="I563" s="26"/>
+      <c r="J563" s="26"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="I564" s="25"/>
-      <c r="J564" s="25"/>
+      <c r="I564" s="26"/>
+      <c r="J564" s="26"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="I565" s="25"/>
-      <c r="J565" s="25"/>
+      <c r="I565" s="26"/>
+      <c r="J565" s="26"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="I566" s="25"/>
-      <c r="J566" s="25"/>
+      <c r="I566" s="26"/>
+      <c r="J566" s="26"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="I567" s="25"/>
-      <c r="J567" s="25"/>
+      <c r="I567" s="26"/>
+      <c r="J567" s="26"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="I568" s="25"/>
-      <c r="J568" s="25"/>
+      <c r="I568" s="26"/>
+      <c r="J568" s="26"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="I569" s="25"/>
-      <c r="J569" s="25"/>
+      <c r="I569" s="26"/>
+      <c r="J569" s="26"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="I570" s="25"/>
-      <c r="J570" s="25"/>
+      <c r="I570" s="26"/>
+      <c r="J570" s="26"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="I571" s="25"/>
-      <c r="J571" s="25"/>
+      <c r="I571" s="26"/>
+      <c r="J571" s="26"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="I572" s="25"/>
-      <c r="J572" s="25"/>
+      <c r="I572" s="26"/>
+      <c r="J572" s="26"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="I573" s="25"/>
-      <c r="J573" s="25"/>
+      <c r="I573" s="26"/>
+      <c r="J573" s="26"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="I574" s="25"/>
-      <c r="J574" s="25"/>
+      <c r="I574" s="26"/>
+      <c r="J574" s="26"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="I575" s="25"/>
-      <c r="J575" s="25"/>
+      <c r="I575" s="26"/>
+      <c r="J575" s="26"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="I576" s="25"/>
-      <c r="J576" s="25"/>
+      <c r="I576" s="26"/>
+      <c r="J576" s="26"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="I577" s="25"/>
-      <c r="J577" s="25"/>
+      <c r="I577" s="26"/>
+      <c r="J577" s="26"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="I578" s="25"/>
-      <c r="J578" s="25"/>
+      <c r="I578" s="26"/>
+      <c r="J578" s="26"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="I579" s="25"/>
-      <c r="J579" s="25"/>
+      <c r="I579" s="26"/>
+      <c r="J579" s="26"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="I580" s="25"/>
-      <c r="J580" s="25"/>
+      <c r="I580" s="26"/>
+      <c r="J580" s="26"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="I581" s="25"/>
-      <c r="J581" s="25"/>
+      <c r="I581" s="26"/>
+      <c r="J581" s="26"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="I582" s="25"/>
-      <c r="J582" s="25"/>
+      <c r="I582" s="26"/>
+      <c r="J582" s="26"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="I583" s="25"/>
-      <c r="J583" s="25"/>
+      <c r="I583" s="26"/>
+      <c r="J583" s="26"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="I584" s="25"/>
-      <c r="J584" s="25"/>
+      <c r="I584" s="26"/>
+      <c r="J584" s="26"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="I585" s="25"/>
-      <c r="J585" s="25"/>
+      <c r="I585" s="26"/>
+      <c r="J585" s="26"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="I586" s="25"/>
-      <c r="J586" s="25"/>
+      <c r="I586" s="26"/>
+      <c r="J586" s="26"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="I587" s="25"/>
-      <c r="J587" s="25"/>
+      <c r="I587" s="26"/>
+      <c r="J587" s="26"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="I588" s="25"/>
-      <c r="J588" s="25"/>
+      <c r="I588" s="26"/>
+      <c r="J588" s="26"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="I589" s="25"/>
-      <c r="J589" s="25"/>
+      <c r="I589" s="26"/>
+      <c r="J589" s="26"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="I590" s="25"/>
-      <c r="J590" s="25"/>
+      <c r="I590" s="26"/>
+      <c r="J590" s="26"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="I591" s="25"/>
-      <c r="J591" s="25"/>
+      <c r="I591" s="26"/>
+      <c r="J591" s="26"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="I592" s="25"/>
-      <c r="J592" s="25"/>
+      <c r="I592" s="26"/>
+      <c r="J592" s="26"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="I593" s="25"/>
-      <c r="J593" s="25"/>
+      <c r="I593" s="26"/>
+      <c r="J593" s="26"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="I594" s="25"/>
-      <c r="J594" s="25"/>
+      <c r="I594" s="26"/>
+      <c r="J594" s="26"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="I595" s="25"/>
-      <c r="J595" s="25"/>
+      <c r="I595" s="26"/>
+      <c r="J595" s="26"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="I596" s="25"/>
-      <c r="J596" s="25"/>
+      <c r="I596" s="26"/>
+      <c r="J596" s="26"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="I597" s="25"/>
-      <c r="J597" s="25"/>
+      <c r="I597" s="26"/>
+      <c r="J597" s="26"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="I598" s="25"/>
-      <c r="J598" s="25"/>
+      <c r="I598" s="26"/>
+      <c r="J598" s="26"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="I599" s="25"/>
-      <c r="J599" s="25"/>
+      <c r="I599" s="26"/>
+      <c r="J599" s="26"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="I600" s="25"/>
-      <c r="J600" s="25"/>
+      <c r="I600" s="26"/>
+      <c r="J600" s="26"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="I601" s="25"/>
-      <c r="J601" s="25"/>
+      <c r="I601" s="26"/>
+      <c r="J601" s="26"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="I602" s="25"/>
-      <c r="J602" s="25"/>
+      <c r="I602" s="26"/>
+      <c r="J602" s="26"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="I603" s="25"/>
-      <c r="J603" s="25"/>
+      <c r="I603" s="26"/>
+      <c r="J603" s="26"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="I604" s="25"/>
-      <c r="J604" s="25"/>
+      <c r="I604" s="26"/>
+      <c r="J604" s="26"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="I605" s="25"/>
-      <c r="J605" s="25"/>
+      <c r="I605" s="26"/>
+      <c r="J605" s="26"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="I606" s="25"/>
-      <c r="J606" s="25"/>
+      <c r="I606" s="26"/>
+      <c r="J606" s="26"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="I607" s="25"/>
-      <c r="J607" s="25"/>
+      <c r="I607" s="26"/>
+      <c r="J607" s="26"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="I608" s="25"/>
-      <c r="J608" s="25"/>
+      <c r="I608" s="26"/>
+      <c r="J608" s="26"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="I609" s="25"/>
-      <c r="J609" s="25"/>
+      <c r="I609" s="26"/>
+      <c r="J609" s="26"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="I610" s="25"/>
-      <c r="J610" s="25"/>
+      <c r="I610" s="26"/>
+      <c r="J610" s="26"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="I611" s="25"/>
-      <c r="J611" s="25"/>
+      <c r="I611" s="26"/>
+      <c r="J611" s="26"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="I612" s="25"/>
-      <c r="J612" s="25"/>
+      <c r="I612" s="26"/>
+      <c r="J612" s="26"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="I613" s="25"/>
-      <c r="J613" s="25"/>
+      <c r="I613" s="26"/>
+      <c r="J613" s="26"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="I614" s="25"/>
-      <c r="J614" s="25"/>
+      <c r="I614" s="26"/>
+      <c r="J614" s="26"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="I615" s="25"/>
-      <c r="J615" s="25"/>
+      <c r="I615" s="26"/>
+      <c r="J615" s="26"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="I616" s="25"/>
-      <c r="J616" s="25"/>
+      <c r="I616" s="26"/>
+      <c r="J616" s="26"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="I617" s="25"/>
-      <c r="J617" s="25"/>
+      <c r="I617" s="26"/>
+      <c r="J617" s="26"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="I618" s="25"/>
-      <c r="J618" s="25"/>
+      <c r="I618" s="26"/>
+      <c r="J618" s="26"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="I619" s="25"/>
-      <c r="J619" s="25"/>
+      <c r="I619" s="26"/>
+      <c r="J619" s="26"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="I620" s="25"/>
-      <c r="J620" s="25"/>
+      <c r="I620" s="26"/>
+      <c r="J620" s="26"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="I621" s="25"/>
-      <c r="J621" s="25"/>
+      <c r="I621" s="26"/>
+      <c r="J621" s="26"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="I622" s="25"/>
-      <c r="J622" s="25"/>
+      <c r="I622" s="26"/>
+      <c r="J622" s="26"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="I623" s="25"/>
-      <c r="J623" s="25"/>
+      <c r="I623" s="26"/>
+      <c r="J623" s="26"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="I624" s="25"/>
-      <c r="J624" s="25"/>
+      <c r="I624" s="26"/>
+      <c r="J624" s="26"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="I625" s="25"/>
-      <c r="J625" s="25"/>
+      <c r="I625" s="26"/>
+      <c r="J625" s="26"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="I626" s="25"/>
-      <c r="J626" s="25"/>
+      <c r="I626" s="26"/>
+      <c r="J626" s="26"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="I627" s="25"/>
-      <c r="J627" s="25"/>
+      <c r="I627" s="26"/>
+      <c r="J627" s="26"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="I628" s="25"/>
-      <c r="J628" s="25"/>
+      <c r="I628" s="26"/>
+      <c r="J628" s="26"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="I629" s="25"/>
-      <c r="J629" s="25"/>
+      <c r="I629" s="26"/>
+      <c r="J629" s="26"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="I630" s="25"/>
-      <c r="J630" s="25"/>
+      <c r="I630" s="26"/>
+      <c r="J630" s="26"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="I631" s="25"/>
-      <c r="J631" s="25"/>
+      <c r="I631" s="26"/>
+      <c r="J631" s="26"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="I632" s="25"/>
-      <c r="J632" s="25"/>
+      <c r="I632" s="26"/>
+      <c r="J632" s="26"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="I633" s="25"/>
-      <c r="J633" s="25"/>
+      <c r="I633" s="26"/>
+      <c r="J633" s="26"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="I634" s="25"/>
-      <c r="J634" s="25"/>
+      <c r="I634" s="26"/>
+      <c r="J634" s="26"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="I635" s="25"/>
-      <c r="J635" s="25"/>
+      <c r="I635" s="26"/>
+      <c r="J635" s="26"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="I636" s="25"/>
-      <c r="J636" s="25"/>
+      <c r="I636" s="26"/>
+      <c r="J636" s="26"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="I637" s="25"/>
-      <c r="J637" s="25"/>
+      <c r="I637" s="26"/>
+      <c r="J637" s="26"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="I638" s="25"/>
-      <c r="J638" s="25"/>
+      <c r="I638" s="26"/>
+      <c r="J638" s="26"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="I639" s="25"/>
-      <c r="J639" s="25"/>
+      <c r="I639" s="26"/>
+      <c r="J639" s="26"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="I640" s="25"/>
-      <c r="J640" s="25"/>
+      <c r="I640" s="26"/>
+      <c r="J640" s="26"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="I641" s="25"/>
-      <c r="J641" s="25"/>
+      <c r="I641" s="26"/>
+      <c r="J641" s="26"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="I642" s="25"/>
-      <c r="J642" s="25"/>
+      <c r="I642" s="26"/>
+      <c r="J642" s="26"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="I643" s="25"/>
-      <c r="J643" s="25"/>
+      <c r="I643" s="26"/>
+      <c r="J643" s="26"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="I644" s="25"/>
-      <c r="J644" s="25"/>
+      <c r="I644" s="26"/>
+      <c r="J644" s="26"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="I645" s="25"/>
-      <c r="J645" s="25"/>
+      <c r="I645" s="26"/>
+      <c r="J645" s="26"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="I646" s="25"/>
-      <c r="J646" s="25"/>
+      <c r="I646" s="26"/>
+      <c r="J646" s="26"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="I647" s="25"/>
-      <c r="J647" s="25"/>
+      <c r="I647" s="26"/>
+      <c r="J647" s="26"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="I648" s="25"/>
-      <c r="J648" s="25"/>
+      <c r="I648" s="26"/>
+      <c r="J648" s="26"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="I649" s="25"/>
-      <c r="J649" s="25"/>
+      <c r="I649" s="26"/>
+      <c r="J649" s="26"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="I650" s="25"/>
-      <c r="J650" s="25"/>
+      <c r="I650" s="26"/>
+      <c r="J650" s="26"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="I651" s="25"/>
-      <c r="J651" s="25"/>
+      <c r="I651" s="26"/>
+      <c r="J651" s="26"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="I652" s="25"/>
-      <c r="J652" s="25"/>
+      <c r="I652" s="26"/>
+      <c r="J652" s="26"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="I653" s="25"/>
-      <c r="J653" s="25"/>
+      <c r="I653" s="26"/>
+      <c r="J653" s="26"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="I654" s="25"/>
-      <c r="J654" s="25"/>
+      <c r="I654" s="26"/>
+      <c r="J654" s="26"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="I655" s="25"/>
-      <c r="J655" s="25"/>
+      <c r="I655" s="26"/>
+      <c r="J655" s="26"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="I656" s="25"/>
-      <c r="J656" s="25"/>
+      <c r="I656" s="26"/>
+      <c r="J656" s="26"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="I657" s="25"/>
-      <c r="J657" s="25"/>
+      <c r="I657" s="26"/>
+      <c r="J657" s="26"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="I658" s="25"/>
-      <c r="J658" s="25"/>
+      <c r="I658" s="26"/>
+      <c r="J658" s="26"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="I659" s="25"/>
-      <c r="J659" s="25"/>
+      <c r="I659" s="26"/>
+      <c r="J659" s="26"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="I660" s="25"/>
-      <c r="J660" s="25"/>
+      <c r="I660" s="26"/>
+      <c r="J660" s="26"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="I661" s="25"/>
-      <c r="J661" s="25"/>
+      <c r="I661" s="26"/>
+      <c r="J661" s="26"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="I662" s="25"/>
-      <c r="J662" s="25"/>
+      <c r="I662" s="26"/>
+      <c r="J662" s="26"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="I663" s="25"/>
-      <c r="J663" s="25"/>
+      <c r="I663" s="26"/>
+      <c r="J663" s="26"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="I664" s="25"/>
-      <c r="J664" s="25"/>
+      <c r="I664" s="26"/>
+      <c r="J664" s="26"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="I665" s="25"/>
-      <c r="J665" s="25"/>
+      <c r="I665" s="26"/>
+      <c r="J665" s="26"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="I666" s="25"/>
-      <c r="J666" s="25"/>
+      <c r="I666" s="26"/>
+      <c r="J666" s="26"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="I667" s="25"/>
-      <c r="J667" s="25"/>
+      <c r="I667" s="26"/>
+      <c r="J667" s="26"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="I668" s="25"/>
-      <c r="J668" s="25"/>
+      <c r="I668" s="26"/>
+      <c r="J668" s="26"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="I669" s="25"/>
-      <c r="J669" s="25"/>
+      <c r="I669" s="26"/>
+      <c r="J669" s="26"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="I670" s="25"/>
-      <c r="J670" s="25"/>
+      <c r="I670" s="26"/>
+      <c r="J670" s="26"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="I671" s="25"/>
-      <c r="J671" s="25"/>
+      <c r="I671" s="26"/>
+      <c r="J671" s="26"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="I672" s="25"/>
-      <c r="J672" s="25"/>
+      <c r="I672" s="26"/>
+      <c r="J672" s="26"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="I673" s="25"/>
-      <c r="J673" s="25"/>
+      <c r="I673" s="26"/>
+      <c r="J673" s="26"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="I674" s="25"/>
-      <c r="J674" s="25"/>
+      <c r="I674" s="26"/>
+      <c r="J674" s="26"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="I675" s="25"/>
-      <c r="J675" s="25"/>
+      <c r="I675" s="26"/>
+      <c r="J675" s="26"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="I676" s="25"/>
-      <c r="J676" s="25"/>
+      <c r="I676" s="26"/>
+      <c r="J676" s="26"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="I677" s="25"/>
-      <c r="J677" s="25"/>
+      <c r="I677" s="26"/>
+      <c r="J677" s="26"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="I678" s="25"/>
-      <c r="J678" s="25"/>
+      <c r="I678" s="26"/>
+      <c r="J678" s="26"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="I679" s="25"/>
-      <c r="J679" s="25"/>
+      <c r="I679" s="26"/>
+      <c r="J679" s="26"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="I680" s="25"/>
-      <c r="J680" s="25"/>
+      <c r="I680" s="26"/>
+      <c r="J680" s="26"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="I681" s="25"/>
-      <c r="J681" s="25"/>
+      <c r="I681" s="26"/>
+      <c r="J681" s="26"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="I682" s="25"/>
-      <c r="J682" s="25"/>
+      <c r="I682" s="26"/>
+      <c r="J682" s="26"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="I683" s="25"/>
-      <c r="J683" s="25"/>
+      <c r="I683" s="26"/>
+      <c r="J683" s="26"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="I684" s="25"/>
-      <c r="J684" s="25"/>
+      <c r="I684" s="26"/>
+      <c r="J684" s="26"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="I685" s="25"/>
-      <c r="J685" s="25"/>
+      <c r="I685" s="26"/>
+      <c r="J685" s="26"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="I686" s="25"/>
-      <c r="J686" s="25"/>
+      <c r="I686" s="26"/>
+      <c r="J686" s="26"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="I687" s="25"/>
-      <c r="J687" s="25"/>
+      <c r="I687" s="26"/>
+      <c r="J687" s="26"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="I688" s="25"/>
-      <c r="J688" s="25"/>
+      <c r="I688" s="26"/>
+      <c r="J688" s="26"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="I689" s="25"/>
-      <c r="J689" s="25"/>
+      <c r="I689" s="26"/>
+      <c r="J689" s="26"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="I690" s="25"/>
-      <c r="J690" s="25"/>
+      <c r="I690" s="26"/>
+      <c r="J690" s="26"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="I691" s="25"/>
-      <c r="J691" s="25"/>
+      <c r="I691" s="26"/>
+      <c r="J691" s="26"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="I692" s="25"/>
-      <c r="J692" s="25"/>
+      <c r="I692" s="26"/>
+      <c r="J692" s="26"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="I693" s="25"/>
-      <c r="J693" s="25"/>
+      <c r="I693" s="26"/>
+      <c r="J693" s="26"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="I694" s="25"/>
-      <c r="J694" s="25"/>
+      <c r="I694" s="26"/>
+      <c r="J694" s="26"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="I695" s="25"/>
-      <c r="J695" s="25"/>
+      <c r="I695" s="26"/>
+      <c r="J695" s="26"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="I696" s="25"/>
-      <c r="J696" s="25"/>
+      <c r="I696" s="26"/>
+      <c r="J696" s="26"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="I697" s="25"/>
-      <c r="J697" s="25"/>
+      <c r="I697" s="26"/>
+      <c r="J697" s="26"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="I698" s="25"/>
-      <c r="J698" s="25"/>
+      <c r="I698" s="26"/>
+      <c r="J698" s="26"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="I699" s="25"/>
-      <c r="J699" s="25"/>
+      <c r="I699" s="26"/>
+      <c r="J699" s="26"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="I700" s="25"/>
-      <c r="J700" s="25"/>
+      <c r="I700" s="26"/>
+      <c r="J700" s="26"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="I701" s="25"/>
-      <c r="J701" s="25"/>
+      <c r="I701" s="26"/>
+      <c r="J701" s="26"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="I702" s="25"/>
-      <c r="J702" s="25"/>
+      <c r="I702" s="26"/>
+      <c r="J702" s="26"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="I703" s="25"/>
-      <c r="J703" s="25"/>
+      <c r="I703" s="26"/>
+      <c r="J703" s="26"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="I704" s="25"/>
-      <c r="J704" s="25"/>
+      <c r="I704" s="26"/>
+      <c r="J704" s="26"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="I705" s="25"/>
-      <c r="J705" s="25"/>
+      <c r="I705" s="26"/>
+      <c r="J705" s="26"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="I706" s="25"/>
-      <c r="J706" s="25"/>
+      <c r="I706" s="26"/>
+      <c r="J706" s="26"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="I707" s="25"/>
-      <c r="J707" s="25"/>
+      <c r="I707" s="26"/>
+      <c r="J707" s="26"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="I708" s="25"/>
-      <c r="J708" s="25"/>
+      <c r="I708" s="26"/>
+      <c r="J708" s="26"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="I709" s="25"/>
-      <c r="J709" s="25"/>
+      <c r="I709" s="26"/>
+      <c r="J709" s="26"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="I710" s="25"/>
-      <c r="J710" s="25"/>
+      <c r="I710" s="26"/>
+      <c r="J710" s="26"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="I711" s="25"/>
-      <c r="J711" s="25"/>
+      <c r="I711" s="26"/>
+      <c r="J711" s="26"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="I712" s="25"/>
-      <c r="J712" s="25"/>
+      <c r="I712" s="26"/>
+      <c r="J712" s="26"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="I713" s="25"/>
-      <c r="J713" s="25"/>
+      <c r="I713" s="26"/>
+      <c r="J713" s="26"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="I714" s="25"/>
-      <c r="J714" s="25"/>
+      <c r="I714" s="26"/>
+      <c r="J714" s="26"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="I715" s="25"/>
-      <c r="J715" s="25"/>
+      <c r="I715" s="26"/>
+      <c r="J715" s="26"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="I716" s="25"/>
-      <c r="J716" s="25"/>
+      <c r="I716" s="26"/>
+      <c r="J716" s="26"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="I717" s="25"/>
-      <c r="J717" s="25"/>
+      <c r="I717" s="26"/>
+      <c r="J717" s="26"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="I718" s="25"/>
-      <c r="J718" s="25"/>
+      <c r="I718" s="26"/>
+      <c r="J718" s="26"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="I719" s="25"/>
-      <c r="J719" s="25"/>
+      <c r="I719" s="26"/>
+      <c r="J719" s="26"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="I720" s="25"/>
-      <c r="J720" s="25"/>
+      <c r="I720" s="26"/>
+      <c r="J720" s="26"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="I721" s="25"/>
-      <c r="J721" s="25"/>
+      <c r="I721" s="26"/>
+      <c r="J721" s="26"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="I722" s="25"/>
-      <c r="J722" s="25"/>
+      <c r="I722" s="26"/>
+      <c r="J722" s="26"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="I723" s="25"/>
-      <c r="J723" s="25"/>
+      <c r="I723" s="26"/>
+      <c r="J723" s="26"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="I724" s="25"/>
-      <c r="J724" s="25"/>
+      <c r="I724" s="26"/>
+      <c r="J724" s="26"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="I725" s="25"/>
-      <c r="J725" s="25"/>
+      <c r="I725" s="26"/>
+      <c r="J725" s="26"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="I726" s="25"/>
-      <c r="J726" s="25"/>
+      <c r="I726" s="26"/>
+      <c r="J726" s="26"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="I727" s="25"/>
-      <c r="J727" s="25"/>
+      <c r="I727" s="26"/>
+      <c r="J727" s="26"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="I728" s="25"/>
-      <c r="J728" s="25"/>
+      <c r="I728" s="26"/>
+      <c r="J728" s="26"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="I729" s="25"/>
-      <c r="J729" s="25"/>
+      <c r="I729" s="26"/>
+      <c r="J729" s="26"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="I730" s="25"/>
-      <c r="J730" s="25"/>
+      <c r="I730" s="26"/>
+      <c r="J730" s="26"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="I731" s="25"/>
-      <c r="J731" s="25"/>
+      <c r="I731" s="26"/>
+      <c r="J731" s="26"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="I732" s="25"/>
-      <c r="J732" s="25"/>
+      <c r="I732" s="26"/>
+      <c r="J732" s="26"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="I733" s="25"/>
-      <c r="J733" s="25"/>
+      <c r="I733" s="26"/>
+      <c r="J733" s="26"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="I734" s="25"/>
-      <c r="J734" s="25"/>
+      <c r="I734" s="26"/>
+      <c r="J734" s="26"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="I735" s="25"/>
-      <c r="J735" s="25"/>
+      <c r="I735" s="26"/>
+      <c r="J735" s="26"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="I736" s="25"/>
-      <c r="J736" s="25"/>
+      <c r="I736" s="26"/>
+      <c r="J736" s="26"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="I737" s="25"/>
-      <c r="J737" s="25"/>
+      <c r="I737" s="26"/>
+      <c r="J737" s="26"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="I738" s="25"/>
-      <c r="J738" s="25"/>
+      <c r="I738" s="26"/>
+      <c r="J738" s="26"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="I739" s="25"/>
-      <c r="J739" s="25"/>
+      <c r="I739" s="26"/>
+      <c r="J739" s="26"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="I740" s="25"/>
-      <c r="J740" s="25"/>
+      <c r="I740" s="26"/>
+      <c r="J740" s="26"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="I741" s="25"/>
-      <c r="J741" s="25"/>
+      <c r="I741" s="26"/>
+      <c r="J741" s="26"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="I742" s="25"/>
-      <c r="J742" s="25"/>
+      <c r="I742" s="26"/>
+      <c r="J742" s="26"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="I743" s="25"/>
-      <c r="J743" s="25"/>
+      <c r="I743" s="26"/>
+      <c r="J743" s="26"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="I744" s="25"/>
-      <c r="J744" s="25"/>
+      <c r="I744" s="26"/>
+      <c r="J744" s="26"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="I745" s="25"/>
-      <c r="J745" s="25"/>
+      <c r="I745" s="26"/>
+      <c r="J745" s="26"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="I746" s="25"/>
-      <c r="J746" s="25"/>
+      <c r="I746" s="26"/>
+      <c r="J746" s="26"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="I747" s="25"/>
-      <c r="J747" s="25"/>
+      <c r="I747" s="26"/>
+      <c r="J747" s="26"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="I748" s="25"/>
-      <c r="J748" s="25"/>
+      <c r="I748" s="26"/>
+      <c r="J748" s="26"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="I749" s="25"/>
-      <c r="J749" s="25"/>
+      <c r="I749" s="26"/>
+      <c r="J749" s="26"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="I750" s="25"/>
-      <c r="J750" s="25"/>
+      <c r="I750" s="26"/>
+      <c r="J750" s="26"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="I751" s="25"/>
-      <c r="J751" s="25"/>
+      <c r="I751" s="26"/>
+      <c r="J751" s="26"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="I752" s="25"/>
-      <c r="J752" s="25"/>
+      <c r="I752" s="26"/>
+      <c r="J752" s="26"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="I753" s="25"/>
-      <c r="J753" s="25"/>
+      <c r="I753" s="26"/>
+      <c r="J753" s="26"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="I754" s="25"/>
-      <c r="J754" s="25"/>
+      <c r="I754" s="26"/>
+      <c r="J754" s="26"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="I755" s="25"/>
-      <c r="J755" s="25"/>
+      <c r="I755" s="26"/>
+      <c r="J755" s="26"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="I756" s="25"/>
-      <c r="J756" s="25"/>
+      <c r="I756" s="26"/>
+      <c r="J756" s="26"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="I757" s="25"/>
-      <c r="J757" s="25"/>
+      <c r="I757" s="26"/>
+      <c r="J757" s="26"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="I758" s="25"/>
-      <c r="J758" s="25"/>
+      <c r="I758" s="26"/>
+      <c r="J758" s="26"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="I759" s="25"/>
-      <c r="J759" s="25"/>
+      <c r="I759" s="26"/>
+      <c r="J759" s="26"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="I760" s="25"/>
-      <c r="J760" s="25"/>
+      <c r="I760" s="26"/>
+      <c r="J760" s="26"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="I761" s="25"/>
-      <c r="J761" s="25"/>
+      <c r="I761" s="26"/>
+      <c r="J761" s="26"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="I762" s="25"/>
-      <c r="J762" s="25"/>
+      <c r="I762" s="26"/>
+      <c r="J762" s="26"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="I763" s="25"/>
-      <c r="J763" s="25"/>
+      <c r="I763" s="26"/>
+      <c r="J763" s="26"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="I764" s="25"/>
-      <c r="J764" s="25"/>
+      <c r="I764" s="26"/>
+      <c r="J764" s="26"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="I765" s="25"/>
-      <c r="J765" s="25"/>
+      <c r="I765" s="26"/>
+      <c r="J765" s="26"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="I766" s="25"/>
-      <c r="J766" s="25"/>
+      <c r="I766" s="26"/>
+      <c r="J766" s="26"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="I767" s="25"/>
-      <c r="J767" s="25"/>
+      <c r="I767" s="26"/>
+      <c r="J767" s="26"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="I768" s="25"/>
-      <c r="J768" s="25"/>
+      <c r="I768" s="26"/>
+      <c r="J768" s="26"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="I769" s="25"/>
-      <c r="J769" s="25"/>
+      <c r="I769" s="26"/>
+      <c r="J769" s="26"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="I770" s="25"/>
-      <c r="J770" s="25"/>
+      <c r="I770" s="26"/>
+      <c r="J770" s="26"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="I771" s="25"/>
-      <c r="J771" s="25"/>
+      <c r="I771" s="26"/>
+      <c r="J771" s="26"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="I772" s="25"/>
-      <c r="J772" s="25"/>
+      <c r="I772" s="26"/>
+      <c r="J772" s="26"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="I773" s="25"/>
-      <c r="J773" s="25"/>
+      <c r="I773" s="26"/>
+      <c r="J773" s="26"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="I774" s="25"/>
-      <c r="J774" s="25"/>
+      <c r="I774" s="26"/>
+      <c r="J774" s="26"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="I775" s="25"/>
-      <c r="J775" s="25"/>
+      <c r="I775" s="26"/>
+      <c r="J775" s="26"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="I776" s="25"/>
-      <c r="J776" s="25"/>
+      <c r="I776" s="26"/>
+      <c r="J776" s="26"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="I777" s="25"/>
-      <c r="J777" s="25"/>
+      <c r="I777" s="26"/>
+      <c r="J777" s="26"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="I778" s="25"/>
-      <c r="J778" s="25"/>
+      <c r="I778" s="26"/>
+      <c r="J778" s="26"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="I779" s="25"/>
-      <c r="J779" s="25"/>
+      <c r="I779" s="26"/>
+      <c r="J779" s="26"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="I780" s="25"/>
-      <c r="J780" s="25"/>
+      <c r="I780" s="26"/>
+      <c r="J780" s="26"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="I781" s="25"/>
-      <c r="J781" s="25"/>
+      <c r="I781" s="26"/>
+      <c r="J781" s="26"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="I782" s="25"/>
-      <c r="J782" s="25"/>
+      <c r="I782" s="26"/>
+      <c r="J782" s="26"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="I783" s="25"/>
-      <c r="J783" s="25"/>
+      <c r="I783" s="26"/>
+      <c r="J783" s="26"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="I784" s="25"/>
-      <c r="J784" s="25"/>
+      <c r="I784" s="26"/>
+      <c r="J784" s="26"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="I785" s="25"/>
-      <c r="J785" s="25"/>
+      <c r="I785" s="26"/>
+      <c r="J785" s="26"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="I786" s="25"/>
-      <c r="J786" s="25"/>
+      <c r="I786" s="26"/>
+      <c r="J786" s="26"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="I787" s="25"/>
-      <c r="J787" s="25"/>
+      <c r="I787" s="26"/>
+      <c r="J787" s="26"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="I788" s="25"/>
-      <c r="J788" s="25"/>
+      <c r="I788" s="26"/>
+      <c r="J788" s="26"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="I789" s="25"/>
-      <c r="J789" s="25"/>
+      <c r="I789" s="26"/>
+      <c r="J789" s="26"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="I790" s="25"/>
-      <c r="J790" s="25"/>
+      <c r="I790" s="26"/>
+      <c r="J790" s="26"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="I791" s="25"/>
-      <c r="J791" s="25"/>
+      <c r="I791" s="26"/>
+      <c r="J791" s="26"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="I792" s="25"/>
-      <c r="J792" s="25"/>
+      <c r="I792" s="26"/>
+      <c r="J792" s="26"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="I793" s="25"/>
-      <c r="J793" s="25"/>
+      <c r="I793" s="26"/>
+      <c r="J793" s="26"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="I794" s="25"/>
-      <c r="J794" s="25"/>
+      <c r="I794" s="26"/>
+      <c r="J794" s="26"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="I795" s="25"/>
-      <c r="J795" s="25"/>
+      <c r="I795" s="26"/>
+      <c r="J795" s="26"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="I796" s="25"/>
-      <c r="J796" s="25"/>
+      <c r="I796" s="26"/>
+      <c r="J796" s="26"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="I797" s="25"/>
-      <c r="J797" s="25"/>
+      <c r="I797" s="26"/>
+      <c r="J797" s="26"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="I798" s="25"/>
-      <c r="J798" s="25"/>
+      <c r="I798" s="26"/>
+      <c r="J798" s="26"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="I799" s="25"/>
-      <c r="J799" s="25"/>
+      <c r="I799" s="26"/>
+      <c r="J799" s="26"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="I800" s="25"/>
-      <c r="J800" s="25"/>
+      <c r="I800" s="26"/>
+      <c r="J800" s="26"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="I801" s="25"/>
-      <c r="J801" s="25"/>
+      <c r="I801" s="26"/>
+      <c r="J801" s="26"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="I802" s="25"/>
-      <c r="J802" s="25"/>
+      <c r="I802" s="26"/>
+      <c r="J802" s="26"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="I803" s="25"/>
-      <c r="J803" s="25"/>
+      <c r="I803" s="26"/>
+      <c r="J803" s="26"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="I804" s="25"/>
-      <c r="J804" s="25"/>
+      <c r="I804" s="26"/>
+      <c r="J804" s="26"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="I805" s="25"/>
-      <c r="J805" s="25"/>
+      <c r="I805" s="26"/>
+      <c r="J805" s="26"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="I806" s="25"/>
-      <c r="J806" s="25"/>
+      <c r="I806" s="26"/>
+      <c r="J806" s="26"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="I807" s="25"/>
-      <c r="J807" s="25"/>
+      <c r="I807" s="26"/>
+      <c r="J807" s="26"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="I808" s="25"/>
-      <c r="J808" s="25"/>
+      <c r="I808" s="26"/>
+      <c r="J808" s="26"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="I809" s="25"/>
-      <c r="J809" s="25"/>
+      <c r="I809" s="26"/>
+      <c r="J809" s="26"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="I810" s="25"/>
-      <c r="J810" s="25"/>
+      <c r="I810" s="26"/>
+      <c r="J810" s="26"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="I811" s="25"/>
-      <c r="J811" s="25"/>
+      <c r="I811" s="26"/>
+      <c r="J811" s="26"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="I812" s="25"/>
-      <c r="J812" s="25"/>
+      <c r="I812" s="26"/>
+      <c r="J812" s="26"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="I813" s="25"/>
-      <c r="J813" s="25"/>
+      <c r="I813" s="26"/>
+      <c r="J813" s="26"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="I814" s="25"/>
-      <c r="J814" s="25"/>
+      <c r="I814" s="26"/>
+      <c r="J814" s="26"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="I815" s="25"/>
-      <c r="J815" s="25"/>
+      <c r="I815" s="26"/>
+      <c r="J815" s="26"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="I816" s="25"/>
-      <c r="J816" s="25"/>
+      <c r="I816" s="26"/>
+      <c r="J816" s="26"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="I817" s="25"/>
-      <c r="J817" s="25"/>
+      <c r="I817" s="26"/>
+      <c r="J817" s="26"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="I818" s="25"/>
-      <c r="J818" s="25"/>
+      <c r="I818" s="26"/>
+      <c r="J818" s="26"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="I819" s="25"/>
-      <c r="J819" s="25"/>
+      <c r="I819" s="26"/>
+      <c r="J819" s="26"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="I820" s="25"/>
-      <c r="J820" s="25"/>
+      <c r="I820" s="26"/>
+      <c r="J820" s="26"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="I821" s="25"/>
-      <c r="J821" s="25"/>
+      <c r="I821" s="26"/>
+      <c r="J821" s="26"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="I822" s="25"/>
-      <c r="J822" s="25"/>
+      <c r="I822" s="26"/>
+      <c r="J822" s="26"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="I823" s="25"/>
-      <c r="J823" s="25"/>
+      <c r="I823" s="26"/>
+      <c r="J823" s="26"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="I824" s="25"/>
-      <c r="J824" s="25"/>
+      <c r="I824" s="26"/>
+      <c r="J824" s="26"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="I825" s="25"/>
-      <c r="J825" s="25"/>
+      <c r="I825" s="26"/>
+      <c r="J825" s="26"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="I826" s="25"/>
-      <c r="J826" s="25"/>
+      <c r="I826" s="26"/>
+      <c r="J826" s="26"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="I827" s="25"/>
-      <c r="J827" s="25"/>
+      <c r="I827" s="26"/>
+      <c r="J827" s="26"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="I828" s="25"/>
-      <c r="J828" s="25"/>
+      <c r="I828" s="26"/>
+      <c r="J828" s="26"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="I829" s="25"/>
-      <c r="J829" s="25"/>
+      <c r="I829" s="26"/>
+      <c r="J829" s="26"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="I830" s="25"/>
-      <c r="J830" s="25"/>
+      <c r="I830" s="26"/>
+      <c r="J830" s="26"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="I831" s="25"/>
-      <c r="J831" s="25"/>
+      <c r="I831" s="26"/>
+      <c r="J831" s="26"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="I832" s="25"/>
-      <c r="J832" s="25"/>
+      <c r="I832" s="26"/>
+      <c r="J832" s="26"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="I833" s="25"/>
-      <c r="J833" s="25"/>
+      <c r="I833" s="26"/>
+      <c r="J833" s="26"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="I834" s="25"/>
-      <c r="J834" s="25"/>
+      <c r="I834" s="26"/>
+      <c r="J834" s="26"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="I835" s="25"/>
-      <c r="J835" s="25"/>
+      <c r="I835" s="26"/>
+      <c r="J835" s="26"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="I836" s="25"/>
-      <c r="J836" s="25"/>
+      <c r="I836" s="26"/>
+      <c r="J836" s="26"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="I837" s="25"/>
-      <c r="J837" s="25"/>
+      <c r="I837" s="26"/>
+      <c r="J837" s="26"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="I838" s="25"/>
-      <c r="J838" s="25"/>
+      <c r="I838" s="26"/>
+      <c r="J838" s="26"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="I839" s="25"/>
-      <c r="J839" s="25"/>
+      <c r="I839" s="26"/>
+      <c r="J839" s="26"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="I840" s="25"/>
-      <c r="J840" s="25"/>
+      <c r="I840" s="26"/>
+      <c r="J840" s="26"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="I841" s="25"/>
-      <c r="J841" s="25"/>
+      <c r="I841" s="26"/>
+      <c r="J841" s="26"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="I842" s="25"/>
-      <c r="J842" s="25"/>
+      <c r="I842" s="26"/>
+      <c r="J842" s="26"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="I843" s="25"/>
-      <c r="J843" s="25"/>
+      <c r="I843" s="26"/>
+      <c r="J843" s="26"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="I844" s="25"/>
-      <c r="J844" s="25"/>
+      <c r="I844" s="26"/>
+      <c r="J844" s="26"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="I845" s="25"/>
-      <c r="J845" s="25"/>
+      <c r="I845" s="26"/>
+      <c r="J845" s="26"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="I846" s="25"/>
-      <c r="J846" s="25"/>
+      <c r="I846" s="26"/>
+      <c r="J846" s="26"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="I847" s="25"/>
-      <c r="J847" s="25"/>
+      <c r="I847" s="26"/>
+      <c r="J847" s="26"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="I848" s="25"/>
-      <c r="J848" s="25"/>
+      <c r="I848" s="26"/>
+      <c r="J848" s="26"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="I849" s="25"/>
-      <c r="J849" s="25"/>
+      <c r="I849" s="26"/>
+      <c r="J849" s="26"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="I850" s="25"/>
-      <c r="J850" s="25"/>
+      <c r="I850" s="26"/>
+      <c r="J850" s="26"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="I851" s="25"/>
-      <c r="J851" s="25"/>
+      <c r="I851" s="26"/>
+      <c r="J851" s="26"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="I852" s="25"/>
-      <c r="J852" s="25"/>
+      <c r="I852" s="26"/>
+      <c r="J852" s="26"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="I853" s="25"/>
-      <c r="J853" s="25"/>
+      <c r="I853" s="26"/>
+      <c r="J853" s="26"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="I854" s="25"/>
-      <c r="J854" s="25"/>
+      <c r="I854" s="26"/>
+      <c r="J854" s="26"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="I855" s="25"/>
-      <c r="J855" s="25"/>
+      <c r="I855" s="26"/>
+      <c r="J855" s="26"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="I856" s="25"/>
-      <c r="J856" s="25"/>
+      <c r="I856" s="26"/>
+      <c r="J856" s="26"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="I857" s="25"/>
-      <c r="J857" s="25"/>
+      <c r="I857" s="26"/>
+      <c r="J857" s="26"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="I858" s="25"/>
-      <c r="J858" s="25"/>
+      <c r="I858" s="26"/>
+      <c r="J858" s="26"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="I859" s="25"/>
-      <c r="J859" s="25"/>
+      <c r="I859" s="26"/>
+      <c r="J859" s="26"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="I860" s="25"/>
-      <c r="J860" s="25"/>
+      <c r="I860" s="26"/>
+      <c r="J860" s="26"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="I861" s="25"/>
-      <c r="J861" s="25"/>
+      <c r="I861" s="26"/>
+      <c r="J861" s="26"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="I862" s="25"/>
-      <c r="J862" s="25"/>
+      <c r="I862" s="26"/>
+      <c r="J862" s="26"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="I863" s="25"/>
-      <c r="J863" s="25"/>
+      <c r="I863" s="26"/>
+      <c r="J863" s="26"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="I864" s="25"/>
-      <c r="J864" s="25"/>
+      <c r="I864" s="26"/>
+      <c r="J864" s="26"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="I865" s="25"/>
-      <c r="J865" s="25"/>
+      <c r="I865" s="26"/>
+      <c r="J865" s="26"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="I866" s="25"/>
-      <c r="J866" s="25"/>
+      <c r="I866" s="26"/>
+      <c r="J866" s="26"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="I867" s="25"/>
-      <c r="J867" s="25"/>
+      <c r="I867" s="26"/>
+      <c r="J867" s="26"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="I868" s="25"/>
-      <c r="J868" s="25"/>
+      <c r="I868" s="26"/>
+      <c r="J868" s="26"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="I869" s="25"/>
-      <c r="J869" s="25"/>
+      <c r="I869" s="26"/>
+      <c r="J869" s="26"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="I870" s="25"/>
-      <c r="J870" s="25"/>
+      <c r="I870" s="26"/>
+      <c r="J870" s="26"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="I871" s="25"/>
-      <c r="J871" s="25"/>
+      <c r="I871" s="26"/>
+      <c r="J871" s="26"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="I872" s="25"/>
-      <c r="J872" s="25"/>
+      <c r="I872" s="26"/>
+      <c r="J872" s="26"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="I873" s="25"/>
-      <c r="J873" s="25"/>
+      <c r="I873" s="26"/>
+      <c r="J873" s="26"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="I874" s="25"/>
-      <c r="J874" s="25"/>
+      <c r="I874" s="26"/>
+      <c r="J874" s="26"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="I875" s="25"/>
-      <c r="J875" s="25"/>
+      <c r="I875" s="26"/>
+      <c r="J875" s="26"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="I876" s="25"/>
-      <c r="J876" s="25"/>
+      <c r="I876" s="26"/>
+      <c r="J876" s="26"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="I877" s="25"/>
-      <c r="J877" s="25"/>
+      <c r="I877" s="26"/>
+      <c r="J877" s="26"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="I878" s="25"/>
-      <c r="J878" s="25"/>
+      <c r="I878" s="26"/>
+      <c r="J878" s="26"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="I879" s="25"/>
-      <c r="J879" s="25"/>
+      <c r="I879" s="26"/>
+      <c r="J879" s="26"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="I880" s="25"/>
-      <c r="J880" s="25"/>
+      <c r="I880" s="26"/>
+      <c r="J880" s="26"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="I881" s="25"/>
-      <c r="J881" s="25"/>
+      <c r="I881" s="26"/>
+      <c r="J881" s="26"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="I882" s="25"/>
-      <c r="J882" s="25"/>
+      <c r="I882" s="26"/>
+      <c r="J882" s="26"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="I883" s="25"/>
-      <c r="J883" s="25"/>
+      <c r="I883" s="26"/>
+      <c r="J883" s="26"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="I884" s="25"/>
-      <c r="J884" s="25"/>
+      <c r="I884" s="26"/>
+      <c r="J884" s="26"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="I885" s="25"/>
-      <c r="J885" s="25"/>
+      <c r="I885" s="26"/>
+      <c r="J885" s="26"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="I886" s="25"/>
-      <c r="J886" s="25"/>
+      <c r="I886" s="26"/>
+      <c r="J886" s="26"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="I887" s="25"/>
-      <c r="J887" s="25"/>
+      <c r="I887" s="26"/>
+      <c r="J887" s="26"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="I888" s="25"/>
-      <c r="J888" s="25"/>
+      <c r="I888" s="26"/>
+      <c r="J888" s="26"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="I889" s="25"/>
-      <c r="J889" s="25"/>
+      <c r="I889" s="26"/>
+      <c r="J889" s="26"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="I890" s="25"/>
-      <c r="J890" s="25"/>
+      <c r="I890" s="26"/>
+      <c r="J890" s="26"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="I891" s="25"/>
-      <c r="J891" s="25"/>
+      <c r="I891" s="26"/>
+      <c r="J891" s="26"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="I892" s="25"/>
-      <c r="J892" s="25"/>
+      <c r="I892" s="26"/>
+      <c r="J892" s="26"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="I893" s="25"/>
-      <c r="J893" s="25"/>
+      <c r="I893" s="26"/>
+      <c r="J893" s="26"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="I894" s="25"/>
-      <c r="J894" s="25"/>
+      <c r="I894" s="26"/>
+      <c r="J894" s="26"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="I895" s="25"/>
-      <c r="J895" s="25"/>
+      <c r="I895" s="26"/>
+      <c r="J895" s="26"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="I896" s="25"/>
-      <c r="J896" s="25"/>
+      <c r="I896" s="26"/>
+      <c r="J896" s="26"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="I897" s="25"/>
-      <c r="J897" s="25"/>
+      <c r="I897" s="26"/>
+      <c r="J897" s="26"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="I898" s="25"/>
-      <c r="J898" s="25"/>
+      <c r="I898" s="26"/>
+      <c r="J898" s="26"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="I899" s="25"/>
-      <c r="J899" s="25"/>
+      <c r="I899" s="26"/>
+      <c r="J899" s="26"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="I900" s="25"/>
-      <c r="J900" s="25"/>
+      <c r="I900" s="26"/>
+      <c r="J900" s="26"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="I901" s="25"/>
-      <c r="J901" s="25"/>
+      <c r="I901" s="26"/>
+      <c r="J901" s="26"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="I902" s="25"/>
-      <c r="J902" s="25"/>
+      <c r="I902" s="26"/>
+      <c r="J902" s="26"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="I903" s="25"/>
-      <c r="J903" s="25"/>
+      <c r="I903" s="26"/>
+      <c r="J903" s="26"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="I904" s="25"/>
-      <c r="J904" s="25"/>
+      <c r="I904" s="26"/>
+      <c r="J904" s="26"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="I905" s="25"/>
-      <c r="J905" s="25"/>
+      <c r="I905" s="26"/>
+      <c r="J905" s="26"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="I906" s="25"/>
-      <c r="J906" s="25"/>
+      <c r="I906" s="26"/>
+      <c r="J906" s="26"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="I907" s="25"/>
-      <c r="J907" s="25"/>
+      <c r="I907" s="26"/>
+      <c r="J907" s="26"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="I908" s="25"/>
-      <c r="J908" s="25"/>
+      <c r="I908" s="26"/>
+      <c r="J908" s="26"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="I909" s="25"/>
-      <c r="J909" s="25"/>
+      <c r="I909" s="26"/>
+      <c r="J909" s="26"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="I910" s="25"/>
-      <c r="J910" s="25"/>
+      <c r="I910" s="26"/>
+      <c r="J910" s="26"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="I911" s="25"/>
-      <c r="J911" s="25"/>
+      <c r="I911" s="26"/>
+      <c r="J911" s="26"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="I912" s="25"/>
-      <c r="J912" s="25"/>
+      <c r="I912" s="26"/>
+      <c r="J912" s="26"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="I913" s="25"/>
-      <c r="J913" s="25"/>
+      <c r="I913" s="26"/>
+      <c r="J913" s="26"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="I914" s="25"/>
-      <c r="J914" s="25"/>
+      <c r="I914" s="26"/>
+      <c r="J914" s="26"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="I915" s="25"/>
-      <c r="J915" s="25"/>
+      <c r="I915" s="26"/>
+      <c r="J915" s="26"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="I916" s="25"/>
-      <c r="J916" s="25"/>
+      <c r="I916" s="26"/>
+      <c r="J916" s="26"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="I917" s="25"/>
-      <c r="J917" s="25"/>
+      <c r="I917" s="26"/>
+      <c r="J917" s="26"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="I918" s="25"/>
-      <c r="J918" s="25"/>
+      <c r="I918" s="26"/>
+      <c r="J918" s="26"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="I919" s="25"/>
-      <c r="J919" s="25"/>
+      <c r="I919" s="26"/>
+      <c r="J919" s="26"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="I920" s="25"/>
-      <c r="J920" s="25"/>
+      <c r="I920" s="26"/>
+      <c r="J920" s="26"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="I921" s="25"/>
-      <c r="J921" s="25"/>
+      <c r="I921" s="26"/>
+      <c r="J921" s="26"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="I922" s="25"/>
-      <c r="J922" s="25"/>
+      <c r="I922" s="26"/>
+      <c r="J922" s="26"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="I923" s="25"/>
-      <c r="J923" s="25"/>
+      <c r="I923" s="26"/>
+      <c r="J923" s="26"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="I924" s="25"/>
-      <c r="J924" s="25"/>
+      <c r="I924" s="26"/>
+      <c r="J924" s="26"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="I925" s="25"/>
-      <c r="J925" s="25"/>
+      <c r="I925" s="26"/>
+      <c r="J925" s="26"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="I926" s="25"/>
-      <c r="J926" s="25"/>
+      <c r="I926" s="26"/>
+      <c r="J926" s="26"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="I927" s="25"/>
-      <c r="J927" s="25"/>
+      <c r="I927" s="26"/>
+      <c r="J927" s="26"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="I928" s="25"/>
-      <c r="J928" s="25"/>
+      <c r="I928" s="26"/>
+      <c r="J928" s="26"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="I929" s="25"/>
-      <c r="J929" s="25"/>
+      <c r="I929" s="26"/>
+      <c r="J929" s="26"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="I930" s="25"/>
-      <c r="J930" s="25"/>
+      <c r="I930" s="26"/>
+      <c r="J930" s="26"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="I931" s="25"/>
-      <c r="J931" s="25"/>
+      <c r="I931" s="26"/>
+      <c r="J931" s="26"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="I932" s="25"/>
-      <c r="J932" s="25"/>
+      <c r="I932" s="26"/>
+      <c r="J932" s="26"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="I933" s="25"/>
-      <c r="J933" s="25"/>
+      <c r="I933" s="26"/>
+      <c r="J933" s="26"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="I934" s="25"/>
-      <c r="J934" s="25"/>
+      <c r="I934" s="26"/>
+      <c r="J934" s="26"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="I935" s="25"/>
-      <c r="J935" s="25"/>
+      <c r="I935" s="26"/>
+      <c r="J935" s="26"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="I936" s="25"/>
-      <c r="J936" s="25"/>
+      <c r="I936" s="26"/>
+      <c r="J936" s="26"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="I937" s="25"/>
-      <c r="J937" s="25"/>
+      <c r="I937" s="26"/>
+      <c r="J937" s="26"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="I938" s="25"/>
-      <c r="J938" s="25"/>
+      <c r="I938" s="26"/>
+      <c r="J938" s="26"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="I939" s="25"/>
-      <c r="J939" s="25"/>
+      <c r="I939" s="26"/>
+      <c r="J939" s="26"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="I940" s="25"/>
-      <c r="J940" s="25"/>
+      <c r="I940" s="26"/>
+      <c r="J940" s="26"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="I941" s="25"/>
-      <c r="J941" s="25"/>
+      <c r="I941" s="26"/>
+      <c r="J941" s="26"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="I942" s="25"/>
-      <c r="J942" s="25"/>
+      <c r="I942" s="26"/>
+      <c r="J942" s="26"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="I943" s="25"/>
-      <c r="J943" s="25"/>
+      <c r="I943" s="26"/>
+      <c r="J943" s="26"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="I944" s="25"/>
-      <c r="J944" s="25"/>
+      <c r="I944" s="26"/>
+      <c r="J944" s="26"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="I945" s="25"/>
-      <c r="J945" s="25"/>
+      <c r="I945" s="26"/>
+      <c r="J945" s="26"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="I946" s="25"/>
-      <c r="J946" s="25"/>
+      <c r="I946" s="26"/>
+      <c r="J946" s="26"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="I947" s="25"/>
-      <c r="J947" s="25"/>
+      <c r="I947" s="26"/>
+      <c r="J947" s="26"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="I948" s="25"/>
-      <c r="J948" s="25"/>
+      <c r="I948" s="26"/>
+      <c r="J948" s="26"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="I949" s="25"/>
-      <c r="J949" s="25"/>
+      <c r="I949" s="26"/>
+      <c r="J949" s="26"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="I950" s="25"/>
-      <c r="J950" s="25"/>
+      <c r="I950" s="26"/>
+      <c r="J950" s="26"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="I951" s="25"/>
-      <c r="J951" s="25"/>
+      <c r="I951" s="26"/>
+      <c r="J951" s="26"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="I952" s="25"/>
-      <c r="J952" s="25"/>
+      <c r="I952" s="26"/>
+      <c r="J952" s="26"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="I953" s="25"/>
-      <c r="J953" s="25"/>
+      <c r="I953" s="26"/>
+      <c r="J953" s="26"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="I954" s="25"/>
-      <c r="J954" s="25"/>
+      <c r="I954" s="26"/>
+      <c r="J954" s="26"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="I955" s="25"/>
-      <c r="J955" s="25"/>
+      <c r="I955" s="26"/>
+      <c r="J955" s="26"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="I956" s="25"/>
-      <c r="J956" s="25"/>
+      <c r="I956" s="26"/>
+      <c r="J956" s="26"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="I957" s="25"/>
-      <c r="J957" s="25"/>
+      <c r="I957" s="26"/>
+      <c r="J957" s="26"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="I958" s="25"/>
-      <c r="J958" s="25"/>
+      <c r="I958" s="26"/>
+      <c r="J958" s="26"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="I959" s="25"/>
-      <c r="J959" s="25"/>
+      <c r="I959" s="26"/>
+      <c r="J959" s="26"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="I960" s="25"/>
-      <c r="J960" s="25"/>
+      <c r="I960" s="26"/>
+      <c r="J960" s="26"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="I961" s="25"/>
-      <c r="J961" s="25"/>
+      <c r="I961" s="26"/>
+      <c r="J961" s="26"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="I962" s="25"/>
-      <c r="J962" s="25"/>
+      <c r="I962" s="26"/>
+      <c r="J962" s="26"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="I963" s="25"/>
-      <c r="J963" s="25"/>
+      <c r="I963" s="26"/>
+      <c r="J963" s="26"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="I964" s="25"/>
-      <c r="J964" s="25"/>
+      <c r="I964" s="26"/>
+      <c r="J964" s="26"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="I965" s="25"/>
-      <c r="J965" s="25"/>
+      <c r="I965" s="26"/>
+      <c r="J965" s="26"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="I966" s="25"/>
-      <c r="J966" s="25"/>
+      <c r="I966" s="26"/>
+      <c r="J966" s="26"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="I967" s="25"/>
-      <c r="J967" s="25"/>
+      <c r="I967" s="26"/>
+      <c r="J967" s="26"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="I968" s="25"/>
-      <c r="J968" s="25"/>
+      <c r="I968" s="26"/>
+      <c r="J968" s="26"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="I969" s="25"/>
-      <c r="J969" s="25"/>
+      <c r="I969" s="26"/>
+      <c r="J969" s="26"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="I970" s="25"/>
-      <c r="J970" s="25"/>
+      <c r="I970" s="26"/>
+      <c r="J970" s="26"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="I971" s="25"/>
-      <c r="J971" s="25"/>
+      <c r="I971" s="26"/>
+      <c r="J971" s="26"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="I972" s="25"/>
-      <c r="J972" s="25"/>
+      <c r="I972" s="26"/>
+      <c r="J972" s="26"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="I973" s="25"/>
-      <c r="J973" s="25"/>
+      <c r="I973" s="26"/>
+      <c r="J973" s="26"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="I974" s="25"/>
-      <c r="J974" s="25"/>
+      <c r="I974" s="26"/>
+      <c r="J974" s="26"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="I975" s="25"/>
-      <c r="J975" s="25"/>
+      <c r="I975" s="26"/>
+      <c r="J975" s="26"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="I976" s="25"/>
-      <c r="J976" s="25"/>
+      <c r="I976" s="26"/>
+      <c r="J976" s="26"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="I977" s="25"/>
-      <c r="J977" s="25"/>
+      <c r="I977" s="26"/>
+      <c r="J977" s="26"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="I978" s="25"/>
-      <c r="J978" s="25"/>
+      <c r="I978" s="26"/>
+      <c r="J978" s="26"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="I979" s="25"/>
-      <c r="J979" s="25"/>
+      <c r="I979" s="26"/>
+      <c r="J979" s="26"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="I980" s="25"/>
-      <c r="J980" s="25"/>
+      <c r="I980" s="26"/>
+      <c r="J980" s="26"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="I981" s="25"/>
-      <c r="J981" s="25"/>
+      <c r="I981" s="26"/>
+      <c r="J981" s="26"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="I982" s="25"/>
-      <c r="J982" s="25"/>
+      <c r="I982" s="26"/>
+      <c r="J982" s="26"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="I983" s="25"/>
-      <c r="J983" s="25"/>
+      <c r="I983" s="26"/>
+      <c r="J983" s="26"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="I984" s="25"/>
-      <c r="J984" s="25"/>
+      <c r="I984" s="26"/>
+      <c r="J984" s="26"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="I985" s="25"/>
-      <c r="J985" s="25"/>
+      <c r="I985" s="26"/>
+      <c r="J985" s="26"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="I986" s="25"/>
-      <c r="J986" s="25"/>
+      <c r="I986" s="26"/>
+      <c r="J986" s="26"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="I987" s="25"/>
-      <c r="J987" s="25"/>
+      <c r="I987" s="26"/>
+      <c r="J987" s="26"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="I988" s="25"/>
-      <c r="J988" s="25"/>
+      <c r="I988" s="26"/>
+      <c r="J988" s="26"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="I989" s="25"/>
-      <c r="J989" s="25"/>
+      <c r="I989" s="26"/>
+      <c r="J989" s="26"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="I990" s="25"/>
-      <c r="J990" s="25"/>
+      <c r="I990" s="26"/>
+      <c r="J990" s="26"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="I991" s="25"/>
-      <c r="J991" s="25"/>
+      <c r="I991" s="26"/>
+      <c r="J991" s="26"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="I992" s="25"/>
-      <c r="J992" s="25"/>
+      <c r="I992" s="26"/>
+      <c r="J992" s="26"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="I993" s="25"/>
-      <c r="J993" s="25"/>
+      <c r="I993" s="26"/>
+      <c r="J993" s="26"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="I994" s="25"/>
-      <c r="J994" s="25"/>
+      <c r="I994" s="26"/>
+      <c r="J994" s="26"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="I995" s="25"/>
-      <c r="J995" s="25"/>
+      <c r="I995" s="26"/>
+      <c r="J995" s="26"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="I996" s="25"/>
-      <c r="J996" s="25"/>
+      <c r="I996" s="26"/>
+      <c r="J996" s="26"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="I997" s="25"/>
-      <c r="J997" s="25"/>
+      <c r="I997" s="26"/>
+      <c r="J997" s="26"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="I998" s="25"/>
-      <c r="J998" s="25"/>
+      <c r="I998" s="26"/>
+      <c r="J998" s="26"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="I999" s="25"/>
-      <c r="J999" s="25"/>
+      <c r="I999" s="26"/>
+      <c r="J999" s="26"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="I1000" s="25"/>
-      <c r="J1000" s="25"/>
+      <c r="I1000" s="26"/>
+      <c r="J1000" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
